--- a/接口序号图.xlsx
+++ b/接口序号图.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\~Terminal's SSD~\Tewlet\CubeMX program\engineer_2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41231C1C-531C-4011-B297-7977B4CA2907}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6420FCD3-EAB9-4800-8C8B-7C345F99CBEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,29 +26,41 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
-    <t>can2</t>
+    <t>CAN1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>底盘3508</t>
+    <t>底盘4个3508</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>关节达妙4310</t>
+    <t>矿仓电机</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>huart1</t>
+    <t>CAN2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>J43</t>
+    <t>板间通讯</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>遥控器</t>
+    <t>机械臂YAW轴电机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>臂上除YAW以外所有电机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PF10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>真空泵</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -55,7 +68,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -68,6 +81,28 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -91,8 +126,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -121,9 +169,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>332550</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>11164</xdr:rowOff>
+      <xdr:colOff>335725</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>93689</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -147,7 +195,1135 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="16842550" cy="11745964"/>
+          <a:ext cx="17511955" cy="12085820"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>98849</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>5400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>424857</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>133158</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="10" name="墨迹 9">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB45FFA9-F228-5C6D-FB8A-2AAE032601D0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="9723240" y="5400"/>
+            <a:ext cx="9950400" cy="1403280"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="10" name="墨迹 9">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB45FFA9-F228-5C6D-FB8A-2AAE032601D0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9717086" y="-809"/>
+              <a:ext cx="9962707" cy="1415698"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>205414</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>94868</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>267694</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>77113</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="17" name="墨迹 16">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90FBD11C-D8FD-789C-EF08-4D4A11A36731}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="2955240" y="641520"/>
+            <a:ext cx="62280" cy="346680"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="17" name="墨迹 16">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90FBD11C-D8FD-789C-EF08-4D4A11A36731}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2949120" y="635400"/>
+              <a:ext cx="74520" cy="358920"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>648287</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>39010</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>669310</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>18376</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="18" name="墨迹 17">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD42FDB8-7613-B9EE-1ABF-9F0333A9C83A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="2023200" y="767880"/>
+            <a:ext cx="708480" cy="343800"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="18" name="墨迹 17">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD42FDB8-7613-B9EE-1ABF-9F0333A9C83A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2017080" y="761760"/>
+              <a:ext cx="720720" cy="356040"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>508680</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>21777</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>609983</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>177240</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="23" name="墨迹 22">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B51F867-7D74-A4AC-18E5-7EDF66034F40}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="508680" y="4030560"/>
+            <a:ext cx="788760" cy="337680"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="23" name="墨迹 22">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B51F867-7D74-A4AC-18E5-7EDF66034F40}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="502560" y="4024440"/>
+              <a:ext cx="801000" cy="349920"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>45571</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>1210</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>265675</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>44656</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="28" name="墨迹 27">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6A23AAC-272F-EBE4-F770-06193B841C35}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="6232680" y="730080"/>
+            <a:ext cx="907560" cy="407880"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="28" name="墨迹 27">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6A23AAC-272F-EBE4-F770-06193B841C35}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6226560" y="723960"/>
+              <a:ext cx="919800" cy="420120"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>305131</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>13471</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>332491</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>45511</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="29" name="墨迹 28">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD77CEAB-13E2-4C57-CE13-8523CD00DE65}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="6492240" y="10764297"/>
+            <a:ext cx="27360" cy="32040"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="29" name="墨迹 28">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD77CEAB-13E2-4C57-CE13-8523CD00DE65}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6486120" y="10758177"/>
+              <a:ext cx="39600" cy="44280"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>28651</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>31774</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>333355</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>70539</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId14">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="34" name="墨迹 33">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9363A9E-DEF9-81C5-63B2-879AC3C33FE6}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="6215760" y="10964817"/>
+            <a:ext cx="992160" cy="403200"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="34" name="墨迹 33">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9363A9E-DEF9-81C5-63B2-879AC3C33FE6}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6209642" y="10958697"/>
+              <a:ext cx="1004396" cy="415440"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>104470</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>111694</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>356614</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>158019</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId16">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="39" name="墨迹 38">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{459652E9-255F-C8D5-2CEA-4124721DC444}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="2166840" y="11044737"/>
+            <a:ext cx="939600" cy="410760"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="39" name="墨迹 38">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{459652E9-255F-C8D5-2CEA-4124721DC444}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2160720" y="11038617"/>
+              <a:ext cx="951840" cy="423000"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>560945</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>143719</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>238312</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>19346</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId18">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="54" name="墨迹 53">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FE4D92F-3256-B354-7BBD-CBCD0BAAD2A6}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="9497880" y="7796849"/>
+            <a:ext cx="1052280" cy="422280"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="54" name="墨迹 53">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FE4D92F-3256-B354-7BBD-CBCD0BAAD2A6}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9491758" y="7790724"/>
+              <a:ext cx="1064524" cy="434530"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>451072</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>123199</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>246736</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>124466</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId20">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="60" name="墨迹 59">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4371E681-9AC0-8A53-1AD1-228B4D09004B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="10762920" y="7776329"/>
+            <a:ext cx="483120" cy="547920"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="60" name="墨迹 59">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4371E681-9AC0-8A53-1AD1-228B4D09004B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10756800" y="7770209"/>
+              <a:ext cx="495360" cy="560160"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>288136</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>51559</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>40023</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>99626</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId22">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="89" name="墨迹 88">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F810ED2-3D6A-2D84-628B-8462017F8F62}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="11287440" y="7704689"/>
+            <a:ext cx="1126800" cy="594720"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="89" name="墨迹 88">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F810ED2-3D6A-2D84-628B-8462017F8F62}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="11281320" y="7698569"/>
+              <a:ext cx="1139040" cy="606960"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>239026</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>83732</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>453794</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>4362</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId24">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="136" name="墨迹 135">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D38344B-AEDB-34E9-1696-3F1930D1E618}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="15277320" y="6538320"/>
+            <a:ext cx="4999680" cy="2072160"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="136" name="墨迹 135">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D38344B-AEDB-34E9-1696-3F1930D1E618}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="15271200" y="6532199"/>
+              <a:ext cx="5011920" cy="2084402"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>540148</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>23400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>524749</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>101132</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId26">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="144" name="墨迹 143">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C052512-622E-F1EF-FDA8-F88ADC0FAA3B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="16945560" y="9167400"/>
+            <a:ext cx="668160" cy="436320"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="144" name="墨迹 143">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C052512-622E-F1EF-FDA8-F88ADC0FAA3B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="16939440" y="9161280"/>
+              <a:ext cx="680400" cy="448560"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>121271</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>6480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>614552</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>79892</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId28">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="149" name="墨迹 148">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38CF2ADF-F5F3-F6C9-797D-3EBBF00D95CD}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="17893800" y="9150480"/>
+            <a:ext cx="1176840" cy="432000"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="149" name="墨迹 148">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38CF2ADF-F5F3-F6C9-797D-3EBBF00D95CD}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId29"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="17887680" y="9144360"/>
+              <a:ext cx="1189080" cy="444240"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>253832</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>51409</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>501872</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>171981</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId30">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="164" name="墨迹 163">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59E7864A-0DD5-5A47-1B23-A16B8AEFFBA4}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="19393479" y="10091880"/>
+            <a:ext cx="248040" cy="479160"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="164" name="墨迹 163">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{59E7864A-0DD5-5A47-1B23-A16B8AEFFBA4}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId31"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="19387359" y="10085760"/>
+              <a:ext cx="260280" cy="491400"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>374143</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>49249</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>486752</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>70391</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId32">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="184" name="墨迹 183">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C458859-2FF5-3CBC-120D-81954BE1FA38}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="14045319" y="10089720"/>
+            <a:ext cx="5581080" cy="1276200"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="184" name="墨迹 183">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C458859-2FF5-3CBC-120D-81954BE1FA38}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId33"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="14039199" y="10083598"/>
+              <a:ext cx="5593320" cy="1288443"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>358588</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>67235</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>32575</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>22411</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="185" name="图片 184">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B026D57-84E5-E127-7895-4D84427A49C5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17447559" y="1322294"/>
+          <a:ext cx="4458898" cy="2644588"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>369794</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>123264</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>177237</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>134470</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="186" name="图片 185">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81843084-CBAF-4B61-9591-0A1D92F05686}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId35"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17458765" y="4067735"/>
+          <a:ext cx="3908796" cy="2162735"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -157,6 +1333,1156 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>39541</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>163059</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9F38234-CB59-FD59-B174-00DAA76223DD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="1100291" y="-1100291"/>
+          <a:ext cx="8125959" cy="10326541"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>339120</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>111345</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>25560</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>83070</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="5" name="墨迹 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9549EE6F-EE61-03DB-1D56-36DDB4B3F22E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="5139720" y="292320"/>
+            <a:ext cx="1058040" cy="876600"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="5" name="墨迹 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9549EE6F-EE61-03DB-1D56-36DDB4B3F22E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5133600" y="286200"/>
+              <a:ext cx="1070280" cy="888840"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1440</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>90720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>66960</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>144885</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="14" name="墨迹 13">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36869358-B6DC-B42B-BFC6-5B87869A4FD9}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="4116240" y="90720"/>
+            <a:ext cx="2122920" cy="959040"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="14" name="墨迹 13">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36869358-B6DC-B42B-BFC6-5B87869A4FD9}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4110120" y="84600"/>
+              <a:ext cx="2135160" cy="971280"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>347760</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>118905</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>625680</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>132075</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="22" name="墨迹 21">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3AA098F-E112-712C-E8AD-9731179F4BD1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="3090960" y="299880"/>
+            <a:ext cx="963720" cy="375120"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="22" name="墨迹 21">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3AA098F-E112-712C-E8AD-9731179F4BD1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3084842" y="293766"/>
+              <a:ext cx="975955" cy="387348"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>331920</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>71025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>564840</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>132795</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="30" name="墨迹 29">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80D2AE9C-70AF-08E7-EBFA-6D2314522EC9}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="6504120" y="252000"/>
+            <a:ext cx="918720" cy="423720"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="30" name="墨迹 29">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80D2AE9C-70AF-08E7-EBFA-6D2314522EC9}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6498000" y="245880"/>
+              <a:ext cx="930960" cy="435960"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>154112</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>57714</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="58" name="图片 57">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B2F5765-95E3-8C5B-DD55-84FEC14D7A18}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9829800" y="0"/>
+          <a:ext cx="12269912" cy="4039164"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/ink/ink1.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-04-17T13:13:43.985"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">2780 623 160 0 0,'-14'-28'7785'0'0,"-29"33"-2993"0"0,-122 1-1193 0 0,-81 24-2605 0 0,34-8-159 0 0,143-17-494 0 0,-277 18 1248 0 0,-315 0-181 0 0,635-23-1356 0 0,-1 1 1 0 0,0 1-1 0 0,0 1 1 0 0,1 2 0 0 0,0 0-1 0 0,-32 11 1 0 0,40-8-59 0 0,1 1 0 0 0,-1 1 0 0 0,2 0 0 0 0,-1 1 0 0 0,1 1 0 0 0,1 0 0 0 0,-18 19 0 0 0,-90 111 67 0 0,65-71 141 0 0,24-32-75 0 0,12-16-56 0 0,2 1 0 0 0,0 1 1 0 0,-24 42-1 0 0,18-17-84 0 0,-100 207 45 0 0,56-116-28 0 0,38-67-9 0 0,16-38 0 0 0,-15 47 1 0 0,22-51 0 0 0,1 0 0 0 0,2 1-1 0 0,1 0 1 0 0,-1 50 0 0 0,6-60 0 0 0,1-1 0 0 0,2 1 0 0 0,0-1 0 0 0,2 1 0 0 0,0-1 0 0 0,1-1 0 0 0,15 35 0 0 0,-1-17 27 0 0,0 0 1 0 0,3-2-1 0 0,1 0 0 0 0,57 65 1 0 0,-70-91-18 0 0,-1-1-1 0 0,1-1 1 0 0,1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,21 9-1 0 0,-2-2 17 0 0,53 17-1 0 0,545 142 437 0 0,-246-74-67 0 0,596 150 320 0 0,65-43 149 0 0,-656-154-563 0 0,216 35 102 0 0,-233-32-257 0 0,543 39 64 0 0,-100-72-21 0 0,-301-1-50 0 0,557 11 109 0 0,-362-5-107 0 0,-38-17-113 0 0,-413-13-13 0 0,-96 1 0 0 0,363 16-21 0 0,-315 0 88 0 0,336-17 0 0 0,-193-29 123 0 0,-161 12-58 0 0,189-22 113 0 0,616-56 139 0 0,-68-57-187 0 0,-534 80-155 0 0,-41 25-51 0 0,-50 8 0 0 0,-202 23 27 0 0,177-54 1 0 0,-223 53-18 0 0,0-3 0 0 0,-1-3 0 0 0,-1-1 0 0 0,77-54 1 0 0,-74 42-7 0 0,203-157 52 0 0,-223 164-60 0 0,60-58 3 0 0,-85 77 12 0 0,-1 0 0 0 0,0-1 1 0 0,-1 0-1 0 0,0 0 1 0 0,-1-1-1 0 0,8-18 0 0 0,-13 23 3 0 0,0-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,-5-18 0 0 0,-5-10 8 0 0,-26-62 0 0 0,10 30 8 0 0,-83-210 599 0 0,87 231-462 0 0,-2 2 0 0 0,-2 1 0 0 0,-55-70 0 0 0,-14-6-58 0 0,-70-81 47 0 0,99 132-39 0 0,-119-99 0 0 0,101 108-72 0 0,-137-75-1 0 0,115 74-29 0 0,-202-106 26 0 0,300 165-42 0 0,-491-220 23 0 0,429 197-31 0 0,-84-28 6 0 0,-546-102-23 0 0,168 57 56 0 0,333 61-29 0 0,-98-13-31 0 0,224 44 14 0 0,-671-43-20 0 0,354 37 15 0 0,-389 14-48 0 0,327 14 98 0 0,-838 4-79 0 0,706-9 92 0 0,-445-4-88 0 0,537 4 76 0 0,303-7-50 0 0,1 9 1 0 0,-214 39 0 0 0,-93 27-43 0 0,419-67 39 0 0,-537 92-86 0 0,470-63 98 0 0,66-16-5 0 0,-158 25 0 0 0,-179 16-77 0 0,384-58 104 0 0,0-1 0 0 0,-52 1 0 0 0,42-3-34 0 0,1 1 0 0 0,0 2 0 0 0,0 2 0 0 0,-69 23 0 0 0,-2-1 3 0 0,22-3 22 0 0,53-14-2 0 0,-40 7-1 0 0,-187 43-72 0 0,-60 11-2653 0 0,296-70 1597 0 0,-1-2 0 0 0,-41-1-1 0 0,-13-9-6025 0 0,80 8 6684 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-3 0 0 0,1-25-2407 0 0,4 17 2239 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1139.62">16243 1783 28 0 0,'-6'-2'568'0'0,"1"0"0"0"0,0 0 0 0 0,-1 0 0 0 0,1 1-1 0 0,-1 0 1 0 0,-10-1 0 0 0,-17 2 14244 0 0,41 2-11164 0 0,43 8-2214 0 0,381-24 2683 0 0,-198 3-3519 0 0,237 18 0 0 0,303 96 29 0 0,-395-46 393 0 0,-368-55-986 0 0,717 115 1842 0 0,-592-85-1876 0 0,136 51 0 0 0,-235-70 0 0 0,298 96 0 0 0,-256-87 0 0 0,0-4 0 0 0,109 10 0 0 0,114-13-1007 0 0,-301-15 332 0 0,-9-28-10033 0 0,2 14 7491 0 0,0 0 1 0 0,-1 0-1 0 0,-16-25 1 0 0,-34-36-3862 0 0,47 62 6645 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1472.61">20655 1751 428 0 0,'-8'-2'1621'0'0,"0"-1"1"0"0,0 1-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 1 0 0,-14 0-1 0 0,21 1 68 0 0,-3 9 6988 0 0,125 88-3346 0 0,-23-20-3196 0 0,14 14-317 0 0,57 51-478 0 0,-163-137-1340 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,2 6 0 0 0,-4-10 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,-3 1 0 0 0,0 2 0 0 0,-16 9 0 0 0,0 0 0 0 0,-1-1 0 0 0,-25 9 0 0 0,-31 16 0 0 0,-58 35-251 0 0,-107 62-4092 0 0,131-52-1850 0 0,83-57 1061 0 0,-44 50-1 0 0,61-62 2204 0 0,13-17-802 0 0,17-23-1000 0 0,-14 21 5229 0 0,12-15-1220 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2270.02">22702 2245 152 0 0,'18'-26'1287'0'0,"-8"14"646"0"0,-1-1-1 0 0,0-1 1 0 0,-1 0-1 0 0,-1 0 1 0 0,0-1-1 0 0,9-28 1 0 0,-16 40-1653 0 0,0 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 1 0 0 0,-1-1 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,-5-2-1 0 0,-3-1 209 0 0,1 0-1 0 0,-1 0 1 0 0,0 1-1 0 0,0 1 0 0 0,0 0 1 0 0,-1 0-1 0 0,-12 1 0 0 0,0 2-114 0 0,-1 1 0 0 0,1 1 0 0 0,0 1-1 0 0,-1 1 1 0 0,2 2 0 0 0,-1 0 0 0 0,1 1 0 0 0,0 2-1 0 0,1 0 1 0 0,0 1 0 0 0,-28 19 0 0 0,4 3-268 0 0,1 2 0 0 0,1 2 0 0 0,-67 75 0 0 0,79-77-106 0 0,3 2 0 0 0,0 0 0 0 0,3 2 0 0 0,1 1 0 0 0,2 1 0 0 0,-18 46 0 0 0,30-59 0 0 0,1 0 0 0 0,1 1 0 0 0,1 0 0 0 0,2 0 0 0 0,1 1 0 0 0,1 0 0 0 0,2 0 0 0 0,1 0 0 0 0,1 0 0 0 0,6 41 0 0 0,-5-63-4 0 0,1-1 1 0 0,-1 0-1 0 0,1 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,1 0 1 0 0,0-1-1 0 0,1 0 0 0 0,-1 1 1 0 0,2-1-1 0 0,-1-1 1 0 0,0 1-1 0 0,1 0 0 0 0,0-1 1 0 0,0 0-1 0 0,1-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1-1 1 0 0,1 0-1 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,14 2 1 0 0,-1-1-309 0 0,1-1 1 0 0,-1-1-1 0 0,1-1 1 0 0,0 0-1 0 0,-1-2 1 0 0,1 0-1 0 0,-1-2 1 0 0,33-9-1 0 0,28-14-4200 0 0,111-54 0 0 0,-47 17-3911 0 0,-132 59 7473 0 0,1 1-1 0 0,0 0 1 0 0,0 1-1 0 0,1 0 0 0 0,-1 1 1 0 0,0 1-1 0 0,1 0 1 0 0,0 1-1 0 0,-1 0 1 0 0,1 1-1 0 0,14 4 1 0 0,-9 2 265 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2969.03">23836 2218 120 0 0,'-12'-24'2716'0'0,"10"7"4721"0"0,1 15-7073 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 1 1 0 0,0-1-1 0 0,0 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 1 0 0,1 1-1 0 0,-4 0 0 0 0,-4 0 151 0 0,0 1-1 0 0,0 1 0 0 0,1-1 0 0 0,-1 2 0 0 0,0-1 1 0 0,1 1-1 0 0,0 0 0 0 0,-13 7 0 0 0,-63 41 269 0 0,61-36-420 0 0,-17 12 83 0 0,2 2 1 0 0,0 1-1 0 0,2 2 0 0 0,2 1 0 0 0,-53 65 0 0 0,70-75-274 0 0,1 0-1 0 0,1 0 1 0 0,1 1-1 0 0,1 1 1 0 0,1 0-1 0 0,1 1 0 0 0,2 1 1 0 0,0-1-1 0 0,2 1 1 0 0,1 0-1 0 0,-3 33 1 0 0,8-45-131 0 0,1 1 1 0 0,1-1-1 0 0,0 0 0 0 0,1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,1 0-1 0 0,1-1 1 0 0,0 1-1 0 0,12 20 0 0 0,-14-28-28 0 0,1-1-1 0 0,-1 1 1 0 0,2-1-1 0 0,-1 0 1 0 0,1 0-1 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,1 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,1-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,1-1 1 0 0,-1 0-1 0 0,12 1 1 0 0,-2-4-55 0 0,0 0 0 0 0,0 0 0 0 0,0-2 0 0 0,0 0-1 0 0,-1-1 1 0 0,1 0 0 0 0,-1-2 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-2 0 0 0,-1 0 0 0 0,1 0 0 0 0,-2-1 0 0 0,1-1 0 0 0,22-24 0 0 0,6-10-572 0 0,-3-1 0 0 0,-1-2 0 0 0,34-59 0 0 0,-36 51-27 0 0,-2-2 0 0 0,-3 0 0 0 0,-3-3 0 0 0,-2 0 1 0 0,20-71-1 0 0,-43 117 598 0 0,1 3 68 0 0,0-1 1 0 0,-1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,-2-17 0 0 0,2 30 15 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 2 20 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,-1 3 0 0 0,-4 4 143 0 0,1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-4 11 0 0 0,9-19-198 0 0,-40 131 1224 0 0,37-116-1113 0 0,0 0 1 0 0,1 0 0 0 0,1 1-1 0 0,0-1 1 0 0,1 1 0 0 0,4 22-1 0 0,3 5 117 0 0,24 81-1 0 0,-26-109-351 0 0,1-1 0 0 0,0 0-1 0 0,1-1 1 0 0,1 0 0 0 0,0 0-1 0 0,1 0 1 0 0,1-1 0 0 0,19 21-1 0 0,-26-31-124 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1-1 0 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,5-1 0 0 0,-4-1-579 0 0,1 0 0 0 0,-1 0-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1-1 0 0 0,-1 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,5-7-1 0 0,86-106-9093 0 0,-85 99 9198 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3641.12">24871 2117 100 0 0,'-8'-5'10078'0'0,"14"17"-3321"0"0,-4-1-7872 0 0,-2 10 2297 0 0,1 3-327 0 0,-2 0-1 0 0,0 0 0 0 0,-2 0 1 0 0,-7 34-1 0 0,-6-1-108 0 0,-84 273 854 0 0,66-229-1334 0 0,58-133-287 0 0,149-211-322 0 0,-169 238 336 0 0,66-86-81 0 0,5 3-1 0 0,99-92 1 0 0,-165 172 88 0 0,1-1 0 0 0,0 2 0 0 0,0 0 0 0 0,1 0 0 0 0,0 0 0 0 0,1 2 0 0 0,21-9 0 0 0,-30 13 19 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,4 2 0 0 0,-3-1 32 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,-1 1 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 1 0 0,0 1-1 0 0,1 4 1 0 0,3 16 375 0 0,-1 0 0 0 0,-1 0 0 0 0,-1 1 0 0 0,-2 0 0 0 0,-3 37 0 0 0,-25 125 1152 0 0,16-119-1206 0 0,-7 34-34 0 0,-21 164-877 0 0,34-142-4301 0 0,6-124 4652 0 0,0 0 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 1 0 0 0,0-1-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,1 0 0 0 0,18-11-4277 0 0,23-29 1468 0 0,-36 34 1741 0 0,78-87-3155 0 0,-60 69 3718 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4141.92">26515 1985 124 0 0,'5'-19'2009'0'0,"9"18"383"0"0,23 26 2376 0 0,-13-8-2620 0 0,97 45 4412 0 0,-71-35-4406 0 0,73 53 0 0 0,-113-73-1960 0 0,0 1 0 0 0,-1 0 0 0 0,0 1-1 0 0,0 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,12 21 0 0 0,-16-25-115 0 0,-1 1 0 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,-1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1-1 0 0,0-1 1 0 0,-4 11 0 0 0,-10 17 142 0 0,-1-1 1 0 0,-1-1-1 0 0,-41 55 1 0 0,-82 81-47 0 0,106-129-167 0 0,4-5 15 0 0,-1-1 1 0 0,-2-1-1 0 0,-1-2 1 0 0,-1-2 0 0 0,-48 29-1 0 0,80-55 81 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-7 0 1494 0 0,54 12-351 0 0,81 7 400 0 0,113 11-1095 0 0,-32-12-541 0 0,-125-9-364 0 0,0-4 1 0 0,125-5-1 0 0,-194-2-460 0 0,1-1 1 0 0,-1 0 0 0 0,0 0 0 0 0,15-5 0 0 0,3-10-3866 0 0,-8-10-3527 0 0,-25 11 2309 0 0,-15-5 2039 0 0,-24 2 95 0 0,21 14 2953 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink10.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-04-17T13:14:55.830"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">148 631 68 0 0,'-25'5'2234'0'0,"12"-2"1483"0"0,-1-1 8258 0 0,42-12-9064 0 0,17 8-1590 0 0,0-3-1 0 0,66-15 0 0 0,-2 0-505 0 0,-82 15-913 0 0,45-16-1 0 0,-116 49-11594 0 0,-54 51 4476 0 0,49-38 4433 0 0,-28 24-45 0 0,54-42 2196 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="188.8">39 1049 292 0 0,'-1'2'376'0'0,"-1"-1"-1"0"0,1 1 1 0 0,-1 0-1 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,-4 1 0 0 0,-5 1 4405 0 0,20-11 4398 0 0,22-13-7513 0 0,128-77 1902 0 0,-133 84-3653 0 0,0 2 0 0 0,1 1 1 0 0,0 0-1 0 0,40-8 1 0 0,36-1-3799 0 0,1 12-6807 0 0,-101 8 10335 0 0,0 0 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1-1 0 0,0-1 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,-1-2 0 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,1 1 0 0 0,1-5 0 0 0,5-3-261 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="418.17">1000 103 28 0 0,'9'-18'804'0'0,"16"-31"2678"0"0,-23 45-2749 0 0,0 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,7-4 11655 0 0,-28 45-9315 0 0,-104 221-682 0 0,-20-8-5066 0 0,112-201 1024 0 0,-11 19-2194 0 0,32-56 1067 0 0,0 0 0 0 0,-21 21 0 0 0,30-34 2682 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-2-1 0 0,0 1 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1-1 0 0,0-22-2293 0 0,7-24 819 0 0,3 15 710 0 0,3 0 148 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="600.69">915 103 192 0 0,'1'-1'157'0'0,"0"0"-1"0"0,0 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,1-1 0 0 0,-1 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,1 1 0 0 0,-1-1-1 0 0,0 1 1 0 0,1 0 0 0 0,2 2 827 0 0,0 1-1 0 0,0-1 1 0 0,-1 1 0 0 0,0 0 0 0 0,1 0 0 0 0,3 8 0 0 0,-2-5-451 0 0,14 19 2435 0 0,1 0 0 0 0,26 24 0 0 0,105 85 658 0 0,-141-126-3422 0 0,25 17 109 0 0,-27-21-481 0 0,0 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 1 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,10 14 0 0 0,-16-20-24 0 0,0-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,-1-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,-2 1 0 0 0,-25 14-4195 0 0,-36-2-1472 0 0,51-14 5237 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,1-1 0 0 0,-1 0 1 0 0,1-1-1 0 0,-1 0 0 0 0,1 0 1 0 0,0-1-1 0 0,-12-8 0 0 0,-5-1-76 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="775.48">864 256 296 0 0,'-15'76'7827'0'0,"26"198"5170"0"0,31 141-6663 0 0,-14-157-5291 0 0,-9-65-4487 0 0,-10-146-1408 0 0,-9-44 2875 0 0,-18-27-7976 0 0,-40-102 2831 0 0,40 90 6337 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink11.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-04-17T13:15:00.772"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">28 1239 60 0 0,'2'2'5449'0'0,"6"10"9131"0"0,-5-9-12840 0 0,-2-1-3384 0 0,3 2 1993 0 0,0 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 10 0 0 0,4 6 216 0 0,-1-8-389 0 0,-1 1 0 0 0,-1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 18 0 0 0,-2-31-275 0 0,-9-34-11182 0 0,10-30 3523 0 0,0 42 5824 0 0,1 0-1 0 0,8-31 0 0 0,-6 33 1246 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="-261.66">90 571 4 0 0,'-1'0'89'0'0,"1"-1"1"0"0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1-1 0 0 0,1 1 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 1 0 0 0,0-1 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,-1 0-1 0 0,1 1 1 0 0,-4 18 4097 0 0,5 21 1687 0 0,31 119 1244 0 0,-31-131-6512 0 0,-30-28-11653 0 0,25-1 10555 0 0,1 1-1 0 0,-1 0 1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,-3 4 0 0 0,1 2-98 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1138.49">509 668 240 0 0,'-29'9'28685'0'0,"53"-11"-28404"0"0,0-1 0 0 0,0-2 0 0 0,-1 0 0 0 0,0-1 0 0 0,0-2 0 0 0,0 0 0 0 0,27-15 0 0 0,-11 6-396 0 0,42-12 0 0 0,-33 11-501 0 0,-38 14 12 0 0,0 0 1 0 0,0 0 0 0 0,0 1 0 0 0,0 0 0 0 0,1 1 0 0 0,18-2-1 0 0,-18 3-8437 0 0,-39-10-2354 0 0,-45 0 7240 0 0,59 10 3480 0 0,0-3 125 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1427.9">697 302 88 0 0,'2'5'8782'0'0,"6"18"-6418"0"0,-5-14-3559 0 0,-3-5-2658 0 0,-19-3 1325 0 0,1-2-571 0 0,14-3 2712 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="14798.06">2897 1201 160 0 0,'1'3'405'0'0,"0"0"0"0"0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,-2 6 4552 0 0,0-23-12594 0 0,1 10 8078 0 0,-26-20-3824 0 0,23 20 2953 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="16272.72">636 311 248 0 0,'0'-5'481'0'0,"1"1"0"0"0,-1-1-1 0 0,1 1 1 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,5-5 0 0 0,-7 7-250 0 0,1 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,4 1 0 0 0,-5-2-27 0 0,1 1-1 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 1 0 0,-1 1-1 0 0,0-1 1 0 0,1 1 0 0 0,-1 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,-1 0-1 0 0,0 1 1 0 0,-9 39 160 0 0,-2 0 1 0 0,-1-2-1 0 0,-2 1 1 0 0,-2-2-1 0 0,-1 0 1 0 0,-47 71-1 0 0,43-77-620 0 0,-27 54 0 0 0,36-60 65 0 0,8-17-390 0 0,8-15-1682 0 0,-8 10-3068 0 0,-3 7 3041 0 0,0-1 0 0 0,0-1 0 0 0,-1 0 0 0 0,-19 16 0 0 0,8-12-1334 0 0,13-14 3218 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="16860.81">400 895 412 0 0,'0'0'2024'0'0,"19"37"7745"0"0,-17-33-9455 0 0,0 0-1 0 0,-1-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,-1 6 1 0 0,1 13 676 0 0,7 61 1418 0 0,-4 94 0 0 0,-4-107-2150 0 0,-13 18-663 0 0,14-89 343 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 1 1 0 0,0-1-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1-1 1 0 0,0 1-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1-1 1 0 0,0 1-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0-1-1 0 0,-13-13-1467 0 0,8-1 335 0 0,1 0 0 0 0,0 0 0 0 0,1-1 0 0 0,0 0 0 0 0,0-29 1 0 0,7-84-3235 0 0,-4 124 4270 0 0,0 3 114 0 0,20-204-4505 0 0,-15 172 5588 0 0,21-65 0 0 0,-25 97-537 0 0,0-1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,5-2 0 0 0,54-15 4444 0 0,-11 5-2182 0 0,-34 8-1726 0 0,-1 1-1 0 0,1 0 1 0 0,19-1-1 0 0,14-4 1298 0 0,-42 7-2008 0 0,0 1 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0 0 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,1 1-1 0 0,10 7 1 0 0,-14-7-322 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,-1-1-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 1 0 0,-1 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,-2 8 0 0 0,0 6 3 0 0,0 106-8 0 0,-1-60 0 0 0,3 1 0 0 0,2-1 0 0 0,15 82 0 0 0,-12-92-43 0 0,-5-54-215 0 0,-3-3-1467 0 0,1-1 1098 0 0,-1 1-1 0 0,1-1 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 0 1 0 0,0 0-1 0 0,-2-4 1 0 0,-2-2-1457 0 0,-42-66-8384 0 0,5-5 3630 0 0,-20-34 1284 0 0,53 95 4985 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="17118.11">537 886 44 0 0,'-1'0'207'0'0,"0"0"0"0"0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 1 0 0,0 0-1 0 0,1-1 0 0 0,-1 1 0 0 0,-7 11 12512 0 0,45 2-8421 0 0,-23-9-3976 0 0,0 0-1 0 0,0-1 1 0 0,0 0-1 0 0,1-1 1 0 0,-1-1-1 0 0,24 1 1 0 0,42 8 301 0 0,-75-11-712 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 1 0 0,5-3-1 0 0,-9 4-419 0 0,-25-22-7828 0 0,19 21 7676 0 0,0 0 0 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 0 0 0,1 1 1 0 0,0-1-1 0 0,-1 1 0 0 0,1 0 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-7 2 0 0 0,2-1 18 0 0,-1 0 0 0 0,1 1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 2 0 0 0,-12 6-1 0 0,8-1 200 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="17317.01">466 1062 564 0 0,'0'0'11275'0'0,"34"0"-5398"0"0,143 5-1128 0 0,-148-11-5423 0 0,-15-1-3081 0 0,-56-9-7344 0 0,31 14 9903 0 0,1-1-10 0 0,-1 0-1 0 0,0 1 1 0 0,-21-1 0 0 0,22 3 614 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="17516.75">476 1095 28 0 0,'8'19'8847'0'0,"26"-1"-2779"0"0,32-3-3247 0 0,-53-12-2261 0 0,18 1-399 0 0,0-1 1 0 0,49 0-1 0 0,-80-3-613 0 0,-12 3-7856 0 0,-42 12 3666 0 0,-63 22-289 0 0,98-32 4492 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="17804.81">236 1405 72 0 0,'-13'23'13603'0'0,"36"-21"-8557"0"0,22-14-2096 0 0,-20 4-1826 0 0,30-5 371 0 0,1 2 0 0 0,0 3 0 0 0,0 2 0 0 0,93 2-1 0 0,-36 8-500 0 0,-49-2-793 0 0,70 10-1 0 0,-111-10 382 0 0,-6-4-3381 0 0,-17 2 2719 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,-19-11-3189 0 0,-49-17-4104 0 0,-49-17-1315 0 0,94 37 7431 0 0,0 2 1 0 0,-1 0-1 0 0,-28-2 0 0 0,28 7 614 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="17965.53">565 1373 160 0 0,'3'10'1384'0'0,"-3"-8"-650"0"0,0 0-1 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,-1 0-1 0 0,1-1 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 1 1 0 0,1-1-1 0 0,-6 7 7856 0 0,-6 4-5114 0 0,4-9-3301 0 0,2 1-1 0 0,-1 0 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,2 1 1 0 0,-1-1 0 0 0,0 1-1 0 0,-4 6 1 0 0,-30 27-560 0 0,-1 0-1915 0 0,26-24-1462 0 0,5-26-8994 0 0,10 4 12217 0 0,1 0 1 0 0,-1 1-1 0 0,2-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,0-1 0 0 0,1 1 1 0 0,4-9-1 0 0,2-6-131 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="18116.44">598 1364 436 0 0,'16'7'1126'0'0,"0"1"0"0"0,-1 1 1 0 0,0 0-1 0 0,-1 1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1 1 0 0 0,0 0 1 0 0,16 22-1 0 0,-10-13 824 0 0,0-1 1 0 0,39 30-1 0 0,18-2-372 0 0,-69-44-1859 0 0,0-1 1 0 0,1 1 0 0 0,-1-1 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,14 0 0 0 0,-21-2-687 0 0,1-2 227 0 0,0 1 0 0 0,0-1 0 0 0,0 0-1 0 0,0-1 1 0 0,-1 1 0 0 0,1 0-1 0 0,0 0 1 0 0,2-6 0 0 0,-14-54-5180 0 0,1 19 3931 0 0,9 24 1297 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="18371.28">1625 0 556 0 0,'1'2'426'0'0,"0"-1"0"0"0,-1 0 0 0 0,1 1-1 0 0,0-1 1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0-1 0 0,-1 1 1 0 0,0-1 59 0 0,1 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0 0 0 0,0 4-1 0 0,24 37 6731 0 0,-18-31-7266 0 0,2 0 0 0 0,0-1-1 0 0,12 13 1 0 0,-20-24-168 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,-22 15-5185 0 0,-48 5-17 0 0,55-16 4055 0 0,-2 2 598 0 0,-1 2 163 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="18541.04">1239 492 172 0 0,'-1'2'144'0'0,"-10"41"4492"0"0,-28 75 0 0 0,26-89-1516 0 0,-12 45 1 0 0,22-61-3015 0 0,1-1 1 0 0,0 1 0 0 0,-1 21-1 0 0,9-8-2737 0 0,0-24-854 0 0,0-16 1281 0 0,7-38-1463 0 0,26-68 1 0 0,-29 93 3200 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="18796.69">1328 483 68 0 0,'79'5'12653'0'0,"-55"-2"-10074"0"0,0-1 1 0 0,42-2-1 0 0,25-8 481 0 0,73-8 1029 0 0,112-39 981 0 0,-271 54-5055 0 0,-1 1 1 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 1 0 0 0,1-1-1 0 0,8 3 1 0 0,-13-3-23 0 0,1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0-1 0 0,0-1 1 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,-9 19-1134 0 0,9-16 912 0 0,0-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,-4 3 1 0 0,-38 40-3999 0 0,22-22 460 0 0,-1-2 0 0 0,-47 38 0 0 0,29-33 23 0 0,0-1 1 0 0,-60 27 0 0 0,53-30 2031 0 0,24-17 1130 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="18991.82">1554 603 160 0 0,'-8'-4'10546'0'0,"-7"40"970"0"0,4 6-7512 0 0,7-26-3797 0 0,-1 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,-14 27 0 0 0,-2-8-99 0 0,-37 53-853 0 0,53-80-189 0 0,-1 0 1 0 0,-1 0 0 0 0,1-1 0 0 0,-1 0 0 0 0,-1 0-1 0 0,1-1 1 0 0,-19 10 0 0 0,26-15 651 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 1-1 0 0,-1-2 1 0 0,1 1-47 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0-3 1 0 0,1-4-318 0 0,1-1-1 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,6-13 1 0 0,4-1-179 0 0,1-3 160 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="19153.16">1597 622 544 0 0,'12'5'1020'0'0,"0"1"-1"0"0,0 1 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 1-1 0 0,-1 1 1 0 0,1 0-1 0 0,8 10 1 0 0,42 34 5019 0 0,109 63-304 0 0,-160-105-6539 0 0,-10-10 610 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1 0 0 0,0 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,0 0 0 0 0,0-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 1 0 0 0,-1-1-1 0 0,1 1 1 0 0,0-1 0 0 0,-1 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,1 1 0 0 0,-1-1 0 0 0,1 0-1 0 0,-1 1 1 0 0,0-1 0 0 0,-4 3-812 0 0,1-1 1 0 0,-1 1 0 0 0,0-1-1 0 0,0-1 1 0 0,0 1-1 0 0,-8 0 1 0 0,-95 14-6127 0 0,85-12 6427 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="19350.56">1484 1030 544 0 0,'-1'0'333'0'0,"1"0"-1"0"0,-1 0 1 0 0,1 1 0 0 0,0-1 0 0 0,-1 0-1 0 0,1 1 1 0 0,0-1 0 0 0,-1 0-1 0 0,1 1 1 0 0,0-1 0 0 0,-1 0-1 0 0,1 1 1 0 0,0-1 0 0 0,0 1 0 0 0,0-1-1 0 0,-1 0 1 0 0,1 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 1 0 0 0,1 0-1 0 0,20 6 5563 0 0,45-7-3861 0 0,-52 0-1179 0 0,128-2 1026 0 0,-73 0-3279 0 0,-1 1-5235 0 0,-67 1 6236 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,-5-9-1851 0 0,4 9 2016 0 0,1 0-1 0 0,-1 1 1 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,-3 0 0 0 0,-1 0-245 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="19496.67">1667 1058 328 0 0,'-2'3'357'0'0,"-1"0"0"0"0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 8 0 0 0,4 72 4948 0 0,0-35-2436 0 0,-2-17-2365 0 0,2 0 0 0 0,10 46 0 0 0,-11-63-748 0 0,-3-12-22 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,-2 1 0 0 0,1 0-177 0 0,1-1 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1-1 0 0 0,0 1-1 0 0,0-1 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,0-1-1 0 0,-1 0 1 0 0,1 0-1 0 0,-8-2 1 0 0,2-2-87 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="19729.56">1352 1507 148 0 0,'-13'6'1362'0'0,"-12"7"12839"0"0,38-13-8697 0 0,7 0-3558 0 0,14-2 424 0 0,0-1-1 0 0,44-11 0 0 0,-3 1-202 0 0,128-25-1836 0 0,-133 21-331 0 0,66-11 0 0 0,-121 25 0 0 0,1 2 0 0 0,0 0 0 0 0,-1 1 0 0 0,1 1 0 0 0,0 0 0 0 0,23 5 0 0 0,-21-5-2587 0 0,-18-1 2266 0 0,1 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1-1 0 0,0 1 1 0 0,1 0 0 0 0,-1-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1-1 0 0,1 0 1 0 0,-1-1 0 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1 0 0 0,0-2-1 0 0,-10-37-17436 0 0,5 23 14758 0 0,3 4 5073 0 0,1-3-3005 0 0,-3-3 220 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="20210.78">2204 330 64 0 0,'0'0'129'0'0,"-1"0"-1"0"0,1 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,0-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 1-1 0 0,0 0 1 0 0,-1-1 0 0 0,1 1-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 1 0 0 0,0 0-1 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,0-1-1 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,0 1-1 0 0,1 0 534 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,2 0 1 0 0,48-18 5372 0 0,27-15-3523 0 0,9-8-1282 0 0,-6 3-3960 0 0,-93 44-7406 0 0,-3 2 3735 0 0,-9 8 2176 0 0,-2 2 4220 0 0,-19 12 2637 0 0,37-25-1703 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,0 1 1 0 0,1 0-1 0 0,-9 13 1 0 0,-27 59 3183 0 0,14-25-2577 0 0,2-5-519 0 0,-16 26 39 0 0,-1-14-608 0 0,25-33-856 0 0,-2-2-1 0 0,0 0 1 0 0,-2-1-1 0 0,-1-1 1 0 0,-36 32-1 0 0,52-52-235 0 0,1 0-1 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0-1 0 0 0,-8 2 1 0 0,13-3 483 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 1 0 0,0-1-1 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,1-2-1 0 0,1-8-429 0 0,1-1 1 0 0,0 1-1 0 0,1 0 1 0 0,0 0-1 0 0,1 0 1 0 0,11-18-1 0 0,-2 6 123 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="20367.73">2143 603 204 0 0,'4'0'390'0'0,"0"1"0"0"0,0-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 1 0 0,-1-1-1 0 0,0 2 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,4 5 0 0 0,3 7 2118 0 0,1-1 0 0 0,15 29 0 0 0,-20-30-1366 0 0,1-1-1 0 0,1 1 0 0 0,13 15 0 0 0,27 14-609 0 0,-46-44-1250 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,-1-7 0 0 0,-2-60-4112 0 0,1 5 1764 0 0,9 24 1726 0 0,-7 22 862 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="20720.17">2407 469 64 0 0,'0'0'40'0'0,"0"-1"0"0"0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1-1 1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,17 8 2540 0 0,11 12 2582 0 0,17 18 1422 0 0,28 12-2076 0 0,-45-31-3260 0 0,-26-19-1221 0 0,-1 1 1 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1-1 0 0,0 0 1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1-1 0 0,0-1 1 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1-1 0 0,0 1 1 0 0,-2 2 0 0 0,-1 1-9 0 0,0 0 0 0 0,0 0 0 0 0,-1 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,-8 6-1 0 0,-6 3-13 0 0,-1-1 0 0 0,-1-1-1 0 0,1 0 1 0 0,-2-2-1 0 0,1-1 1 0 0,-1 0-1 0 0,-31 6 1 0 0,-18 6 326 0 0,71-17 692 0 0,10-1-408 0 0,31 5-229 0 0,47 1-316 0 0,103-13-693 0 0,-178 6 1340 0 0,0 4-6097 0 0,-14 0-851 0 0,-15 2 2451 0 0,-47 12-3961 0 0,36-10 5926 0 0,13-4 1233 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="21526.86">2360 886 12 0 0,'-9'-4'4944'0'0,"9"3"-4625"0"0,-1 1-1 0 0,1 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,0 0-1 0 0,0-1 1 0 0,8-1 1312 0 0,1 2-1195 0 0,0 0 0 0 0,0 1 0 0 0,0 0 1 0 0,0 1-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 1 0 0,-1 1-1 0 0,1 0 0 0 0,12 12 0 0 0,45 42 3232 0 0,-64-55-3457 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0-1-1 0 0,-2 6 0 0 0,2 2 210 0 0,-11 141 1636 0 0,6-109-1494 0 0,2 0-1 0 0,1 0 1 0 0,8 70-1 0 0,-4-82-114 0 0,5 22-169 0 0,-6-31-279 0 0,-1-22 0 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,0-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,0 0-1 0 0,0 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 1 0 0,0 0-1 0 0,-1-1 0 0 0,1 1 1 0 0,0 0-1 0 0,0-1 1 0 0,-24-16-173 0 0,12 8-850 0 0,-6-4-951 0 0,1-1 0 0 0,0-1-1 0 0,1 0 1 0 0,1-1 0 0 0,0-1-1 0 0,-16-25 1 0 0,1 4-1464 0 0,3 2-922 0 0,-33-63 0 0 0,-10-11-640 0 0,57 95 4484 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="21740.51">2120 1030 316 0 0,'0'0'2200'0'0,"9"19"3557"0"0,45 0 828 0 0,-43-17-5688 0 0,0 2-1 0 0,-1-1 0 0 0,20 10 0 0 0,-27-11-690 0 0,1 1 1 0 0,0-1-1 0 0,-1 1 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,-1 0 1 0 0,3 7-1 0 0,-2-4-79 0 0,-1 0-1 0 0,0 1 1 0 0,0-1 0 0 0,-1 1-1 0 0,0 0 1 0 0,0-1 0 0 0,-1 1 0 0 0,0 0-1 0 0,0-1 1 0 0,-1 1 0 0 0,0 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,-1-1-1 0 0,-4 10 1 0 0,2-7-250 0 0,-1 0 0 0 0,0 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,-2-1 0 0 0,1-1 0 0 0,-1 1 0 0 0,-1-1 0 0 0,0-1 0 0 0,-9 9 0 0 0,5-7-891 0 0,-1 0 0 0 0,1-1-1 0 0,-1 0 1 0 0,-24 10-1 0 0,30-16-89 0 0,0 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,-1-1 1 0 0,1 0-1 0 0,-12 1 1 0 0,19-2 967 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 1 0 0,3-12-1509 0 0,10-10 468 0 0,-2 10 527 0 0,6-1 137 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="22076.21">2718 932 148 0 0,'14'-3'1454'0'0,"1"0"0"0"0,29-3 0 0 0,-8 11 3661 0 0,-32-4-4213 0 0,-1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1 0 0 0,-1 0-1 0 0,1 0 1 0 0,2 3 0 0 0,-4 3 6414 0 0,-7 4-3695 0 0,-15 16-2157 0 0,11-16-485 0 0,-67 111-249 0 0,55-97-731 0 0,18-22 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1 0 0 0 0,-3 5 0 0 0,6-6 0 0 0,3-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,5 0 0 0 0,59 15 0 0 0,-41-10 0 0 0,49 7 0 0 0,50 10 0 0 0,-94-16 0 0 0,12 1 0 0 0,-37-11-8186 0 0,-11-5 3282 0 0,-15-9-2184 0 0,15 13 2522 0 0,1-1 3750 0 0,-1 0-1 0 0,1 0 0 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 1 0 0,-3-8-1 0 0,4 9 762 0 0,-8-18-555 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink12.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-04-17T13:16:16.078"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">4671 304 200 0 0,'-1'-5'16389'0'0,"-20"-7"-11343"0"0,-33-10-2834 0 0,-75-27 823 0 0,28 19-1797 0 0,-141-34 819 0 0,-82-23-792 0 0,297 80-1222 0 0,-1 0 0 0 0,0 3 0 0 0,-29-3 0 0 0,-2 1 1 0 0,37 4-28 0 0,0 1 1 0 0,0 0-1 0 0,1 2 0 0 0,-39 7 0 0 0,-86 24 28 0 0,115-24-40 0 0,-52 7-3 0 0,0-2 0 0 0,0-5-1 0 0,-133-3 1 0 0,127 0-13 0 0,0 4-1 0 0,-104 23 0 0 0,131-21 4 0 0,-76 18 14 0 0,-82 12-14 0 0,-28-35 4 0 0,165-7-5 0 0,-62-5-10 0 0,59 2 9 0 0,54 2 6 0 0,0 1 1 0 0,0 1 0 0 0,-36 6 0 0 0,-105 13-17 0 0,158-16 19 0 0,3-1-3 0 0,-1 0 1 0 0,1 1-1 0 0,0 1 1 0 0,-18 8-1 0 0,-61 24-26 0 0,70-23 23 0 0,4-4 1 0 0,0 1 0 0 0,1 1-1 0 0,1 0 1 0 0,-19 18 0 0 0,-93 108-18 0 0,57-54 39 0 0,33-30-3 0 0,-43 68-16 0 0,54-79-1 0 0,-21 42 4 0 0,5-1-4 0 0,-8 23-6 0 0,-54 212 4 0 0,83-247 7 0 0,-43 176-10 0 0,0-30 11 0 0,23-43 9 0 0,24-92-11 0 0,7-24-9 0 0,2 0 0 0 0,3 0 0 0 0,3 63 0 0 0,3-98-1 0 0,2 0-1 0 0,1 0 1 0 0,1-1 0 0 0,14 42 0 0 0,-7-24 0 0 0,1-5-4 0 0,2 0 0 0 0,1-1 0 0 0,30 49 0 0 0,-34-63 14 0 0,31 49-12 0 0,3-2 0 0 0,89 99 1 0 0,-96-124 22 0 0,1-2 0 0 0,2-2 0 0 0,1-2 0 0 0,2-2 1 0 0,2-1-1 0 0,52 26 0 0 0,-40-24-2 0 0,22 11 3 0 0,356 131 95 0 0,-341-145-74 0 0,2-4 0 0 0,163 25 0 0 0,7-10 14 0 0,63 21 36 0 0,-215-39-35 0 0,364 88 93 0 0,-124-27-24 0 0,-246-60-78 0 0,181 37 12 0 0,20-13-37 0 0,-113-20 26 0 0,-85-19 29 0 0,1-6 0 0 0,0-5 0 0 0,0-4 1 0 0,-1-6-1 0 0,198-42 0 0 0,-264 41-51 0 0,0-2 0 0 0,82-36 0 0 0,-82 27 2 0 0,-14 7 15 0 0,48-31 0 0 0,-43 20-5 0 0,-2-3 0 0 0,54-54 0 0 0,-51 47-23 0 0,-3-2 0 0 0,-1-2 0 0 0,35-52 0 0 0,-49 60-5 0 0,84-144 0 0 0,-78 122 0 0 0,-3-2 0 0 0,-3-1 0 0 0,-2 0 0 0 0,-2-2 0 0 0,-3 0 0 0 0,10-94 0 0 0,-18 84 0 0 0,8-157 0 0 0,-14 184 0 0 0,-1 1 0 0 0,-2-1 0 0 0,-2 1 0 0 0,-17-69 0 0 0,6 54 0 0 0,9 28 0 0 0,-1 1 0 0 0,-1 0 0 0 0,-22-43 0 0 0,-21-22 0 0 0,-4 4 0 0 0,-4 1 0 0 0,-135-148 0 0 0,82 124 0 0 0,-4 5 0 0 0,-246-171 0 0 0,274 218-32 0 0,-2 3-1 0 0,-3 5 1 0 0,-1 4 0 0 0,-116-40 0 0 0,162 73-632 0 0,-2 1 1 0 0,-87-9 0 0 0,-25 8-3792 0 0,124 11 2780 0 0,-293-8-13269 0 0,250 7 12764 0 0,0-4 0 0 0,0-3 0 0 0,-113-30 0 0 0,102 17 1550 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2058.85">7953 630 388 0 0,'4'-3'279'0'0,"0"0"1"0"0,0 1-1 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 1 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 1 0 0 0,-1-1 1 0 0,8 5-1 0 0,-3-2 570 0 0,-1 0-1 0 0,0 0 1 0 0,-1 1-1 0 0,1 0 1 0 0,-1 1-1 0 0,1 0 1 0 0,-2 0 0 0 0,1 0-1 0 0,-1 1 1 0 0,0 0-1 0 0,0 0 1 0 0,7 12-1 0 0,-12-16-536 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,-1 3 0 0 0,-28 50 2612 0 0,15-31-2208 0 0,-14 25 98 0 0,-2-1-1 0 0,-49 58 0 0 0,73-97-771 0 0,-29 36 89 0 0,-1-1 1 0 0,-67 60-1 0 0,89-95-136 0 0,1 0 0 0 0,-1-2 0 0 0,-1 1 0 0 0,1-2 0 0 0,-1 0 0 0 0,-1-1 0 0 0,-32 7 0 0 0,47-12 4 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,-2-1-1 0 0,-32-4-21 0 0,35 5 21 0 0,2 2-74 0 0,0-1 73 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,3 0 0 0 0,-2 1 3 0 0,22 12 54 0 0,42 19-1 0 0,14 9 90 0 0,-52-27-95 0 0,1-1 1 0 0,38 13-1 0 0,-9-4-264 0 0,54 9-2925 0 0,-112-32 2949 0 0,0 1 1 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,0-1 0 0 0,0-7-1160 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,-1 1 0 0 0,-2-10 0 0 0,1 4 435 0 0,-3-10-640 0 0,-1 1-1 0 0,-2 0 0 0 0,0 1 1 0 0,-21-38-1 0 0,25 51 1492 0 0,1 1 0 0 0,1-1 1 0 0,0 0-1 0 0,-2-14 0 0 0,3 14 1096 0 0,0 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,-6-12 0 0 0,20 38 6083 0 0,3 0-3414 0 0,43 36-4999 0 0,-5-5-1920 0 0,-50-46 2980 0 0,0 1-1 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0-1 0 0,1 0 1 0 0,0-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,0-1 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,0-1-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 1 0 0,5-3-1 0 0,7-7-733 0 0,0-1 1 0 0,0 0-1 0 0,21-26 0 0 0,-24 25 653 0 0,9-6-108 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2219.91">8463 1013 488 0 0,'8'-15'-1158'0'0,"6"-1"7329"0"0,-3 17 908 0 0,-1 17-3436 0 0,-7-7-3217 0 0,0 0 0 0 0,-1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 1 0 0 0,-3 12 0 0 0,-3 6-150 0 0,0-1 0 0 0,-15 37-1 0 0,15-52-522 0 0,1 0 0 0 0,-2-1 0 0 0,1 0-1 0 0,-2 0 1 0 0,0-1 0 0 0,0 0 0 0 0,-1 0-1 0 0,-1-1 1 0 0,0 0 0 0 0,0-1 0 0 0,-1-1-1 0 0,0 0 1 0 0,-24 14 0 0 0,-12 2-2325 0 0,-2-3-1 0 0,-79 27 1 0 0,80-32 668 0 0,-3-1-645 0 0,0-3 0 0 0,-104 13 0 0 0,131-25 2065 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3608.46">7711 1728 40 0 0,'0'0'1309'0'0,"7"-13"-248"0"0,-4 12-1139 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,2-4 0 0 0,10-19 1833 0 0,-13 20-1217 0 0,0 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 1 0 0,1 1-1 0 0,6-9 2472 0 0,11 25-98 0 0,-15 1-2412 0 0,-1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,-1 1 0 0 0,-5 22 0 0 0,4-13-324 0 0,-2-1-1 0 0,0 0 1 0 0,-15 37 0 0 0,15-47-324 0 0,-1-1 1 0 0,0 0-1 0 0,0-1 1 0 0,-13 16-1 0 0,15-21-287 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,0-1-1 0 0,-6 4 1 0 0,11-7 333 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,-2-16-2138 0 0,7-18 267 0 0,-5 32 1609 0 0,10-43-868 0 0,2 1 1 0 0,2 1 0 0 0,29-61 0 0 0,-15 37 2084 0 0,-26 63-530 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0-1 0 0,0 1 1 0 0,-1 0 0 0 0,2-1 0 0 0,-1 1 0 0 0,0 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,8 2-1 0 0,35 1 2219 0 0,-13-2-1123 0 0,-2 1-264 0 0,-1-3 0 0 0,0 0-1 0 0,0-2 1 0 0,50-9 0 0 0,-32 4-263 0 0,19 1 138 0 0,50-8 310 0 0,-31-9-1082 0 0,-66 15-908 0 0,-15 4-630 0 0,-13 2 8 0 0,2 2 852 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 2 0 0 0,1-1 0 0 0,1 1 0 0 0,-7 3 0 0 0,-48 37-2843 0 0,40-28 2361 0 0,-317 250-9468 0 0,319-252 10248 0 0,-110 80-125 0 0,111-84 1692 0 0,-1 1 0 0 0,0-2 0 0 0,-27 7 8525 0 0,51-23-7851 0 0,14-6-1562 0 0,42-11 1479 0 0,108-26 0 0 0,-133 45-1890 0 0,1 2 0 0 0,0 1 1 0 0,45 3-1 0 0,-42 1-596 0 0,2 6-499 0 0,-38-5 427 0 0,-1-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1-1-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,1-1-1 0 0,5-1 1 0 0,-11 2 374 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,-19-17-1560 0 0,18 18 1304 0 0,-143-120-6160 0 0,129 108 6661 0 0,1-2 0 0 0,1 0 0 0 0,0 0 1 0 0,-20-29-1 0 0,-21-22 6198 0 0,54 66-6118 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 1 0 0 0,1 52 1608 0 0,0-37-1283 0 0,-1-15-493 0 0,1 69 887 0 0,-3 1 0 0 0,-3 0 0 0 0,-21 107 0 0 0,19-140-1079 0 0,7-32 109 0 0,-1 0 0 0 0,0-1 0 0 0,-1 0-1 0 0,1 1 1 0 0,-2-1 0 0 0,1 0 0 0 0,-1 0-1 0 0,-4 8 1 0 0,1-4 61 0 0,4-7-311 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1-1-1 0 0,-5 6 1 0 0,7-9 208 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,-1-1 0 0 0,-59-70-2941 0 0,-6-6 2282 0 0,60 72 924 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 1 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 1 1 0 0,-13-6-1 0 0,19 9-44 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-4 1 0 0 0,3 0 41 0 0,-1 0 0 0 0,1 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0-1 0 0,0 1 1 0 0,1-1-1 0 0,-2 7 1 0 0,-1 4 270 0 0,1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,1 1 0 0 0,1-1 0 0 0,1 1 0 0 0,2 19 0 0 0,-2-30-248 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,2 1 1 0 0,-1 0-1 0 0,0-1 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,5 4 0 0 0,-1-3 78 0 0,0 1 1 0 0,0-1-1 0 0,1-1 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1-1-1 0 0,1-1 1 0 0,10 1-1 0 0,14 0 255 0 0,0-3 0 0 0,0 0 0 0 0,0-2 0 0 0,47-11 0 0 0,-17 0-258 0 0,-1-3 0 0 0,90-38 0 0 0,111-67-359 0 0,-255 118 114 0 0,-6 2-7 0 0,1 1 1 0 0,-1 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 2 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,4 1 0 0 0,-5 0 7 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 1 0 0 0,1-1 1 0 0,0 0-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,-1 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,-2 2 1 0 0,-68 248-357 0 0,44-151-788 0 0,-12-14-3907 0 0,38-85 4814 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,0 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 0-1 0 0,-1 0 0 0 0,-23-10-3440 0 0,-14-26-140 0 0,27 19 2770 0 0,1-1 1 0 0,0 1-1 0 0,-13-33 0 0 0,-2-5-35 0 0,6 12 526 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3871.63">7373 875 56 0 0,'14'12'5851'0'0,"-8"-3"-4326"0"0,-6-7-1316 0 0,1-1 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 0 1 0 0,0 1-1 0 0,0-1 0 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 3-1 0 0,19 52 2181 0 0,24 30-4769 0 0,-42-84 1542 0 0,5 29-4888 0 0,-25 38 1988 0 0,13-56 3308 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4475.02">7310 1433 364 0 0,'0'0'659'0'0,"-7"18"5309"0"0,10-14-5494 0 0,0 0 0 0 0,-1 0 0 0 0,2-1 1 0 0,-1 1-1 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,8 4 0 0 0,15 14-126 0 0,-15-8-182 0 0,0 0 0 0 0,0 1 0 0 0,17 26 0 0 0,-25-32-150 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,-1 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 14 0 0 0,-2-7-6 0 0,0 0 1 0 0,-1 0-1 0 0,0-1 0 0 0,-2 1 0 0 0,1-1 0 0 0,-2 1 0 0 0,0-1 1 0 0,-1-1-1 0 0,0 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,0-1 1 0 0,-2 0-1 0 0,-10 11 0 0 0,14-17 16 0 0,4-2 8 0 0,-1-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,-1 1 0 0 0,1 0 1 0 0,0-1-1 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-7 2-1 0 0,9-4 866 0 0,46 18-585 0 0,-39-17-233 0 0,-1 1 1 0 0,0 0-1 0 0,1 1 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,0 1 0 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,-1 1 0 0 0,0 0 0 0 0,1 10 1 0 0,-1 3 236 0 0,0 0 0 0 0,-1-1 0 0 0,0 1 1 0 0,-2 0-1 0 0,0 0 0 0 0,-2-1 0 0 0,-5 21 1 0 0,4-28-216 0 0,0 0 0 0 0,-1-1 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,0-1 1 0 0,-1 0-1 0 0,0-1 1 0 0,-17 14-1 0 0,7-4-4 0 0,-14 12-19 0 0,-1-2 0 0 0,-1-1 0 0 0,-2-1 1 0 0,-39 21-1 0 0,50-33-195 0 0,-1-1 1 0 0,0-2 0 0 0,-1 0-1 0 0,0-2 1 0 0,0-1 0 0 0,-1-1-1 0 0,-36 5 1 0 0,50-11-129 0 0,0 0 0 0 0,0-1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,-21-7 0 0 0,32 8 156 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0-1-1 0 0,0 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,2-6-1 0 0,0-5-33 0 0,2 0 1 0 0,0 0-1 0 0,0 1 0 0 0,1-1 0 0 0,1 1 0 0 0,0 1 1 0 0,1-1-1 0 0,0 1 0 0 0,1 0 0 0 0,1 1 0 0 0,18-21 1 0 0,-19 24 261 0 0,0 1 0 0 0,1 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1 1 1 0 0,1-1-1 0 0,-1 2 0 0 0,0-1 0 0 0,1 2 0 0 0,0-1 1 0 0,0 1-1 0 0,0 1 0 0 0,12 0 0 0 0,42 3 1725 0 0,-1 3 0 0 0,82 16-1 0 0,126 42 3740 0 0,-184-40-4066 0 0,173 57 1117 0 0,552 196-2657 0 0,-523-169 0 0 0,3 9 0 0 0,13 5 0 0 0,-153-71 0 0 0,-91-38-791 0 0,-23-15-4057 0 0,-39 2 4583 0 0,1 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,-1 0 1 0 0,0-1-1 0 0,1 1 0 0 0,-1-1 1 0 0,0 1-1 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 1 1 0 0,0-1-1 0 0,1 1 0 0 0,-1-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,-3-24-3572 0 0,-11-19-527 0 0,13 43 4112 0 0,-32-82-5925 0 0,-25-36 1773 0 0,34 76 3608 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5231.21">9470 837 548 0 0,'-2'-5'13892'0'0,"7"15"-6406"0"0,4-3-9563 0 0,101 50 4736 0 0,-9-18-1501 0 0,-101-39-892 0 0,1 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-7 30-712 0 0,3-16 879 0 0,-4 115-74 0 0,3-19-164 0 0,-9 313 579 0 0,15-316-555 0 0,2 94 373 0 0,32 220-1 0 0,-32-402-591 0 0,31 177 0 0 0,-34-198 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,-11-13-500 0 0,-12-24-1188 0 0,-11-51-3700 0 0,4-1 0 0 0,3-1 0 0 0,-24-150 0 0 0,27 111 1844 0 0,7 38 1060 0 0,-7-110 1 0 0,23 145 2004 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5617">9419 1383 132 0 0,'-3'5'411'0'0,"-1"3"601"0"0,0 0 0 0 0,0 1 1 0 0,1-1-1 0 0,-3 12 0 0 0,5-17-497 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1-1 0 0 0,1 4 0 0 0,3 1 119 0 0,0 0 1 0 0,1 0-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1-1 0 0 0,1-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,-1-1 1 0 0,15 4-1 0 0,15 2 1072 0 0,72 9 1 0 0,-104-18-1508 0 0,78 5 1258 0 0,-57-5-959 0 0,52 8 0 0 0,-57-6-416 0 0,-20-2-93 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1 0-129 0 0,-10 23-1019 0 0,-47 44-1429 0 0,-79 77-1 0 0,71-86 1683 0 0,-92 66 0 0 0,134-110 1156 0 0,-1-1 1 0 0,-1-1 0 0 0,0-1 0 0 0,-1-2 0 0 0,-1 0-1 0 0,-28 8 1 0 0,28-13 2206 0 0,54-15 1142 0 0,11-4-2795 0 0,260-96 1810 0 0,-172 72-2826 0 0,-92 30-1463 0 0,1-3 0 0 0,-2-1 0 0 0,67-30 0 0 0,-91 35 670 0 0,-1-1 0 0 0,0 0 0 0 0,0 0-1 0 0,-1-2 1 0 0,1 1 0 0 0,-2-1 0 0 0,1 0 0 0 0,-2-1-1 0 0,1 0 1 0 0,6-12 0 0 0,10-18-3366 0 0,23-55 1 0 0,13-66-458 0 0,-42 122 4108 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5779.76">10757 843 48 0 0,'97'-12'8173'0'0,"-75"16"-1341"0"0,-15 8-4522 0 0,-8-10-2448 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1-1 1 0 0,0 1 0 0 0,0-1 0 0 0,-3 3-1 0 0,-10 4-875 0 0,0-1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0-2 0 0 0,-1 1 0 0 0,1-2 0 0 0,-22 1 0 0 0,-100 4-2967 0 0,100-7 3299 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5952.45">10018 1289 188 0 0,'2'17'1179'0'0,"0"-1"-1"0"0,2 1 1 0 0,0-1-1 0 0,1 1 1 0 0,0-1-1 0 0,2-1 1 0 0,-1 1 0 0 0,2-1-1 0 0,18 27 1 0 0,-18-30-322 0 0,1-1 1 0 0,0 0 0 0 0,1 0-1 0 0,18 15 1 0 0,-2-2-184 0 0,-21-19-679 0 0,-1-1 0 0 0,1 0-1 0 0,1 0 1 0 0,-1-1 0 0 0,0 0 0 0 0,1 1-1 0 0,0-2 1 0 0,0 1 0 0 0,11 3 0 0 0,-15-5-84 0 0,0-1 1 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-5 0 0 0,7-25-1525 0 0,-1-1-1 0 0,-2-1 1 0 0,-2 1-1 0 0,1-42 1 0 0,0-6-415 0 0,-2 42 1074 0 0,-1 17 271 0 0,1 1-1 0 0,7-33 1 0 0,-3 28 223 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6178.54">10362 1050 208 0 0,'0'0'623'0'0,"64"14"7227"0"0,-46-11-6365 0 0,1 0-1 0 0,1-2 0 0 0,-1 0 0 0 0,33-3 0 0 0,355-56 6906 0 0,-343 43-7534 0 0,119-19 1640 0 0,-155 30-1988 0 0,0 2-1 0 0,0 1 1 0 0,1 2-1 0 0,44 6 0 0 0,-63-5-392 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 2 0 0 0,1-1 0 0 0,13 13 0 0 0,-19-16-166 0 0,0 1 0 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,-1 1 0 0 0,0-1 1 0 0,0 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,2 5 1 0 0,-3-7-77 0 0,1 0 1 0 0,-1 1 0 0 0,0-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1-1 0 0,-2 2 1 0 0,-92 79-7291 0 0,71-62 5205 0 0,-1-2 1 0 0,-1 0 0 0 0,-41 21 0 0 0,-1-5-771 0 0,23-11 1328 0 0,-2-1 0 0 0,0-2 0 0 0,-52 14 0 0 0,9-5 131 0 0,47-16 980 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6389">10661 1308 28 0 0,'8'-20'1003'0'0,"-7"17"-646"0"0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 0 1 0 0,1 1-1 0 0,3-4 0 0 0,-4 5 880 0 0,0 19 4867 0 0,1 5-364 0 0,-4-6-4756 0 0,-58 200 3925 0 0,-66 97-4068 0 0,117-296-1251 0 0,-1-1 0 0 0,-18 25 0 0 0,11-19-873 0 0,9-14-2564 0 0,4-11 959 0 0,3-27-717 0 0,13-36 186 0 0,6 11 1561 0 0,2 1 0 0 0,3 1 0 0 0,49-83 0 0 0,-51 91 1324 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6560.86">10706 1383 4 0 0,'4'-3'229'0'0,"0"0"-1"0"0,1 0 1 0 0,0 1 0 0 0,-1-1 0 0 0,1 1-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,5 0 1 0 0,-7 2-34 0 0,0 0-1 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 0 0 0,0 1 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 0 0 0,0 1 1 0 0,1 0-1 0 0,2 4 0 0 0,127 111 8756 0 0,14-16-4470 0 0,-103-77-3660 0 0,0-1-1 0 0,57 19 1 0 0,-93-39-936 0 0,20 9 556 0 0,-27-13-471 0 0,0 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,0-1-1 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 1-1 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 1 1 0 0,-7-6-530 0 0,1 0 1 0 0,-1 0-1 0 0,0 1 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,-1 1-1 0 0,0-1 1 0 0,-7 0-1 0 0,-17-4-1514 0 0,0 1 0 0 0,0 2 0 0 0,-48 0 0 0 0,30 5-47 0 0,-75 12 0 0 0,80-6 1500 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6880.94">10579 1878 508 0 0,'-1'2'615'0'0,"1"0"1"0"0,0 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,0-1-1 0 0,0 1 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,2 2 0 0 0,-1-2-113 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 0 0 0,0-1 0 0 0,3 0 1 0 0,9 0 516 0 0,-1-1 1 0 0,1-1 0 0 0,-1 0 0 0 0,18-6 0 0 0,4 1-492 0 0,34-7 433 0 0,-47 9-1078 0 0,1 0 0 0 0,43-2 0 0 0,-16 1-3093 0 0,-49 6 2271 0 0,-40 11-9771 0 0,33-9 10616 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 1 1 0 0,0 0 0 0 0,1 0-1 0 0,0 0 1 0 0,-1 1-1 0 0,-7 7 1 0 0,7-5 456 0 0,1 0 0 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,1 1 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,0 1 1 0 0,0-1-1 0 0,-1 10 0 0 0,-2 4 287 0 0,2 0 0 0 0,0 0 0 0 0,1 0 0 0 0,1 1 0 0 0,2-1 0 0 0,0 1 0 0 0,1-1 0 0 0,4 23 0 0 0,-5-17-411 0 0,0-24-252 0 0,-1 0 1 0 0,1 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 1 0 0,0 0-1 0 0,2 6 0 0 0,-3-9-52 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1-1 0 0,-13 6-3264 0 0,-14-2-229 0 0,-2-4 1624 0 0,1 1 1 0 0,-1 2 0 0 0,0 0-1 0 0,-32 9 1 0 0,41-6 1438 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7115.84">10196 2449 104 0 0,'-7'1'535'0'0,"1"0"0"0"0,-1 0 0 0 0,1 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 2 0 0 0,-8 5 0 0 0,-29 25 19787 0 0,78-33-16423 0 0,46-3-1731 0 0,32-14-1965 0 0,197-54 0 0 0,-9 0-221 0 0,-210 54 18 0 0,0 4 0 0 0,1 3 0 0 0,0 5 0 0 0,173 14 0 0 0,-134 18 0 0 0,-64-12 0 0 0,-57-14-8 0 0,0 1 0 0 0,-1 1 1 0 0,1-1-1 0 0,17 11 0 0 0,-4 3-3439 0 0,-39-13-5308 0 0,-6-1 5327 0 0,-37-1-3842 0 0,36 0 5207 0 0,1-1-1 0 0,-1-2 1 0 0,-43-5 0 0 0,29-2 1161 0 0,-6 6 261 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7710.8">12140 442 248 0 0,'107'101'8896'0'0,"-57"-57"-4917"0"0,28 31-895 0 0,-33-25-2219 0 0,-37-39-1904 0 0,-20-14-2937 0 0,-24-19-1224 0 0,30 18 4823 0 0,-1-1-234 0 0,1 1-1 0 0,-1-2 1 0 0,1 1 0 0 0,0-1-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,-7-14-1 0 0,6 7-17 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8061.06">12395 511 564 0 0,'4'1'669'0'0,"0"0"0"0"0,0 0 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,3 5 1 0 0,4 0 1135 0 0,1-1-789 0 0,-1-1 0 0 0,1 0-1 0 0,0 0 1 0 0,1-1 0 0 0,-1-1 0 0 0,1 0 0 0 0,20 1-1 0 0,-14-1-335 0 0,0 0-1 0 0,35 13 0 0 0,-49-15-632 0 0,-1 0 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 1 1 0 0,0-1 0 0 0,4 7-1 0 0,-6-8-38 0 0,-1 1-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,0 0 0 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,-1-1 1 0 0,0 0-1 0 0,-2 3 0 0 0,-24 26-10 0 0,-1-1 0 0 0,-2-1 0 0 0,0-2 0 0 0,-2-1 0 0 0,-1-1-1 0 0,-61 32 1 0 0,14-14 265 0 0,67-37 2047 0 0,27-12-1590 0 0,31-13-378 0 0,27-11 117 0 0,120-30-480 0 0,-63 25-6986 0 0,-126 34 6490 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1-1-1 0 0,0 1 1 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1-1 0 0,1-4 1 0 0,0-1-269 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1-7 0 0 0,0-3 154 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8594.47">13019 536 172 0 0,'4'-4'601'0'0,"-1"1"-1"0"0,1 0 1 0 0,0-1 0 0 0,0 1 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,1 0 0 0 0,8-4-1 0 0,-2 25 8189 0 0,3 25-4345 0 0,-10-27-3812 0 0,-2-1-1 0 0,0 1 1 0 0,-1 25-1 0 0,-2-28-543 0 0,2 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,6 17 0 0 0,10 30-1437 0 0,-18-61 1281 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,1 0 0 0 0,-1 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,0 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 1 0 0 0,0-1-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,1 0 1 0 0,0 0 0 0 0,13-12-1679 0 0,9-23-696 0 0,-20 31 2027 0 0,9-18-576 0 0,-1 0 1 0 0,-1-1 0 0 0,-1-1-1 0 0,7-30 1 0 0,17-101-684 0 0,-28 134 1752 0 0,0 1 842 0 0,-3 5 3593 0 0,41 15-88 0 0,-20-2-3040 0 0,13 3 150 0 0,-19 3-867 0 0,-12-4-538 0 0,0 1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,5 4 1 0 0,-3 0-85 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,-1-1-1 0 0,0 1 0 0 0,-1 1 1 0 0,1-1-1 0 0,-2 0 1 0 0,1 1-1 0 0,-1 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 1 0 0,0 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,-2 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1-1 1 0 0,-7 10-1 0 0,4-8-68 0 0,-1 1 0 0 0,0-2-1 0 0,0 1 1 0 0,-1-1-1 0 0,-1-1 1 0 0,1 1 0 0 0,-2-2-1 0 0,1 1 1 0 0,-1-1 0 0 0,0-1-1 0 0,0 0 1 0 0,-18 6 0 0 0,1-1-31 0 0,-2-2-1 0 0,1-1 1 0 0,-1-1 0 0 0,-35 3-1 0 0,-75-3-101 0 0,286 12 643 0 0,-95-18-310 0 0,1-3 0 0 0,-1-1 0 0 0,89-19 0 0 0,-137 21-245 0 0,0 0 0 0 0,-1 0-1 0 0,1-1 1 0 0,0 1 0 0 0,0-1-1 0 0,-1 0 1 0 0,1 1 0 0 0,-1-1 0 0 0,0 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,0 0-1 0 0,3-5 1 0 0,-43-19-3720 0 0,28 25 3100 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,-18 7 1 0 0,-10 6-1390 0 0,-48 27-1 0 0,51-25 1103 0 0,-82 43-2215 0 0,-178 120-1 0 0,242-137 2728 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="8806.68">12363 1477 140 0 0,'-84'74'4614'0'0,"73"-67"-5529"0"0,-2-6 9344 0 0,11-9 97 0 0,17-4-5888 0 0,55-27 21 0 0,2 3 0 0 0,142-49-1 0 0,-117 56-2318 0 0,1 4 0 0 0,1 4-1 0 0,187-14 1 0 0,-246 32-567 0 0,183-9 475 0 0,-71 9-4607 0 0,-136 4 5527 0 0,1 4-8368 0 0,-40-6-5151 0 0,-183-29 3471 0 0,172 24 8162 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9159.14">12892 1000 88 0 0,'-5'0'1504'0'0,"-3"2"4718"0"0,3 44 2056 0 0,-12 25-3614 0 0,1-6-2810 0 0,-5 13-1201 0 0,-2-1 1 0 0,-4-2-1 0 0,-4-1 1 0 0,-60 108-1 0 0,49-113-1938 0 0,-3-3-1 0 0,-71 81 1 0 0,74-96-1285 0 0,32-37 1465 0 0,10-13 901 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,-1-1 0 0 0,1 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,-2-1 0 0 0,1 0-1351 0 0,8-8-1531 0 0,17-38 59 0 0,0 0 1234 0 0,1 0 0 0 0,34-45 0 0 0,-40 66 1969 0 0,2 1 1 0 0,1 0-1 0 0,0 2 0 0 0,28-22 1 0 0,-38 35 436 0 0,1 0 1 0 0,1 1 0 0 0,-1 0-1 0 0,2 1 1 0 0,-1 1-1 0 0,1 0 1 0 0,-1 1 0 0 0,1 0-1 0 0,1 1 1 0 0,24-3-1 0 0,-25 6 107 0 0,-1 1-1 0 0,0 0 0 0 0,0 1 0 0 0,0 1 0 0 0,0 0 0 0 0,19 6 0 0 0,74 29 2898 0 0,33 26-711 0 0,-94-40-2224 0 0,2-2 0 0 0,92 29-1 0 0,-38-33-1971 0 0,-99-16 1123 0 0,1-1 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,0-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,4-1-1 0 0,16-4-4043 0 0,-20-32-2075 0 0,-8-28 1091 0 0,3 52 4552 0 0,1-1 1 0 0,1 0 0 0 0,1-25-1 0 0,6 8 91 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9317.75">13599 1069 168 0 0,'-2'1'401'0'0,"0"1"0"0"0,-1-1 0 0 0,1 1 0 0 0,0 0-1 0 0,1 0 1 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1 0 0 0,-1 3 0 0 0,-13 22 5687 0 0,14-27-5056 0 0,-1 2-872 0 0,1 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 1 0 0,0-1-1 0 0,0 6 0 0 0,0-3-325 0 0,-2-1-301 0 0,1 1-1 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 1 0 0,1-1-1 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-7 4 1 0 0,-11 4-1201 0 0,-1-1 0 0 0,-34 10 0 0 0,-11 4-24 0 0,32-9 971 0 0,-1 2 131 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9564.01">12318 1973 424 0 0,'0'7'1090'0'0,"-1"1"1"0"0,-1-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 0 0 0,-1 0 1 0 0,-5 13-1 0 0,-4 8 2210 0 0,0 34 911 0 0,11 4-5333 0 0,-1-59-4246 0 0,-3-23 306 0 0,4 11 5766 0 0,-2-9-1615 0 0,-1 0-137 0 0,0 0-1 0 0,1 0 0 0 0,-1-29 1 0 0,4 29 543 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9832.54">12299 1954 252 0 0,'1'0'111'0'0,"0"-1"0"0"0,0 1 1 0 0,0 0-1 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 1 0 0,-1-1-1 0 0,2-1 0 0 0,-2 1 36 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,2 0 0 0 0,34-2 3497 0 0,-25 0-2543 0 0,-1 1 1 0 0,1 1-1 0 0,0 0 0 0 0,19 4 1 0 0,-12-1-459 0 0,1 1 0 0 0,-1 1 0 0 0,0 1 0 0 0,-1 1 0 0 0,0 1-1 0 0,28 15 1 0 0,-35-17-408 0 0,30 20 478 0 0,-39-25-686 0 0,0 0-1 0 0,-1 0 1 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,2 3 0 0 0,-3-2-16 0 0,0 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,-1-1 0 0 0,-2 2 0 0 0,-47 35 11 0 0,36-29-24 0 0,-8 7-9 0 0,9-5-1 0 0,-1 0 1 0 0,0-2 0 0 0,-1 0-1 0 0,0-1 1 0 0,-1 0 0 0 0,-18 5 0 0 0,8-6 54 0 0,11-2 114 0 0,-1-1-1 0 0,1-1 1 0 0,-1-1 0 0 0,-36 2-1 0 0,104-23 741 0 0,-28 10-695 0 0,0 1 0 0 0,1 2 0 0 0,0 0 0 0 0,0 1 0 0 0,38 0 1 0 0,-13 3 35 0 0,81 11 1 0 0,-107-7-600 0 0,0 2 0 0 0,0 1 0 0 0,-1 0 0 0 0,30 14 0 0 0,32 19-6446 0 0,-83-39 6764 0 0,2 1-1612 0 0,0-1 1320 0 0,0-1 0 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 0 0 0,1-2 0 0 0,19-61-2339 0 0,-12 31 1554 0 0,5 3 444 0 0,4 0 155 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="9984.24">13102 1935 524 0 0,'0'-1'103'0'0,"0"1"0"0"0,-1-1-1 0 0,1 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1-1 0 0,2-1 1 0 0,11 9 5672 0 0,-25 25 1957 0 0,12-14-5679 0 0,1 38 924 0 0,0-50-2958 0 0,-1 0 0 0 0,1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,7 11 0 0 0,-9-16-235 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,-1 0-1 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,4 1-1 0 0,-4-2-149 0 0,1 0 1 0 0,-1 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0-1 0 0 0,2-2-1 0 0,79-138-6977 0 0,-68 122 6662 0 0,4-3 115 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="10304.66">13446 1797 260 0 0,'90'-6'8291'0'0,"-52"11"-1866"0"0,7 17-1870 0 0,-14-5-3076 0 0,-26-14-1374 0 0,1 0 0 0 0,-1 0 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 1 0 0,1 11-1 0 0,-3-13-102 0 0,1 1 2 0 0,-1 0-1 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,0 0 1 0 0,1 0-1 0 0,-2-1 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 1 0 0,-2 4-1 0 0,-13 26-27 0 0,8-16-11 0 0,0 0-1 0 0,-2-1 1 0 0,0 0 0 0 0,-16 20 0 0 0,13-22 3 0 0,0 0 1 0 0,-1-2-1 0 0,0 0 0 0 0,-1-1 1 0 0,-1 0-1 0 0,0-1 0 0 0,-25 12 1 0 0,30-18 151 0 0,0-2 0 0 0,0 1 0 0 0,0-2 0 0 0,0 1 0 0 0,-1-2 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-2 0 0 0,-14-2 0 0 0,4-4 711 0 0,-17-2 3956 0 0,41 11-4646 0 0,1 0 0 0 0,-1 1-1 0 0,0-1 1 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,3 1-1 0 0,34 6 169 0 0,254 22-307 0 0,-250-25-2057 0 0,79 3 6345 0 0,-70-5-6127 0 0,-6-2-5888 0 0,-2 1-8363 0 0,-80 1 13435 0 0,0 2-1 0 0,-38 9 1 0 0,36-6 1927 0 0,-17 4 86 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="13090.57">7176 3823 344 0 0,'-25'-36'5993'0'0,"11"4"3419"0"0,15 33-9092 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,48 6-705 0 0,-9 0 601 0 0,-29-4-195 0 0,0 0-1 0 0,0 0 0 0 0,0-1 0 0 0,0 0 1 0 0,20-3-1 0 0,-26 2-8 0 0,-1-1 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1-1 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,5-6 1 0 0,-1 3 86 0 0,-9 6-80 0 0,1-1-1 0 0,0 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,2-3-239 0 0,1-4 4033 0 0,-14 11-1342 0 0,8 2-2397 0 0,-1 1-1 0 0,1 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 0-1 0 0,1 1 1 0 0,-1 0 0 0 0,1-1-1 0 0,0 1 1 0 0,0 6-1 0 0,-3 6-17 0 0,-15 71 102 0 0,3 1 0 0 0,-5 121 0 0 0,13 185 192 0 0,8-334-308 0 0,7 263 147 0 0,24 151 16 0 0,-18-343-204 0 0,-56-203-9 0 0,-24-71-2372 0 0,31 70-1476 0 0,-41-119 0 0 0,-8-42-6337 0 0,-7-18 263 0 0,78 183 8292 0 0,8 40 1032 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="13469.1">6965 4300 508 0 0,'0'-4'144'0'0,"3"-9"9052"0"0,4 13-3092 0 0,1 2-4877 0 0,0 0-2363 0 0,36 7 4463 0 0,81 8 0 0 0,-64-14-2003 0 0,-1-2 0 0 0,76-10-1 0 0,-108 6-1054 0 0,42-8 311 0 0,-35 5-389 0 0,-28 5-224 0 0,-1 1-1 0 0,1-1 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 0 0 0,0-1 1 0 0,7-4-1 0 0,-12 6-206 0 0,-15 1-1167 0 0,0 1 648 0 0,0 0 1 0 0,0 1-1 0 0,0 1 0 0 0,1 0 1 0 0,-1 1-1 0 0,1 0 1 0 0,0 1-1 0 0,0 1 1 0 0,-15 8-1 0 0,-21 14-787 0 0,-53 42 0 0 0,71-48 861 0 0,-94 67-671 0 0,-162 109 2067 0 0,223-170 1021 0 0,20-11 4144 0 0,78-24-4083 0 0,110-33 283 0 0,62-13-314 0 0,-163 44-1478 0 0,-1 2 1 0 0,81-2 0 0 0,94 3-2644 0 0,-205 5 1512 0 0,0 1 0 0 0,0-1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-2 0 0 0,-1 1 0 0 0,18-9 0 0 0,-23 9 334 0 0,-1 0-1 0 0,1 0 1 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-2-1 0 0 0,1 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,-2 0 0 0 0,1 0 0 0 0,2-7 0 0 0,84-293-7560 0 0,-75 255 7608 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="13626.88">8208 3497 348 0 0,'2'0'213'0'0,"-1"0"0"0"0,1 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,0 0 0 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1 1 1 0 0,37 59 6425 0 0,-28-43-6030 0 0,-1 0 1 0 0,14 40 0 0 0,-23-56-819 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,-5 3-1 0 0,-7 4-643 0 0,-1-1 0 0 0,0-1 0 0 0,0 0-1 0 0,-1-1 1 0 0,0-1 0 0 0,0 0 0 0 0,-1-1 0 0 0,-16 2 0 0 0,14-5 328 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="13825.95">7864 3798 96 0 0,'0'2'352'0'0,"0"1"-1"0"0,0-1 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1-1-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,3 0 1 0 0,12-1 1056 0 0,0-1-1 0 0,0 0 0 0 0,30-9 1 0 0,-37 9-1184 0 0,174-42 2854 0 0,-111 27-2698 0 0,-44 9-914 0 0,1 2 0 0 0,0 0 0 0 0,43-1 1 0 0,-72 7 397 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,0-1 0 0 0,1 2 0 0 0,-13 16-3569 0 0,-36 17-957 0 0,46-33 4382 0 0,-131 69-5172 0 0,48-28 3526 0 0,54-26 1505 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="14214.13">7966 4043 120 0 0,'-7'3'402'0'0,"1"1"-1"0"0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 1-1 0 0,1 0 1 0 0,0 0-1 0 0,-7 11 1 0 0,10-14-226 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,-1 0-1 0 0,1 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 1 0 0 0,1-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1-1 1 0 0,4 4 0 0 0,-1-2-154 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 1 0 0,-1 0-1 0 0,1-1 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,0-2 1 0 0,-1 1-1 0 0,7-2 1 0 0,18-6-62 0 0,0-1 0 0 0,44-22 0 0 0,-54 23 44 0 0,17-10-76 0 0,54-37-1 0 0,-42 24 17 0 0,-22 16 49 0 0,-10 7 202 0 0,-1-1 1 0 0,27-22 0 0 0,-42 31 613 0 0,-15 27 591 0 0,-82 67 39 0 0,-4-4 1 0 0,-173 117-1 0 0,255-195-1114 0 0,-1-1 0 0 0,-1-1 0 0 0,-31 10 0 0 0,0 0 543 0 0,41-16-498 0 0,1 0 0 0 0,-1 0-1 0 0,0-1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,-10-1 1 0 0,18 0-17 0 0,2-5 452 0 0,0 5-780 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,1 0 0 0 0,-1-1-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 1-1 0 0,0 0 1 0 0,1-1 0 0 0,-1 1-1 0 0,0 0 1 0 0,1-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,1-1 1 0 0,0 1 0 0 0,39-22 578 0 0,1 2 0 0 0,1 2 0 0 0,74-22 1 0 0,-95 33-466 0 0,55-13 184 0 0,1 3-1 0 0,150-14 1 0 0,-123 19-580 0 0,-39 14-512 0 0,-23 1-311 0 0,-21 1-332 0 0,-6-2-5049 0 0,-24-8 2262 0 0,-1 2 2937 0 0,0 0 0 0 0,0 1 0 0 0,0 1 0 0 0,0-1-1 0 0,-18 0 1 0 0,4 1-77 0 0,1 1-1 0 0,-1 1 0 0 0,-32 4 1 0 0,32 2 726 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="14534.8">8253 4269 140 0 0,'0'0'5013'0'0,"-26"19"5197"0"0,10-3-8228 0 0,1 2 1 0 0,-22 32 0 0 0,-45 95-1144 0 0,47-80-340 0 0,-110 179-263 0 0,128-213-229 0 0,8-14-5 0 0,0 1 1 0 0,-2-2-1 0 0,0 1 1 0 0,-14 15-1 0 0,23-30 22 0 0,-3 1 1026 0 0,9-5-519 0 0,0 0-388 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,6 1 0 0 0,53 3 957 0 0,-63-4-1089 0 0,134 24 1376 0 0,-118-21-1288 0 0,0 2 1 0 0,-1 0 0 0 0,1 1-1 0 0,-1 0 1 0 0,-1 1 0 0 0,19 12-1 0 0,3 4 6 0 0,-25-16-161 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,-1 1 1 0 0,16 16-1 0 0,0-1-513 0 0,-23-21 282 0 0,1 0 0 0 0,0-1 0 0 0,-1 1-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,2 5 0 0 0,-4-8-874 0 0,-2-14-6393 0 0,-7-12 4505 0 0,0-6 899 0 0,-5-49-2018 0 0,8 53 3109 0 0,2-1 0 0 0,0 0 1 0 0,2-1-1 0 0,2-42 1 0 0,5 40 463 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="14876.97">8342 4702 104 0 0,'-1'-11'4110'0'0,"-30"52"4475"0"0,14-12-6361 0 0,0 0 1 0 0,-13 37 0 0 0,-13 23-841 0 0,5-13-610 0 0,-7 13-304 0 0,26-54-370 0 0,15-27-101 0 0,-1 0 0 0 0,1 0 0 0 0,-2 0 0 0 0,1 0 0 0 0,-11 11 0 0 0,7-10-216 0 0,0 0 0 0 0,-1-1 0 0 0,0 0 0 0 0,0-1-1 0 0,-1 0 1 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,-13 3 0 0 0,18-6-49 0 0,-1-1 0 0 0,1 1-1 0 0,-1-2 1 0 0,0 1 0 0 0,1-1 0 0 0,-1-1-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 0-1 0 0,1-1 1 0 0,-1 0 0 0 0,1 0 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1 0 0 0,0 1-1 0 0,-9-8 1 0 0,7 3-64 0 0,1 1-1 0 0,-1-2 1 0 0,2 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,0-1 1 0 0,1 0-1 0 0,0 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0-1-1 0 0,1 0 1 0 0,-3-16-1 0 0,-2-11-299 0 0,1 0 0 0 0,-3-61-1 0 0,7-40 717 0 0,4 124 328 0 0,1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,0 0 0 0 0,2 0 0 0 0,8-19 0 0 0,-10 26-10 0 0,2 1-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,1 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,1 1-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 1 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,16-1 1 0 0,11 1 322 0 0,0 1 0 0 0,0 1 0 0 0,47 7 0 0 0,-62-5-461 0 0,243 36 1298 0 0,-91-19-2811 0 0,-108-18-2610 0 0,-38-1-1449 0 0,-24-1 5101 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1-1 0 0,-1 0 1 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0-2 1 0 0,3-31-3444 0 0,-3-41-331 0 0,0 51 3338 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="15187.4">8858 3924 16 0 0,'3'0'490'0'0,"0"1"0"0"0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 1-1 0 0,-1 0 1 0 0,1-1 0 0 0,0 1 0 0 0,-1 0-1 0 0,2 3 1 0 0,2 3 845 0 0,0 1 0 0 0,-1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,4 17 0 0 0,4 72 3177 0 0,-9-72-3992 0 0,-1 0 0 0 0,-1-1 0 0 0,-7 45 0 0 0,7-67-491 0 0,-56 255 1097 0 0,48-231-1081 0 0,5-14-24 0 0,-1 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,-1 0-1 0 0,0-1 1 0 0,-1 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,-12 13 0 0 0,11-19 226 0 0,13-16 463 0 0,14-16-72 0 0,11 2-546 0 0,0 1 0 0 0,1 1 0 0 0,1 1 0 0 0,1 2 0 0 0,38-15 0 0 0,-49 23-189 0 0,32-11-630 0 0,-41 17-180 0 0,0-1 0 0 0,0 0 0 0 0,19-12 0 0 0,-18 10-1026 0 0,-12 6 1573 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1-1 0 0 0,1 1 1 0 0,0 0-1 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,0 0-1 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 1 0 0,-1-1-1 0 0,0-68-5414 0 0,-5-40 1803 0 0,0 75 3164 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="15413.18">9291 3692 260 0 0,'0'0'2906'0'0,"26"0"2779"0"0,-22 5-4816 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,-1 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,-1 1 1 0 0,3 13-1 0 0,-1 4 880 0 0,0 49-1 0 0,-45 472 3829 0 0,14-294-4661 0 0,12-113-628 0 0,-6 126-164 0 0,20-210-406 0 0,-12 63 0 0 0,7-65-1199 0 0,-2 63-1 0 0,5-90-992 0 0,3-25 2300 0 0,1 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,0 1-1 0 0,0-1 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-105 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,0-20-303 0 0,24-127-6075 0 0,27-72 2661 0 0,-32 153 3317 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="15718.61">9629 3955 76 0 0,'2'-8'443'0'0,"1"0"0"0"0,0 1 0 0 0,0-1 1 0 0,1 1-1 0 0,0 0 0 0 0,7-9 0 0 0,15-16 6221 0 0,-24 33-6199 0 0,0 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 1 0 0,0 0-1 0 0,1-1 0 0 0,-1 1 1 0 0,0 0-1 0 0,0-1 0 0 0,0 4 1 0 0,3 10 752 0 0,-2 1 1 0 0,0-1-1 0 0,1 23 0 0 0,-13 90 402 0 0,3-64-1024 0 0,-8 27-240 0 0,10-65-86 0 0,0 1 0 0 0,-1 40 0 0 0,6-64 621 0 0,19-28 1139 0 0,65-5-243 0 0,-37 12-1348 0 0,-9 4-200 0 0,0-1 0 0 0,-1-2 0 0 0,62-39 0 0 0,17-32-1393 0 0,-104 81 1673 0 0,3-5-6786 0 0,-16 11 5868 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 1 0 0,0 1-1 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 1 0 0,0 0-1 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 1 0 0,-1 1-1 0 0,-51 6-4824 0 0,37-6 3120 0 0,-1 1 1 0 0,-28 7-1 0 0,36-4 1345 0 0,-2 2 173 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="15938.19">9954 4074 696 0 0,'-25'13'9119'0'0,"18"38"920"0"0,-2 53-5213 0 0,-22 56-1877 0 0,21-117-2313 0 0,-14 59 82 0 0,-4-1 0 0 0,-5-1 0 0 0,-48 100 0 0 0,73-184-740 0 0,-62 119-642 0 0,61-121 300 0 0,0-1 1 0 0,-1 0-1 0 0,0 0 0 0 0,-1-1 0 0 0,-1 0 0 0 0,0-1 0 0 0,-15 11 0 0 0,19-16-291 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0-1 0 0 0,-14 4 0 0 0,21-6 428 0 0,-1-1-1 0 0,1 1 1 0 0,0-1 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,0-1 0 0 0,0 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1-1 0 0 0,-1 1 0 0 0,1-3-1 0 0,-6-23-1352 0 0,1 0 0 0 0,2 0-1 0 0,1 0 1 0 0,3-50 0 0 0,21-112-2172 0 0,7 77 2275 0 0,-21 62 984 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="16092.42">9527 4432 220 0 0,'3'1'350'0'0,"-1"0"1"0"0,0 0-1 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 1 0 0,2 6-1 0 0,22 55 4726 0 0,-24-59-4746 0 0,13 30 1997 0 0,2 0 0 0 0,1-1-1 0 0,23 33 1 0 0,19 35 386 0 0,110 180 590 0 0,-140-236-3073 0 0,-9-16-371 0 0,1-1-1 0 0,30 31 1 0 0,-34-41-1385 0 0,39 30 1 0 0,-53-47 1092 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,3-3 0 0 0,10-8-1568 0 0,0 0 1 0 0,-1-2-1 0 0,22-24 0 0 0,-26 26 1605 0 0,11-9-627 0 0,1 2 0 0 0,45-32 0 0 0,-67 52 1017 0 0,48-36-555 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="16476.67">11407 3616 484 0 0,'0'0'2401'0'0,"18"27"7903"0"0,-16-25-10229 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 1 1 0 0,0-1-1 0 0,1 1 0 0 0,-1-1 1 0 0,0 1-1 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,0 0 1 0 0,-1 4-1 0 0,1-4-260 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,-2 2 0 0 0,-5 4-596 0 0,-2 0-1 0 0,1 0 0 0 0,-1-1 0 0 0,0 0 0 0 0,-1-1 1 0 0,0 0-1 0 0,0-1 0 0 0,0 0 0 0 0,-17 5 0 0 0,1 2-349 0 0,-43 19-1030 0 0,51-20 1698 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="17099.12">11012 3974 40 0 0,'-1'14'2488'0'0,"2"-1"6104"0"0,24-9-4575 0 0,-11-5-3223 0 0,-1 0 0 0 0,1-2 0 0 0,-1 1 0 0 0,16-6-1 0 0,35-7 554 0 0,26 0-121 0 0,-63 9-982 0 0,1 1 0 0 0,44-1 0 0 0,35-7-276 0 0,-106 13-60 0 0,-21 20-1110 0 0,-196 167-678 0 0,166-137 1760 0 0,-46 60 0 0 0,76-83 124 0 0,0 1 0 0 0,2 1 1 0 0,2 0-1 0 0,-19 44 0 0 0,33-67-6 0 0,-1 1-1 0 0,1-1 1 0 0,1 0 0 0 0,-1 1 0 0 0,1-1-1 0 0,0 1 1 0 0,0-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0-1-1 0 0,1 1 1 0 0,0-1 0 0 0,0 1 0 0 0,0-1-1 0 0,1 1 1 0 0,0-1 0 0 0,3 8 0 0 0,-3-13 2 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,5-1 0 0 0,44-6 13 0 0,-9-8 4 0 0,-1-2 1 0 0,-1-1-1 0 0,-1-2 0 0 0,0-2 1 0 0,45-35-1 0 0,-46 32-9 0 0,-20 19 225 0 0,-20 18 27 0 0,-23 31 183 0 0,21-36-371 0 0,-19 27 122 0 0,0-1 0 0 0,-3-2 0 0 0,-40 41 0 0 0,-99 78 25 0 0,88-82-113 0 0,-144 99 579 0 0,174-135-320 0 0,43-29-311 0 0,-3 3 188 0 0,-1 0-1 0 0,0-1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 1 0 0,-1-2-1 0 0,-14 5 0 0 0,22-8 954 0 0,21-20-37 0 0,23-7-967 0 0,1 2-1 0 0,0 3 0 0 0,2 1 1 0 0,1 2-1 0 0,0 3 0 0 0,1 1 0 0 0,73-12 1 0 0,-88 24-151 0 0,-1 0 0 0 0,1 3 1 0 0,-1 1-1 0 0,51 7 0 0 0,132 35-902 0 0,-148-28-42 0 0,-44-10 325 0 0,-10-1-290 0 0,0-1 0 0 0,0 0 0 0 0,1-1 1 0 0,-1-1-1 0 0,0 0 0 0 0,1-1 0 0 0,17-2 0 0 0,-29 2 580 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1-1 1 0 0,0 1 0 0 0,0-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,2-4 0 0 0,7-56-4311 0 0,-8 46 3902 0 0,19-203-5016 0 0,-9 162 5010 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="17226.93">12133 3491 536 0 0,'0'-9'538'0'0,"0"7"-210"0"0,-1 0 0 0 0,1-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,1 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,5-6 8476 0 0,-12 26-5075 0 0,9 25-2923 0 0,0-30-1091 0 0,-2 1 0 0 0,0 0-1 0 0,-3 22 1 0 0,-1-8-491 0 0,4-21 364 0 0,0-1 1 0 0,-1 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 0 1 0 0,-1 0-1 0 0,-4 4 1 0 0,-1-1-291 0 0,0-1-1 0 0,-1 0 1 0 0,0-1 0 0 0,0 0 0 0 0,-1-1-1 0 0,0 0 1 0 0,0-1 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 0-1 0 0,-15 1 1 0 0,9-3 110 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="17465.02">11757 3754 292 0 0,'0'0'2471'0'0,"13"14"2067"0"0,-16 82 4898 0 0,-1-56-7412 0 0,-12 60 1 0 0,10-76-1498 0 0,2-8-92 0 0,0 1-1 0 0,1-1 1 0 0,1 1 0 0 0,-1 26-1 0 0,7-43-368 0 0,-1 0 1 0 0,0-1-1 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 1 0 0,0 0-1 0 0,0 0 0 0 0,5-4 0 0 0,-3 4 31 0 0,80-32 570 0 0,-43 14-472 0 0,19-6-419 0 0,1 3 0 0 0,0 2 0 0 0,2 3 0 0 0,95-13 1 0 0,-121 27-847 0 0,-7 1-2579 0 0,55-11-1 0 0,-83 12 3302 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,-1-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 0 0 0,1-3 1 0 0,1-6-854 0 0,0-1 1 0 0,0 0-1 0 0,0-25 0 0 0,5-21-851 0 0,-2 35 1515 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="17616.68">12567 3554 12 0 0,'0'0'1414'0'0,"-13"31"4423"0"0,9-20-4669 0 0,1 0 0 0 0,1-1 0 0 0,0 2 0 0 0,0-1 0 0 0,1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,2 14 0 0 0,-2-1-271 0 0,3 77 878 0 0,1 0-3506 0 0,-5-94 1214 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,-1 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 1 0 0,-8 4-1 0 0,-13 12-1577 0 0,-2-1 1 0 0,-44 25-1 0 0,26-18 733 0 0,16-10 609 0 0,3-4 129 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="17851.83">11789 4238 40 0 0,'-12'5'1046'0'0,"-13"8"2390"0"0,18-1 2154 0 0,7-11-5100 0 0,0 0 0 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 1 0 0 0,26 10 3915 0 0,48-5-2928 0 0,-44-5-69 0 0,12-1-13 0 0,77-6 1 0 0,-87 2-937 0 0,130-21 1037 0 0,-56 6-848 0 0,36-14-470 0 0,-66 13-333 0 0,-58 15-324 0 0,0-1 0 0 0,26-11 1 0 0,-40 14-142 0 0,0-1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,7-7-1 0 0,-13 10 427 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1-1 0 0,-1-2 1 0 0,-22-19-4794 0 0,-33-5-1117 0 0,44 22 5338 0 0,0 1 0 0 0,0 1 1 0 0,0 0-1 0 0,-1 1 0 0 0,1 0 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1 0 0 0 0,-22 6 0 0 0,15 3 157 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="18667.48">12350 4206 308 0 0,'-5'6'861'0'0,"1"0"-1"0"0,-1 1 1 0 0,2 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,-1 9-1 0 0,-1-9 254 0 0,0-1-1 0 0,-1 1 1 0 0,0-1 0 0 0,0-1-1 0 0,-14 9 1 0 0,15-9-591 0 0,-6 3 33 0 0,-95 69 1754 0 0,78-58-3073 0 0,-1 0 1 0 0,-1-2-1 0 0,-49 19 0 0 0,61-31-362 0 0,0-1 1 0 0,-36 4-1 0 0,41-6 578 0 0,0-2-236 0 0,1-1-1 0 0,-1 0 0 0 0,0-1 1 0 0,0 0-1 0 0,0-1 1 0 0,-17-6-1 0 0,26 8 493 0 0,1-1 0 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-5-6 0 0 0,6 7 331 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-5 2067 0 0,2 12-1629 0 0,1 1-1 0 0,-1-1 1 0 0,0 0 0 0 0,0 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 8 0 0 0,1-3 110 0 0,7 27 734 0 0,-1 0 1 0 0,6 68 0 0 0,2 10-558 0 0,-8-56-677 0 0,-7-38-290 0 0,1-1 1 0 0,1 1-1 0 0,1-1 1 0 0,0 0-1 0 0,12 25 1 0 0,-17-43 144 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 1 0 0,1 0-1 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 1 0 0,0 0-1 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,12-20-1419 0 0,2-34-375 0 0,32-195 148 0 0,-45 236 2187 0 0,0-1 1 0 0,2 1-1 0 0,-1-1 1 0 0,2 1-1 0 0,0 0 1 0 0,0 0-1 0 0,1 1 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 1 1 0 0,12-12-1 0 0,-8 12 380 0 0,1 2 0 0 0,1-1-1 0 0,-1 2 1 0 0,2 0-1 0 0,-1 0 1 0 0,1 1 0 0 0,0 1-1 0 0,31-8 1 0 0,14-7 720 0 0,-15 7-442 0 0,0 2 0 0 0,0 2 0 0 0,69-7 0 0 0,-43 8-156 0 0,-11 0 297 0 0,97-2 0 0 0,-132 12-972 0 0,-1 0-1 0 0,0 1 1 0 0,0 1-1 0 0,0 2 0 0 0,0 0 1 0 0,45 17-1 0 0,-65-20-273 0 0,1 0 0 0 0,-1 1-1 0 0,0-1 1 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,-1 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,-1 1 1 0 0,3 8 0 0 0,-1 4 16 0 0,0-1 1 0 0,-1 1-1 0 0,-1 1 0 0 0,-2 17 1 0 0,1-20-55 0 0,-2 4-122 0 0,0-1 1 0 0,-2 1 0 0 0,0-1-1 0 0,-1 1 1 0 0,-9 18 0 0 0,7-17-231 0 0,4-11-10 0 0,-1-1 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 0 0 0 0,0-1-1 0 0,0 1 1 0 0,-1-1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-2 0 0 0,-13 4 0 0 0,-5 0-783 0 0,-1-2 1 0 0,1-1-1 0 0,-1-1 1 0 0,0-1-1 0 0,-48-5 1 0 0,31-2-223 0 0,1-3 0 0 0,1-1 0 0 0,-1-1 0 0 0,2-3-1 0 0,-65-30 1 0 0,84 32 777 0 0,0-1 0 0 0,2-1 0 0 0,-1-1 0 0 0,-27-26 0 0 0,26 23 151 0 0,16 11 477 0 0,1 1-1 0 0,0-1 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,0-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,0 0 0 0 0,-1-14 0 0 0,2 6 1395 0 0,-1 24 1475 0 0,5 35-414 0 0,2-25-2069 0 0,-2 1 0 0 0,0-1-1 0 0,-1 1 1 0 0,0 0 0 0 0,-2 26-1 0 0,3 37 315 0 0,1-38-483 0 0,-3-26-356 0 0,1 0 0 0 0,1 1 0 0 0,6 24 0 0 0,-9-42 81 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,11-11-522 0 0,8-21 3 0 0,-18 32 484 0 0,30-69-698 0 0,27-85 1 0 0,-1 0 832 0 0,-6 15 2473 0 0,-51 141-2492 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,2 17 1370 0 0,-1 20-119 0 0,-19 325 5995 0 0,13-202-5720 0 0,18 154 441 0 0,-12-302-1967 0 0,7 65 174 0 0,4-1-1 0 0,31 108 0 0 0,-28-136-904 0 0,22 48-1 0 0,-26-73-2526 0 0,26 42 0 0 0,-31-89-8628 0 0,-6-21 8754 0 0,-7 9 1074 0 0,-1 0 1 0 0,-20-55-1 0 0,6 22 807 0 0,-1 1 479 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink13.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-04-17T13:16:38.068"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">31 791 232 0 0,'-31'-12'13112'0'0,"110"18"-5321"0"0,9 0-5422 0 0,94 7 1465 0 0,162 6 1131 0 0,152-53-4542 0 0,-405 25-382 0 0,-64 7-322 0 0,0 0 0 0 0,0 2 1 0 0,1 1-1 0 0,-1 1 0 0 0,41 9 0 0 0,-61-9 1184 0 0,4 0-4895 0 0,-17-6-4091 0 0,-104-23-2726 0 0,49 14 7311 0 0,31 7 2126 0 0,-24-9-557 0 0,-4-4 394 0 0,28 13 984 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="306.23">171 1243 440 0 0,'-17'4'1717'0'0,"17"-4"-1574"0"0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-11-5 14652 0 0,26 0-11509 0 0,24-5-2528 0 0,134-32 3443 0 0,74 14-657 0 0,125 15-2954 0 0,-142 26-590 0 0,-5 1 0 0 0,-157-7-444 0 0,-7 0-3632 0 0,-55-6 1887 0 0,-20-6-11636 0 0,9 2 12702 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1-1 1 0 0,-8-10 0 0 0,8 7 499 0 0,0 0 1 0 0,1 0-1 0 0,0 0 1 0 0,1-1-1 0 0,0 1 1 0 0,-4-15-1 0 0,1-1-104 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="594.91">1344 428 68 0 0,'-19'-10'-1178'0'0,"0"-7"17226"0"0,19 17-15918 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,26 5 4642 0 0,116 28-13 0 0,-89-17-3758 0 0,0 3-1 0 0,-1 1 1 0 0,-2 3-1 0 0,57 33 1 0 0,-103-53-919 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,-1 0-1 0 0,0 1 1 0 0,1 0 0 0 0,-2-1-1 0 0,1 1 1 0 0,0 0-1 0 0,-1-1 1 0 0,0 1 0 0 0,0 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,-1 0-1 0 0,0-1 1 0 0,0 1-1 0 0,-3 7 1 0 0,-9 23-82 0 0,-2 0 0 0 0,-1-1 0 0 0,-2 0 0 0 0,-42 58 0 0 0,31-52-32 0 0,-215 285-327 0 0,205-280-731 0 0,-93 101-5110 0 0,35-56-2398 0 0,93-87 8091 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,-1-1-1 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 1 0 0,0 0-1 0 0,-1 1 0 0 0,1-2 0 0 0,0 1 0 0 0,-7-2 0 0 0,5 0 65 0 0,-1 0-1 0 0,1-1 1 0 0,0 0 0 0 0,0 0 0 0 0,1-1-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 0 0 0 0,0-1-1 0 0,0 0 1 0 0,1 0 0 0 0,-9-10 0 0 0,-5-9-83 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink14.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-04-17T13:16:45.382"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">730 87 424 0 0,'0'0'771'0'0,"-19"-12"5779"0"0,3 12-4506 0 0,-1 1-1 0 0,1 1 0 0 0,0 0 1 0 0,-25 8-1 0 0,22-4-962 0 0,0 1 0 0 0,1 1 1 0 0,-21 12-1 0 0,-5 8-756 0 0,2 2-1 0 0,-40 36 1 0 0,18-14 668 0 0,59-49-911 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 1 1 0 0,1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 1 0 0 0,0-1-1 0 0,-4 7 1 0 0,7-11 242 0 0,52 26-361 0 0,-36-23 49 0 0,-1 1 0 0 0,0 0 0 0 0,21 13 0 0 0,3 0 65 0 0,-20-10 43 0 0,0 1-1 0 0,-1 1 1 0 0,0 0 0 0 0,-1 2-1 0 0,0 0 1 0 0,-1 0-1 0 0,26 27 1 0 0,-32-28 14 0 0,-1 0-1 0 0,0 1 1 0 0,-1 0 0 0 0,0 1-1 0 0,-1 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,-1 1 0 0 0,0 0-1 0 0,-1 0 1 0 0,5 29 0 0 0,-5-19 44 0 0,-2 0 1 0 0,0 0 0 0 0,-3 41 0 0 0,-1-55-136 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,-1-1 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,-2 0 1 0 0,-8 11-1 0 0,5-8-20 0 0,-1-1 0 0 0,0 0-1 0 0,0-1 1 0 0,-1 0 0 0 0,-1 0 0 0 0,1-1-1 0 0,-1-1 1 0 0,-1 0 0 0 0,0 0 0 0 0,0-2 0 0 0,0 1-1 0 0,-1-2 1 0 0,0 0 0 0 0,-25 6 0 0 0,11-5-227 0 0,-1-2 0 0 0,1 0 0 0 0,-1-2 0 0 0,0-1 0 0 0,0-1 0 0 0,1-2 0 0 0,-35-6 0 0 0,52 6-182 0 0,-1 0 0 0 0,1-1 0 0 0,-1 0-1 0 0,1-1 1 0 0,-13-6 0 0 0,20 8 16 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 0 0 0 0,-3-8-1 0 0,5 7-152 0 0,0 0-1 0 0,0 1 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,2 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,2-1 0 0 0,-1 1 0 0 0,3-4 0 0 0,6-9-1197 0 0,1 0-1 0 0,27-27 0 0 0,-22 25 667 0 0,-5 6 396 0 0,2-1 0 0 0,-1 2-1 0 0,19-13 1 0 0,-1 1 32 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="516.21">1201 244 392 0 0,'1'-1'207'0'0,"-1"1"0"0"0,1-1 0 0 0,-1 0 0 0 0,1 1 1 0 0,0-1-1 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,0 1 1 0 0,1 0-1 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 2 1 0 0,16 66 8457 0 0,-10-39-8025 0 0,5 11 781 0 0,-2 1-1 0 0,6 58 0 0 0,5 21-46 0 0,-13-87-1052 0 0,45 178 702 0 0,-48-196-1010 0 0,1-2-1 0 0,0 1 1 0 0,1 0 0 0 0,0-1-1 0 0,1 0 1 0 0,1-1 0 0 0,0 1 0 0 0,19 21-1 0 0,-27-34-11 0 0,1 0 0 0 0,-1 1-1 0 0,0-1 1 0 0,1 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 1 0 0 0,0-1-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,1-1-1 0 0,18-20 44 0 0,10-30 17 0 0,0-26-16 0 0,33-129 0 0 0,-40 127-42 0 0,64-279-48 0 0,-62 252 14 0 0,-21 91 24 0 0,12-33-21 0 0,-15 47 35 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,1-1 0 0 0,-1 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1-1-1 0 0,0 1 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 1-1 0 0,0-1 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 1 0 0 0,-1-1-1 0 0,0 0 1 0 0,0 0 0 0 0,1 1-1 0 0,11 19 297 0 0,4 25 147 0 0,54 441 1762 0 0,-51-309-2026 0 0,4-39-129 0 0,-20-123-42 0 0,1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,0 0 1 0 0,1-1-1 0 0,12 16 0 0 0,-19-28-11 0 0,1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 1-1 0 0,1-2 1 0 0,-1 1 0 0 0,0 0-1 0 0,3 0 1 0 0,-2-2 5 0 0,1 1-1 0 0,0 0 1 0 0,0-1 0 0 0,0 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1-1 0 0,0 1 1 0 0,3-4 0 0 0,4-6 29 0 0,-1-1 1 0 0,0-1-1 0 0,12-26 0 0 0,26-83-29 0 0,29-131-1 0 0,-49 163-8 0 0,37-190-2 0 0,-56 251-776 0 0,-1 0 1 0 0,-2-1-1 0 0,0-54 0 0 0,-4 84-120 0 0,-18 45-9688 0 0,-1 31 3639 0 0,12-53 4804 0 0,1 1 0 0 0,1 0-1 0 0,1 1 1 0 0,-1 32 0 0 0,5-54 1660 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="749.25">2584 62 588 0 0,'0'0'4583'0'0,"19"20"1917"0"0,-15-13-5047 0 0,-1-1 0 0 0,0 1 1 0 0,-1 0-1 0 0,1 1 0 0 0,1 13 0 0 0,3 4 873 0 0,5 82 2267 0 0,-8-83-3799 0 0,-1 0-1 0 0,0 38 1 0 0,-1 3 101 0 0,1 128 399 0 0,-5-105-1155 0 0,0-9-980 0 0,-16 99 0 0 0,0-116-3203 0 0,-1-86-1883 0 0,13 4 4440 0 0,2-1 1 0 0,0 0-1 0 0,1 1 1 0 0,1-1 0 0 0,1 0-1 0 0,2-26 1 0 0,-1 30 784 0 0,29-323-7507 0 0,-26 317 7911 0 0,3-27-273 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="995.38">2680 87 48 0 0,'0'-9'1074'0'0,"1"0"0"0"0,0 0 1 0 0,1 0-1 0 0,0 0 0 0 0,5-15 0 0 0,-5 23-657 0 0,-1-1 0 0 0,0 1-1 0 0,1-1 1 0 0,0 1 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,3 0-1 0 0,52 14 4931 0 0,2 12-2442 0 0,-2 3-1 0 0,98 67 1 0 0,-113-69-2376 0 0,13 16-211 0 0,-45-36-294 0 0,-1 1 1 0 0,-1 0 0 0 0,0 0-1 0 0,0 1 1 0 0,-1 0 0 0 0,0 1-1 0 0,0 0 1 0 0,-1 0 0 0 0,8 21-1 0 0,-10-21-12 0 0,-1 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-3 20 0 0 0,-1 0 16 0 0,-15 61 0 0 0,5-53-78 0 0,-1 0 1 0 0,-2-1-1 0 0,-2 0 0 0 0,-1-1 1 0 0,-2-2-1 0 0,-1 0 0 0 0,-52 62 1 0 0,55-76-664 0 0,0 1 0 0 0,-2-2-1 0 0,-1-1 1 0 0,0 0 0 0 0,-44 27 0 0 0,44-34-1502 0 0,-1 0 1 0 0,0-1-1 0 0,-46 15 0 0 0,54-22 1017 0 0,2 1-289 0 0,-1-1 1 0 0,0 0-1 0 0,-1-1 1 0 0,1 0-1 0 0,0-2 0 0 0,-1 1 1 0 0,0-2-1 0 0,-22-1 0 0 0,-20-1-2128 0 0,38-4 2940 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink15.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-04-17T13:17:34.576"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">43 107 148 0 0,'-13'-29'4332'0'0,"12"28"-3843"0"0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,-1 0-1 0 0,-14-10 20199 0 0,20 10-19307 0 0,43-2-954 0 0,91-17 0 0 0,-36 4-433 0 0,63 6 7 0 0,-150 9 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 2 0 0 0,27 5 0 0 0,36 2 0 0 0,-76-9 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,3 3 0 0 0,-4-3 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 2 0 0 0,-2 4 0 0 0,-37 180 0 0 0,3-20 0 0 0,-26 267 0 0 0,43-248 82 0 0,6-69-1267 0 0,1-17-4525 0 0,-5-52-3338 0 0,18-47 8678 0 0,0 0-1 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,1-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 0 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1-1 1 0 0,-20 1-3211 0 0,14-6 2848 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink16.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-04-17T13:17:26.732"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">2582 716 484 0 0,'0'-1'280'0'0,"0"0"-1"0"0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 0 1 0 0,0 1 0 0 0,-1-1-1 0 0,1 1 1 0 0,0-1-1 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,1-1 1 0 0,-1 1-1 0 0,0 0 1 0 0,1-1 0 0 0,-1 1-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,-1 0-1 0 0,-43-21 6008 0 0,26 12-4095 0 0,2 1-1251 0 0,-40-21 1711 0 0,-2 3-1 0 0,-75-24 0 0 0,54 27-1121 0 0,-162-41 614 0 0,157 44-2091 0 0,-55-16-53 0 0,71 25 0 0 0,43 5 0 0 0,0 2 0 0 0,-37-1 0 0 0,-38 3 0 0 0,43-1 0 0 0,-96 9 0 0 0,114-1 0 0 0,1 1 0 0 0,-1 3 0 0 0,1 1 0 0 0,1 1 0 0 0,-46 21 0 0 0,1 0 0 0 0,56-19 0 0 0,-15 7 0 0 0,1 1 0 0 0,0 3 0 0 0,-58 44 0 0 0,71-46 0 0 0,0 0 0 0 0,1 1 0 0 0,-36 41 0 0 0,47-45 0 0 0,-20 22 0 0 0,2 2 0 0 0,-32 53 0 0 0,18-23 0 0 0,29-48 0 0 0,-21 42 0 0 0,12-14 0 0 0,9-19 0 0 0,1 1 0 0 0,1 1 0 0 0,3 0 0 0 0,-20 71 0 0 0,23-67 0 0 0,8-32 0 0 0,1-1 0 0 0,-1 1 0 0 0,2-1 0 0 0,-1 1 0 0 0,0 13 0 0 0,-11 68 0 0 0,7 67 0 0 0,7-129-4 0 0,2 0 0 0 0,1 1 0 0 0,1-1 0 0 0,2-1 0 0 0,0 1 1 0 0,17 37-1 0 0,27 61 31 0 0,-38-100-27 0 0,1-1 0 0 0,2-1 0 0 0,0 0 0 0 0,2-1 0 0 0,0 0 0 0 0,1-2 0 0 0,26 21 0 0 0,-18-15 0 0 0,21 18 0 0 0,88 63 0 0 0,-54-62 0 0 0,-63-35 0 0 0,0 1 0 0 0,30 9 0 0 0,25 14 0 0 0,-33-13 0 0 0,67 22 0 0 0,-17-7 0 0 0,57 21 0 0 0,-103-40 0 0 0,66 15 0 0 0,-45-13 0 0 0,107 17 0 0 0,-85-21 0 0 0,-17-5 0 0 0,110 2 0 0 0,-36-4 0 0 0,-94-6 0 0 0,100-12 0 0 0,-100 6 0 0 0,-4-2 0 0 0,46-12 0 0 0,2-1 0 0 0,-7 2 0 0 0,0-3 0 0 0,114-44 0 0 0,-147 44 0 0 0,-1-2 0 0 0,-1-3 0 0 0,-1-2 0 0 0,-2-3 0 0 0,93-70 0 0 0,-82 53 0 0 0,-42 33 0 0 0,-1 0 0 0 0,0-1 0 0 0,19-21 0 0 0,-3-2 0 0 0,-18 22 0 0 0,-1 0 0 0 0,0-2 0 0 0,-2 0 0 0 0,0 0 0 0 0,15-29 0 0 0,-13 14 0 0 0,-1 4 0 0 0,-1-1 0 0 0,-2 0 0 0 0,12-48 0 0 0,-9 10 0 0 0,-3 0 0 0 0,-3-1 0 0 0,-3 0 0 0 0,-6-114 0 0 0,-10 106 0 0 0,-3 0 0 0 0,-28-85 0 0 0,39 152 0 0 0,-8-22 0 0 0,-2 1 0 0 0,-2 0 0 0 0,0 1 0 0 0,-21-29 0 0 0,32 52 0 0 0,-99-136 0 0 0,89 128 0 0 0,0 0 0 0 0,-24-19 0 0 0,-4-3 0 0 0,1 1 0 0 0,-2 1 0 0 0,-1 3 0 0 0,-2 1 0 0 0,-1 3 0 0 0,-63-29 0 0 0,74 41 0 0 0,0 1 0 0 0,-2 2 0 0 0,1 2 0 0 0,-2 1 0 0 0,1 2 0 0 0,-1 1 0 0 0,0 3 0 0 0,-42-1 0 0 0,46 7 78 0 0,1 2 0 0 0,-45 9-1 0 0,46-6-1340 0 0,0-2 0 0 0,-44 2 0 0 0,-6 6-8532 0 0,29-12 1984 0 0,-19 0 836 0 0,62-2 6284 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-20-7 0 0 0,5 2-76 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1748.06">3907 1368 56 0 0,'-1'8'16144'0'0,"2"-8"-15833"0"0,16 3 5955 0 0,35-6-7035 0 0,-32 1 2925 0 0,21 0-218 0 0,62-11 1 0 0,-25 2-649 0 0,3-1-339 0 0,95-29 0 0 0,-113 25-784 0 0,77-16 50 0 0,273-28 0 0 0,-272 58-194 0 0,0 6-1 0 0,166 25 0 0 0,-204-17-8 0 0,154 19 24 0 0,228 21 39 0 0,-250-20-42 0 0,-170-20-26 0 0,-3 1-2 0 0,-49-9 0 0 0,1-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0-2 1 0 0,0 1-1 0 0,0-2 0 0 0,0 0 1 0 0,0-1-1 0 0,16-2 0 0 0,10-6-7 0 0,1 2 1 0 0,-1 2-1 0 0,67-1 0 0 0,-11 19 24 0 0,-37 0-29 0 0,3-7 6 0 0,29 0 54 0 0,86-25-6 0 0,-122 17-46 0 0,-38 0-3 0 0,0 1-1 0 0,0 1 1 0 0,0 0-1 0 0,21 4 1 0 0,51 4 10 0 0,-12-3-1 0 0,-62-4-5 0 0,0-1 0 0 0,1 0 0 0 0,17-3-1 0 0,21 0 6 0 0,156-4-383 0 0,-57 20-4868 0 0,-144-11 4849 0 0,4 0-6156 0 0,-12-2 6455 0 0,-1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,0 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,-1 0-1 0 0,1-1 1 0 0,0 1 0 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,0-1-1 0 0,0 1 1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,-5-3-513 0 0,1 0 0 0 0,-1 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 1 1 0 0,0 0-1 0 0,-8-1 0 0 0,-17-5-1394 0 0,-36-14-1070 0 0,-73-14 0 0 0,102 29 2586 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2430.94">4232 1839 112 0 0,'-35'-5'183'0'0,"20"1"4236"0"0,1 0 10328 0 0,40-2-12319 0 0,39 2-367 0 0,0-3 1 0 0,99-22-1 0 0,-76 11-1113 0 0,473-70 1481 0 0,-313 52-2151 0 0,-73 8-172 0 0,377-39 82 0 0,-27 69-77 0 0,-204 3-34 0 0,-111-2-25 0 0,187-5 61 0 0,-363 0-104 0 0,97-4 44 0 0,174-30 0 0 0,-104 5-35 0 0,-63 12-11 0 0,-89 18 6 0 0,-47 1 41 0 0,-35 0-1171 0 0,-179 17-12958 0 0,208-16 13793 0 0,-6 0-770 0 0,1 0-1 0 0,-1-1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,-15-5-1 0 0,20 6 648 0 0,0-2 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1-1 0 0 0,0 0 1 0 0,-1 0-1 0 0,2 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-5-9 0 0 0,-4-4-336 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2832.87">7998 596 60 0 0,'0'0'13763'0'0,"9"5"-8432"0"0,13 4-1950 0 0,-15-6-2560 0 0,1 1 0 0 0,-1 0-1 0 0,1 0 1 0 0,11 9 0 0 0,16 9 829 0 0,16 8-680 0 0,-1 2 0 0 0,-2 2 0 0 0,62 57 0 0 0,-88-72-937 0 0,31 29 32 0 0,-3 3 1 0 0,56 71 0 0 0,-101-117-59 0 0,-1-1-1 0 0,0 2 1 0 0,0-1 0 0 0,-1 0 0 0 0,1 1-1 0 0,-1 0 1 0 0,-1-1 0 0 0,1 1 0 0 0,-1 1-1 0 0,0-1 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,-1 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1-1 0 0,0 0 1 0 0,0 1 0 0 0,-1-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-7 8 0 0 0,-47 61 40 0 0,-120 118 0 0 0,102-118-124 0 0,11-9-994 0 0,-3-3-1 0 0,-97 72 0 0 0,132-112-87 0 0,-29 20-3028 0 0,56-40 3428 0 0,0 0 1 0 0,-1-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,-1-1 0 0 0,0 1-1 0 0,1-1 1 0 0,-12 1 0 0 0,14-3 293 0 0,1 1 0 0 0,-1-1-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1-1-1 0 0,-1 0 1 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0-1-1 0 0,-2-3 1 0 0,-32-53-3913 0 0,20 31 3007 0 0,3 2 400 0 0,0-4 244 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5210.65">9642 94 376 0 0,'-8'-16'2460'0'0,"8"15"-2229"0"0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-2-1 0 0 0,1 0 386 0 0,0 1-1 0 0,-1-1 0 0 0,1 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 1 0 0 0,1-1 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,-2 2 0 0 0,1 0-180 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,-2 5 0 0 0,-3 9-762 0 0,1 1-1 0 0,-7 34 1 0 0,8-31 1808 0 0,-10 52-1002 0 0,2 1 0 0 0,4 0 0 0 0,3 0-1 0 0,3 1 1 0 0,4 0 0 0 0,20 139 0 0 0,-14-171-384 0 0,-4-11-34 0 0,2-1 1 0 0,1 0 0 0 0,1 0-1 0 0,2 0 1 0 0,16 34-1 0 0,-20-54-62 0 0,0-1 1 0 0,1 1-1 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,1-1 0 0 0,-1 0 1 0 0,1-1-1 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,2 0 0 0 0,-1 0 0 0 0,0-1 1 0 0,1-1-1 0 0,0 0 0 0 0,14 3 0 0 0,-7-1 0 0 0,0-2 0 0 0,1 0 0 0 0,-1-1 0 0 0,0-1 0 0 0,1 0 0 0 0,0-2 0 0 0,-1 0 0 0 0,1-1 0 0 0,35-7 0 0 0,-29 2 0 0 0,1-1 0 0 0,-1-2 0 0 0,-1 0 0 0 0,0-1 0 0 0,0-2 0 0 0,34-22 0 0 0,-26 12 0 0 0,-1-1 0 0 0,-1-2 0 0 0,-2-1 0 0 0,0-1 0 0 0,-2-2 0 0 0,-1 0 0 0 0,-1-2 0 0 0,-1 0 0 0 0,30-59 0 0 0,-26 30 0 0 0,-3-1 0 0 0,-3-1 0 0 0,21-99 0 0 0,-32 110 0 0 0,4-92 0 0 0,-6 43 0 0 0,-6 81 0 0 0,-1 1 0 0 0,-1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,-2 0 0 0 0,-5-25 0 0 0,8 43 9 0 0,-1-3-134 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,-1 1 0 0 0,-2-6 0 0 0,2 8-122 0 0,1-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,-2 2 0 0 0,-4 0-767 0 0,1 2 0 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1 0 0 0 0,0 0 0 0 0,-6 12 0 0 0,0 2-867 0 0,1 1 1 0 0,1 0-1 0 0,-10 36 1 0 0,16-8-106 0 0,2-29 1253 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5564.63">11216 201 32 0 0,'0'0'24220'0'0,"-6"13"-21739"0"0,-2 9-509 0 0,6-19-1819 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-2 4-1 0 0,0 9 171 0 0,-1 0 0 0 0,-1 0-1 0 0,-1-1 1 0 0,-1 0 0 0 0,0 0-1 0 0,-13 24 1 0 0,1 2 9 0 0,-80 169-228 0 0,53-120-109 0 0,-48 141 1 0 0,18-27-1068 0 0,71-192 277 0 0,0-1 0 0 0,-1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 1 0 0,-9 11-1 0 0,16-37-9969 0 0,9-60 5986 0 0,7 3 1838 0 0,4 1 1 0 0,51-119 0 0 0,-48 135 2299 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5831.9">11210 163 280 0 0,'10'-19'448'0'0,"13"-8"7803"0"0,-22 26-7884 0 0,0 0 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 0 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 1 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 1-1 0 0,0 1 0 0 0,18 27 2955 0 0,27 57 0 0 0,28 103-1592 0 0,-47-114-1743 0 0,0 9 13 0 0,-16-47 0 0 0,22 52 0 0 0,46 111 0 0 0,-59-147 0 0 0,27 60 0 0 0,-28-72 0 0 0,-2 0 0 0 0,22 82 0 0 0,-38-120-65 0 0,0-1 1 0 0,-1 0-1 0 0,0 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,0 1 1 0 0,-1-1-1 0 0,-1 5 0 0 0,1-7-136 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,-1-1 1 0 0,0 0-1 0 0,-8-3-1158 0 0,-3 1-287 0 0,0-1 1 0 0,0-1-1 0 0,1 0 0 0 0,0-1 1 0 0,0 0-1 0 0,1-1 1 0 0,-13-10-1 0 0,-14-16-2587 0 0,-57-67 1 0 0,69 70 3366 0 0,0 4 242 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6032.72">11082 728 152 0 0,'-25'-15'2758'0'0,"24"15"-2609"0"0,1 0 1 0 0,0-1-1 0 0,-1 1 0 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,1 0 1 0 0,0 0-1 0 0,-1 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,1 1 0 0 0,0-1 1 0 0,-1 1-1 0 0,0 1 1612 0 0,30-1 11189 0 0,49-5-9246 0 0,18 0-2843 0 0,-70 4-1251 0 0,-1 2 0 0 0,0 0 0 0 0,0 2 0 0 0,0 0 0 0 0,24 9-1 0 0,6 8-4203 0 0,-2 9-3303 0 0,-51-29 7482 0 0,1 1 0 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,3-1 0 0 0,1-1-55 0 0,0 0 1 0 0,-1 0-1 0 0,0-1 1 0 0,1 0-1 0 0,-1 0 1 0 0,-1-1-1 0 0,10-9 1 0 0,-1-4-88 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6313.92">12019 258 112 0 0,'10'-23'3292'0'0,"-10"21"-2956"0"0,0 1-1 0 0,0-1 1 0 0,1 0-1 0 0,-1 1 1 0 0,0 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 1 1 0 0,0-1 0 0 0,1 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,2 0 3550 0 0,2 7 857 0 0,-5-6-4516 0 0,0 1 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1-1 0 0,0-1 1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0 0 0 0 0,7 95 5008 0 0,-29 241-4092 0 0,6-158-1145 0 0,12-91 3 0 0,8 124 0 0 0,4-141 0 0 0,2 74-37 0 0,-6-121-252 0 0,-1-4-4577 0 0,-10-54-1950 0 0,-3-49 353 0 0,0 14 2853 0 0,-9-118-2759 0 0,7-11 2642 0 0,12 148 3213 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6683.33">12044 370 328 0 0,'1'-6'498'0'0,"0"0"1"0"0,0 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,2 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,1 0-1 0 0,0 1 0 0 0,0-1 1 0 0,1 1-1 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,1 1 1 0 0,9-8-1 0 0,-9 8 80 0 0,-1 1 1 0 0,0 0 0 0 0,1 0-1 0 0,0 0 1 0 0,-1 1 0 0 0,1-1-1 0 0,0 1 1 0 0,0 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 1-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 1 1 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 1-1 0 0,1 0 1 0 0,6 2-1 0 0,13 6 834 0 0,-18-7-1043 0 0,1 0 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 2 0 0 0,0-1 0 0 0,-1 1 0 0 0,8 6 0 0 0,9 11 596 0 0,12 13 679 0 0,46 55 1 0 0,-73-78-1510 0 0,1-1 1 0 0,-1 2-1 0 0,-1-1 0 0 0,0 1 1 0 0,-1 0-1 0 0,0 1 0 0 0,-1-1 1 0 0,-1 1-1 0 0,5 23 0 0 0,-8-23-130 0 0,0 1 0 0 0,-1-1-1 0 0,0 0 1 0 0,-1 0 0 0 0,-1 1-1 0 0,0-1 1 0 0,-1 0 0 0 0,0 0-1 0 0,-2-1 1 0 0,1 1-1 0 0,-2-1 1 0 0,1 0 0 0 0,-2 0-1 0 0,-15 23 1 0 0,11-21-46 0 0,0 0-1 0 0,-1-1 1 0 0,-1 0 0 0 0,0-1-1 0 0,-1-1 1 0 0,0 0 0 0 0,-1 0 0 0 0,0-2-1 0 0,-1 0 1 0 0,0-1 0 0 0,-18 8-1 0 0,21-12-32 0 0,0-1 0 0 0,0 0-1 0 0,-1 0 1 0 0,1-2 0 0 0,-1 0-1 0 0,0 0 1 0 0,0-1 0 0 0,1-1 0 0 0,-1 0-1 0 0,-22-3 1 0 0,6 0-11 0 0,23 2 75 0 0,0 1 1 0 0,0-1-1 0 0,-1 0 0 0 0,1-1 1 0 0,0 1-1 0 0,-9-5 1 0 0,4 4 227 0 0,15 10 338 0 0,18 12 29 0 0,-8-12-574 0 0,0 1 0 0 0,0 1 0 0 0,-2-1 0 0 0,1 2 0 0 0,10 12 0 0 0,15 13-10 0 0,97 97-1 0 0,-51-46 0 0 0,-55-58-162 0 0,0-3 1 0 0,2 0-1 0 0,1-2 1 0 0,1-1-1 0 0,1-1 0 0 0,1-2 1 0 0,42 17-1 0 0,-42-29-2293 0 0,-34-8 2219 0 0,1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1-1 0 0 0,7-160-14124 0 0,-7 134 13080 0 0,1 0 0 0 0,1 0 0 0 0,9-37 0 0 0,0 22 545 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6932.97">13064 195 332 0 0,'-1'2'568'0'0,"1"1"0"0"0,-1 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,-2 2-1 0 0,4-3-120 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1-1-1 0 0,0 1 1 0 0,-1 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,0-1 1 0 0,-1 1 0 0 0,1-1-1 0 0,0 1 1 0 0,0-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 1 0 0,0 0 0 0 0,1 0-1 0 0,119-40 10206 0 0,5-1-8430 0 0,-111 37-2222 0 0,0 1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 1 0 0 0,0 0 0 0 0,0 2 0 0 0,0-1 0 0 0,0 2 0 0 0,0 0 0 0 0,24 9 0 0 0,34 19-3884 0 0,-72-31 3711 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,-10 16-13522 0 0,9-14 13517 0 0,-8 0-1589 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,-13 1 0 0 0,-26 3-1870 0 0,37 1 3008 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7148.94">13293 308 172 0 0,'-33'44'2650'0'0,"24"-32"-885"0"0,0-1 0 0 0,0 2 0 0 0,1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-6 19 0 0 0,9-19-208 0 0,1-1 0 0 0,0 1 0 0 0,-1 18 0 0 0,4 77 2825 0 0,1-53-3023 0 0,15 173 1990 0 0,-6-118-2490 0 0,8 34-182 0 0,-2-20-1556 0 0,-12-41-2706 0 0,-4-81 2393 0 0,-18-41-11733 0 0,3-66 4908 0 0,9-53 3139 0 0,6 121 4375 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="17987.54">9859 1782 44 0 0,'-15'-21'2070'0'0,"-3"-3"1715"0"0,11 7-900 0 0,5 12-1387 0 0,0 0 1 0 0,0-1-1 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 1 0 0,0-12-1 0 0,5 14-1174 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,1 2 0 0 0,-1-1 0 0 0,1 0 1 0 0,6-2-1 0 0,26-9 114 0 0,1 2 0 0 0,0 1 0 0 0,43-6-1 0 0,-65 14-349 0 0,0 1 0 0 0,1 1-1 0 0,-1 0 1 0 0,1 1 0 0 0,-1 1-1 0 0,1 1 1 0 0,-1 0 0 0 0,0 1-1 0 0,0 1 1 0 0,20 6 0 0 0,57 35 264 0 0,-84-39-286 0 0,-1-1 0 0 0,1 1-1 0 0,-1 1 1 0 0,0-1 0 0 0,-1 1 0 0 0,1 1 0 0 0,11 15-1 0 0,-17-19 3 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1-1 0 0,0 1 1 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-3 7-1 0 0,-3 3 125 0 0,-1 1-1 0 0,0-1 1 0 0,-1 0-1 0 0,-14 18 1 0 0,-3 5-75 0 0,4-8-11 0 0,-1-1 0 0 0,-46 45 0 0 0,18-20-50 0 0,11-14-39 0 0,-2-2-1 0 0,-2-1 1 0 0,-1-3-1 0 0,-83 49 1 0 0,106-72-339 0 0,0-1 0 0 0,-1 0 1 0 0,0-2-1 0 0,-1-1 0 0 0,1 0 0 0 0,-30 3 1 0 0,45-9-235 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,0 0 0 0 0,-13-2 0 0 0,19 1 272 0 0,0 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-2-4 0 0 0,-2-28-1265 0 0,1 0 1 0 0,2 0-1 0 0,2 0 0 0 0,7-58 1 0 0,-3 39 683 0 0,34-249 1982 0 0,-28 233 8427 0 0,-9 72-9317 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,1 1 1 0 0,-2 4 0 0 0,2-3 140 0 0,4 51 959 0 0,-2 0 0 0 0,-2 1 0 0 0,-10 84 0 0 0,2-49-399 0 0,-31 491 1882 0 0,33-507-2771 0 0,3-18-450 0 0,-3-1 0 0 0,-17 79 0 0 0,15-113-2293 0 0,2-36-6272 0 0,8-16 6988 0 0,1 0 1 0 0,1 1-1 0 0,1 0 1 0 0,16-42-1 0 0,-9 24 538 0 0,-2 12 542 0 0,2 1-1 0 0,1 1 1 0 0,29-51-1 0 0,-17 39 387 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="18356.22">11076 1901 76 0 0,'9'-13'3436'0'0,"-16"-11"23188"0"0,0 24-23148 0 0,0 1-3499 0 0,-1 4-3462 0 0,-36 15 5096 0 0,-8 5-1106 0 0,6 5-347 0 0,20-13-89 0 0,-36 29 0 0 0,13-5 7 0 0,23-20-47 0 0,2 0 0 0 0,0 1 0 0 0,1 2 1 0 0,1 0-1 0 0,-25 37 0 0 0,43-55-29 0 0,-30 45 0 0 0,3 2 0 0 0,1 2 0 0 0,4 0 0 0 0,-22 62 0 0 0,39-86 0 0 0,0 0 0 0 0,2 0 0 0 0,1 1 0 0 0,2 0 0 0 0,1 0 0 0 0,1 42 0 0 0,2-64 0 0 0,1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 0 0 0 0,0-1 0 0 0,1 0 0 0 0,13 7 0 0 0,1-4 26 0 0,0 0 0 0 0,1-1 1 0 0,-1-1-1 0 0,1-2 0 0 0,0 0 0 0 0,1-1 0 0 0,34-2 1 0 0,-26-1-585 0 0,-1-3 0 0 0,1-1 0 0 0,0-1 0 0 0,-1-1 0 0 0,33-12 0 0 0,-5-3-3224 0 0,31-20-6292 0 0,-75 32 8201 0 0,-1 0-1 0 0,0-1 0 0 0,0 0 0 0 0,-1-2 1 0 0,0 1-1 0 0,-1-2 0 0 0,13-14 0 0 0,-13 9 1171 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="19806.51">12210 1619 512 0 0,'-13'0'16964'0'0,"29"4"-12821"0"0,75 16-3567 0 0,-40-15-172 0 0,-1-3 1 0 0,62-5 0 0 0,-12 0-34 0 0,-93 3-355 0 0,1-1-1 0 0,-1 2 0 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1 1 1 0 0,9 7-1 0 0,-13-9-10 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0-1 0 0,-1-1 1 0 0,1 0 0 0 0,-2 4 0 0 0,-6 8 10 0 0,0 0-1 0 0,0-1 1 0 0,-15 17 0 0 0,21-27-11 0 0,-11 12-3 0 0,0 0 1 0 0,-1-2-1 0 0,0 1 1 0 0,-1-2 0 0 0,-1 0-1 0 0,0-1 1 0 0,0-1-1 0 0,-1-1 1 0 0,0 0 0 0 0,-32 10-1 0 0,16-10-5 0 0,0 0-1 0 0,0-2 0 0 0,-1-2 0 0 0,1-1 1 0 0,-49-1-1 0 0,73-5 40 0 0,21-2 37 0 0,28-3 24 0 0,215-5 350 0 0,-70 24-894 0 0,-171-8-1928 0 0,-18 4 329 0 0,-24 10-1288 0 0,24-15 2544 0 0,-23 11-2147 0 0,0-1 0 0 0,-59 18-1 0 0,6-2-336 0 0,-52 15-73 0 0,102-32 2915 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="19983.32">12012 2372 252 0 0,'0'21'1169'0'0,"-1"-19"-885"0"0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,2 2 0 0 0,6 12 1451 0 0,0 1 1 0 0,-1 1-1 0 0,-1 0 0 0 0,-1 0 0 0 0,5 22 1 0 0,10 26-96 0 0,-16-48-1341 0 0,-1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,-2 1-1 0 0,0 29 1 0 0,2 19 93 0 0,2 23-38 0 0,-2-28-1756 0 0,1-19-2752 0 0,-22-63 86 0 0,0-81-1674 0 0,15 78 4964 0 0,0 0 0 0 0,2-1-1 0 0,1 1 1 0 0,5-39 0 0 0,9-33-683 0 0,-3 45 930 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="20310.93">12274 2209 128 0 0,'4'-5'477'0'0,"1"1"1"0"0,0 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 1-1 0 0,1 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 1 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 1 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,1 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,9 3 0 0 0,81 13 6403 0 0,18 5-2217 0 0,-86-17-3424 0 0,1 0 0 0 0,0-2 0 0 0,1-1 0 0 0,46-4 0 0 0,-21 1 388 0 0,-30 2-1185 0 0,-16 0-313 0 0,0-1 0 0 0,0 0 1 0 0,0-1-1 0 0,-1 0 0 0 0,19-4 0 0 0,-26 4-127 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,-1 3 0 0 0,-2 55 79 0 0,-16 97-1 0 0,2-40-64 0 0,3-30-37 0 0,8-50-72 0 0,0 1-1 0 0,1 38 0 0 0,-8 36-1652 0 0,13-111 1588 0 0,0-1 1 0 0,0 1-1 0 0,1 0 1 0 0,-1-1-1 0 0,-1 1 0 0 0,1-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 0 0 0,1-1 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,1-1 1 0 0,0 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 0 0 0,0 0 1 0 0,-24-4-5405 0 0,-31-28-2792 0 0,46 26 7461 0 0,0-2-205 0 0,-1 0 1 0 0,1-1-1 0 0,1 0 0 0 0,-11-13 0 0 0,-4-3-360 0 0,-34-31-967 0 0,34 37 1947 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="20533.89">12235 2447 280 0 0,'-67'3'17185'0'0,"124"12"-14262"0"0,55-3 1011 0 0,200-4-1 0 0,-230-8-3563 0 0,-55-2 492 0 0,-8-2-3910 0 0,-19 4 2966 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-27-2-4069 0 0,-26 2-438 0 0,-59 0-2144 0 0,86 1 5635 0 0,-1 2 0 0 0,1 0 0 0 0,1 1 0 0 0,-36 11 0 0 0,35-3 564 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="20720.95">12210 2629 244 0 0,'-1'0'344'0'0,"0"1"1"0"0,-1-1-1 0 0,1 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 1 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 3-1 0 0,0-3 7 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 0 0 0,2-1 1 0 0,16 7 2096 0 0,-1-2 0 0 0,28 5 0 0 0,-30-7-2453 0 0,331 41 6710 0 0,-295-39-6246 0 0,-45-4-427 0 0,30 3-200 0 0,0-1 1 0 0,0-2-1 0 0,0-2 0 0 0,52-7 0 0 0,-87 8 32 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,-1-1 1 0 0,1 0 0 0 0,0 1-1 0 0,0-1 1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,0 0 0 0 0,0-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,1-3 0 0 0,-1 1-288 0 0,-1 0 1 0 0,1 0-1 0 0,-1 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,-1-4-1 0 0,-3-5-979 0 0,0-1 0 0 0,-1 1 0 0 0,-1-1 0 0 0,0 2 0 0 0,-11-16 0 0 0,-62-76-5563 0 0,-46-44 1730 0 0,102 123 4725 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="20891.65">12592 2077 492 0 0,'3'4'402'0'0,"0"-1"-1"0"0,-1 1 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 6 0 0 0,2 56 3457 0 0,-3-64-3759 0 0,-3 171 6901 0 0,5 160-2552 0 0,3-213-3999 0 0,-4-56-821 0 0,19 123-1 0 0,-16-162-836 0 0,-2 0 0 0 0,-1 42 1 0 0,-1-42-2008 0 0,-26-36-1235 0 0,21 6 3993 0 0,1 0 1 0 0,-1 1 0 0 0,1-1-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,-3-7 0 0 0,-14-20-956 0 0,6 11 649 0 0,1 0-1 0 0,0-1 1 0 0,-14-38 0 0 0,12 26 219 0 0,-5-14-70 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="21083.38">11898 1744 76 0 0,'-31'-24'3869'0'0,"30"23"-2980"0"0,-11 21 5217 0 0,32 15-4938 0 0,3 3-1263 0 0,-20-34-147 0 0,0-1 1 0 0,1 0-1 0 0,-1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 9 0 0 0,-3-3-582 0 0,0 0 0 0 0,0-1 0 0 0,-1 1-1 0 0,0-1 1 0 0,-1 1 0 0 0,0-1 0 0 0,-6 10-1 0 0,4-7 320 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="21629.62">11796 2152 136 0 0,'-15'11'866'0'0,"14"-9"-687"0"0,0-1 1 0 0,-1 0 0 0 0,1 1-1 0 0,0-1 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,0 0 0 0 0,1-1-1 0 0,-3 1 1 0 0,3 0-12 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1 1 0 0 0,-1 47 1141 0 0,1-37-1168 0 0,0 1-45 0 0,-1-10-90 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,-1-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,-3 5-1 0 0,1 2 26 0 0,0 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,1 0 1 0 0,1 1-1 0 0,0-1 0 0 0,0 0 0 0 0,1 1 1 0 0,1-1-1 0 0,0 0 0 0 0,0 0 0 0 0,1 0 1 0 0,0 0-1 0 0,1-1 0 0 0,1 1 0 0 0,-1-1 1 0 0,2 0-1 0 0,-1 0 0 0 0,1-1 0 0 0,1 1 1 0 0,0-1-1 0 0,0-1 0 0 0,15 14 0 0 0,32 40 1144 0 0,-53-61-1086 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 0 0 0,0 0 0 0 0,-2 2 0 0 0,-17 43 880 0 0,7-21-399 0 0,3-5-209 0 0,-1 0 0 0 0,-21 33 1 0 0,10-20-159 0 0,6-7-195 0 0,-1-2 0 0 0,-1 0 0 0 0,-2-1 0 0 0,0-1 1 0 0,-1-1-1 0 0,-2 0 0 0 0,0-2 0 0 0,-1 0 0 0 0,-37 23 1 0 0,55-40-96 0 0,0 0 1 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0-1 0 0,-1-1 1 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,-5-2-1 0 0,9 1 41 0 0,0 0-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 0 1 0 0,1-3-1 0 0,0-6 97 0 0,0 1 0 0 0,1-1-1 0 0,0 1 1 0 0,1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,0 0-1 0 0,1 0 1 0 0,0 1 0 0 0,0 0 0 0 0,1 0 0 0 0,0 0-1 0 0,0 1 1 0 0,1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,0 1-1 0 0,0 0 1 0 0,10-6 0 0 0,-10 10 212 0 0,-1 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,1 2 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,-1 1 1 0 0,1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0 0-1 0 0,8 2 1 0 0,6 1 555 0 0,0 2-1 0 0,-1 0 0 0 0,33 14 1 0 0,103 47 2943 0 0,158 91 897 0 0,-183-93-3856 0 0,264 90 0 0 0,-113-73-684 0 0,-266-78-112 0 0,194 34-687 0 0,-163-32-289 0 0,-39-6 166 0 0,0 0-1 0 0,1 0 0 0 0,-1-1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-2 0 0 0,0 1 1 0 0,0-1-1 0 0,-1 0 0 0 0,1-1 0 0 0,-1 0 1 0 0,15-10-1 0 0,-10 3-1088 0 0,1-1 1 0 0,-2-1-1 0 0,0-1 0 0 0,0 0 1 0 0,10-16-1 0 0,44-82-3843 0 0,-26 40 3474 0 0,-16 31 1682 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="22622.96">14179 1563 56 0 0,'1'0'173'0'0,"0"0"0"0"0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1-1 0 0,-1 0 1 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 1 0 0 0,1 35 5380 0 0,-4-20-2489 0 0,-1-1 0 0 0,-10 28 0 0 0,4-19-1178 0 0,-1-1 1 0 0,-14 25 0 0 0,-64 87 1255 0 0,23-36-2456 0 0,-52 71-442 0 0,43-66-399 0 0,30-47-852 0 0,-2-3 1 0 0,-76 71-1 0 0,99-104-211 0 0,-1-2 0 0 0,-28 18 0 0 0,-20 5-4583 0 0,72-43 5591 0 0,-1 0-1 0 0,1 1 1 0 0,0-1 0 0 0,-1 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,0-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,-1-1-1 0 0,0 0 1 0 0,0-23-3301 0 0,14-24 1382 0 0,-8 37 1742 0 0,1 0 0 0 0,0-1 0 0 0,1 2 1 0 0,0-1-1 0 0,1 1 0 0 0,0 0 0 0 0,17-16 0 0 0,6-4-91 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="22803.66">13809 2228 156 0 0,'20'-9'278'0'0,"-11"5"118"0"0,1 0-1 0 0,-1 1 1 0 0,1 0 0 0 0,17-3 0 0 0,-24 6-218 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,4 3 0 0 0,1 2 481 0 0,-1 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 1 0 0,-1 1-1 0 0,0 0 0 0 0,-1 1 0 0 0,0-1 1 0 0,5 17-1 0 0,1 5 790 0 0,-1 1 0 0 0,-2-1 0 0 0,-1 1 0 0 0,3 63 0 0 0,-14 130 1603 0 0,-51 202-1304 0 0,49-396-1858 0 0,-1 0 0 0 0,-13 31 0 0 0,6-19-456 0 0,13-37 337 0 0,-1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0-1-1 0 0,-1 1 1 0 0,-5 5 0 0 0,-10 0-1847 0 0,19-10 1951 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,0-1-1 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 1 0 0,0-1-1 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,-5-21-1117 0 0,2-1 1 0 0,0 1-1 0 0,2 0 0 0 0,0-1 0 0 0,2 0 1 0 0,0 1-1 0 0,6-29 0 0 0,44-160-2048 0 0,-34 153 2452 0 0,35-115-560 0 0,-21 85 934 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="22964.52">14772 1581 92 0 0,'9'-3'230'0'0,"-1"0"374"0"0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,11 0-1 0 0,-16 2-310 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 0 0 0,1 4 1 0 0,41 47 6602 0 0,9 14-3370 0 0,-50-62-3445 0 0,0 0 0 0 0,0 1 0 0 0,0-1-1 0 0,-1 1 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-2 0 0 0 0,1 6 0 0 0,1 6-356 0 0,-3 10-1056 0 0,-1-21 776 0 0,0-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-11 3 0 0 0,-12 5-1906 0 0,-1-2 1 0 0,-55 11 0 0 0,47-12 1213 0 0,13-3 573 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="23199.12">14478 2021 320 0 0,'-7'22'2066'0'0,"-3"9"4216"0"0,10-30-6110 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,2 0 0 0 0,51 3 5777 0 0,8 0-3136 0 0,201-15 2573 0 0,-93 0-3929 0 0,-101 6-1247 0 0,153-20-41 0 0,-164 13-2466 0 0,-98 7-3203 0 0,6 7 1564 0 0,-1 2 0 0 0,-38 7 0 0 0,-73 23-3003 0 0,77-17 4732 0 0,-56 21-420 0 0,87-25 2090 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="23564.28">14440 2290 292 0 0,'0'1'162'0'0,"-1"-1"-1"0"0,0 1 1 0 0,1 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,-1 0-1 0 0,1-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,1-1 1 0 0,-1 1-1 0 0,1 1 1 0 0,1 0 379 0 0,1 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,5 1-1 0 0,4 2 734 0 0,0 0-1 0 0,0-1 1 0 0,1-1 0 0 0,19 5-1 0 0,26-3 730 0 0,0-2-1 0 0,80-7 1 0 0,-55-4-1150 0 0,0-3 1 0 0,127-36 0 0 0,-193 43-898 0 0,-11 3-67 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0-1-1 0 0,0 0 1 0 0,7-4-1 0 0,-11 5-266 0 0,-2 0-977 0 0,0 0 1231 0 0,0 0 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 1 0 0,-1-1-1 0 0,-26 2-1442 0 0,-43 12-3297 0 0,-79 26 0 0 0,-66 34 1130 0 0,208-71 3683 0 0,-16 6 153 0 0,0 1 1 0 0,-29 19 0 0 0,43-24 303 0 0,0 2 0 0 0,0-1 1 0 0,1 1-1 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 1 0 0,-9 13-1 0 0,17-20-196 0 0,0 1 0 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 1 0 0 0,2 1 133 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,6 3 0 0 0,7 2 644 0 0,0-1-1 0 0,1-1 1 0 0,0-1-1 0 0,26 4 1 0 0,13-5 644 0 0,-1-1 0 0 0,63-7-1 0 0,11-1-261 0 0,-8 11-1736 0 0,-109-4-3563 0 0,-82-3-11364 0 0,43 0 13398 0 0,0 1 1 0 0,0 1-1 0 0,-38 6 1 0 0,42-3 1272 0 0,4 0 131 0 0,0 1 1 0 0,0 0-1 0 0,-20 8 0 0 0,0 6-19 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="23719.83">14478 3018 628 0 0,'0'19'1890'0'0,"1"1"0"0"0,1-1 1 0 0,7 36-1 0 0,5 9 1181 0 0,-11-43-1437 0 0,2-1 0 0 0,0 0 0 0 0,1 0 0 0 0,13 30 0 0 0,-18-48-1773 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 1 0 0,4 2-1 0 0,-5-3 5 0 0,1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,0 0 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1-1 0 0,2-1 1 0 0,4-6-697 0 0,0-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,-1-1-1 0 0,0 1 1 0 0,6-19 0 0 0,8-14-931 0 0,-6 15 73 0 0,14-49 0 0 0,-17 46 333 0 0,21-46-1 0 0,-18 52 922 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="24041.48">14803 2911 160 0 0,'5'-3'768'0'0,"0"-1"0"0"0,0 0 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 1 0 0,0 0-1 0 0,-1-1 0 0 0,1 2 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,9 0 0 0 0,15-1 4255 0 0,47 4 1 0 0,-23 0-3514 0 0,-45-2-1174 0 0,1 0-1 0 0,-1 1 0 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 1 0 0,1 2-1 0 0,-1-1 1 0 0,0 2-1 0 0,-1-1 1 0 0,1 1-1 0 0,13 8 1 0 0,-18-9-273 0 0,0 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,0 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,-1-1 0 0 0,0 0 0 0 0,0 1-1 0 0,0 0 1 0 0,-1-1 0 0 0,0 1-1 0 0,1-1 1 0 0,-2 1 0 0 0,1-1 0 0 0,0 1-1 0 0,-2 6 1 0 0,-2 8-58 0 0,-1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,-1 0 0 0 0,-1 0-1 0 0,-1-1 1 0 0,0 0 0 0 0,-1 0 0 0 0,-1-1 0 0 0,0-1 0 0 0,-2 1 0 0 0,1-2-1 0 0,-25 22 1 0 0,24-24-21 0 0,-1 0-1 0 0,0 0 1 0 0,-1-1 0 0 0,0-1-1 0 0,-1-1 1 0 0,0 0-1 0 0,-1-1 1 0 0,0 0-1 0 0,0-2 1 0 0,0 0 0 0 0,-1-1-1 0 0,1-1 1 0 0,-1 0-1 0 0,-1-1 1 0 0,1-1-1 0 0,0-1 1 0 0,0-1 0 0 0,-34-3-1 0 0,21 0 230 0 0,20 2-53 0 0,0 0 0 0 0,1 0 0 0 0,-1-1-1 0 0,-11-4 1 0 0,-41-13 3347 0 0,128 16-3507 0 0,-1-4 1 0 0,67-15-1 0 0,14-2 41 0 0,50-12 9 0 0,-152 27-47 0 0,184-29-866 0 0,-211 35 3256 0 0,3-2-4200 0 0,17-2-10195 0 0,-53 22 2476 0 0,13-13 9102 0 0,1 0 0 0 0,-1-1 0 0 0,-1 1 0 0 0,1-1 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-8-3 0 0 0,-60-21-2525 0 0,53 16 2432 0 0,-25-9-234 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink17.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-04-17T13:22:39.401"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">2695 224 136 0 0,'-14'-9'5158'0'0,"-5"-3"3276"0"0,10 10-7485 0 0,1-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 0 0 0 0,-9-8 0 0 0,-17-7 619 0 0,-3 0-362 0 0,-1 2 0 0 0,-1 2 0 0 0,-1 2 0 0 0,-71-15 0 0 0,-43 11 444 0 0,-305 7 1 0 0,293 11-1446 0 0,135 1-190 0 0,0 1 0 0 0,-39 9-1 0 0,-27 3-11 0 0,66-12-7 0 0,0 2 0 0 0,0 1-1 0 0,0 1 1 0 0,0 1 0 0 0,-36 17 0 0 0,-42 17-40 0 0,101-39 41 0 0,-13 5-7 0 0,-1 1 1 0 0,1 1-1 0 0,-36 23 1 0 0,-74 48-43 0 0,76-43 33 0 0,37-27 12 0 0,2 0 0 0 0,-29 25 0 0 0,-53 50-37 0 0,92-80 40 0 0,1-1 0 0 0,0 0 1 0 0,0 0 0 0 0,0-1 0 0 0,0 0-1 0 0,-1 0 1 0 0,-10 6 0 0 0,-18 32-14 0 0,27-36 15 0 0,2-1 1 0 0,-1 1-1 0 0,1 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,1 0-1 0 0,1 1 1 0 0,-4 7-1 0 0,-21 34-2 0 0,10-22 1 0 0,0 1-1 0 0,-19 44 1 0 0,-9 15-3 0 0,25-39 6 0 0,18-39 0 0 0,-1 0 0 0 0,1 0 0 0 0,-2-1 0 0 0,-8 15 0 0 0,7-13 0 0 0,-1 1 0 0 0,2 0 0 0 0,0 1 0 0 0,-7 21 0 0 0,-6 12 0 0 0,8-21-8 0 0,2 1 0 0 0,-8 29 0 0 0,8-22-8 0 0,3-17 4 0 0,1 1 0 0 0,0 0 0 0 0,1 0 0 0 0,0 27 0 0 0,-2 24-16 0 0,3-52 26 0 0,1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,1 0 0 0 0,0 0-1 0 0,5 21 1 0 0,1 3-14 0 0,-6-28-2 0 0,1-1 0 0 0,0 0 0 0 0,1 1 1 0 0,8 18-1 0 0,15 25-27 0 0,35 62 41 0 0,-46-94-4 0 0,0 0-1 0 0,1-2 1 0 0,1 0-1 0 0,1 0 1 0 0,1-2-1 0 0,33 26 1 0 0,6-1 6 0 0,106 58 0 0 0,-109-71 12 0 0,86 35 1 0 0,-109-53-9 0 0,26 11 11 0 0,1-3 0 0 0,1-2 1 0 0,81 12-1 0 0,239 29 72 0 0,-375-58-85 0 0,189 14 26 0 0,-162-14-23 0 0,-1-2 1 0 0,0-1-1 0 0,0-1 0 0 0,34-9 0 0 0,30-5 10 0 0,13-3 6 0 0,-24-1 12 0 0,-47 13-17 0 0,0-2-1 0 0,-1-1 0 0 0,40-18 1 0 0,-31 8 2 0 0,-23 11-7 0 0,-1 0 0 0 0,0-1 0 0 0,32-24 0 0 0,-20 10 4 0 0,39-34 7 0 0,-38 26-4 0 0,88-96 47 0 0,-85 79-14 0 0,-2-2 1 0 0,49-95-1 0 0,-70 114-26 0 0,-1 0 1 0 0,-2-1-1 0 0,-1 0 0 0 0,-2-1 1 0 0,6-58-1 0 0,-9 29 2 0 0,-4 0 0 0 0,-2 0-1 0 0,-18-117 1 0 0,-26-59-52 0 0,39 218 35 0 0,0 1 1 0 0,-1 0-1 0 0,-2 1 1 0 0,0-1-1 0 0,-1 2 1 0 0,-1-1-1 0 0,-16-21 1 0 0,5 6 8 0 0,-8-9 11 0 0,-50-57 0 0 0,17 23-29 0 0,49 59 1 0 0,9 11 0 0 0,-1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1 0 0 0 0,-14-11 0 0 0,-42-34 0 0 0,46 36 0 0 0,-1 0 0 0 0,-1 2 0 0 0,-1 0 0 0 0,-22-11 0 0 0,-13-7 0 0 0,40 22 0 0 0,-1 1 0 0 0,0 0 0 0 0,-22-8 0 0 0,-49-20 0 0 0,-42-6 0 0 0,94 32 0 0 0,27 8 0 0 0,1 0 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,-8 2 0 0 0,10-2 0 0 0,1-3 0 0 0,0 3 0 0 0,-1 1 0 0 0,-54 2-1892 0 0,9 9-4718 0 0,46-9 5742 0 0,0 0 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 1 0 0 0,1 0 0 0 0,0-1 1 0 0,-3 8-1 0 0,-2 2-991 0 0,5-9 1180 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,-1 9 0 0 0,3-3-72 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="143.61">1655 315 232 0 0,'1'16'-73'0'0,"0"-15"493"0"0,-1 0-1 0 0,0 0 1 0 0,1-1 0 0 0,-1 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0-1 0 0 0,-1 1 0 0 0,1 0-1 0 0,-1 0 1 0 0,1-1 0 0 0,-1 1 0 0 0,0-1-1 0 0,0 2 1 0 0,-16 1 559 0 0,5-1-3616 0 0,-2-3 1230 0 0,-31-6-7087 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink18.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-04-17T13:22:50.981"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">2402 992 60 0 0,'0'0'389'0'0,"-6"10"3954"0"0,-5-25 1905 0 0,4-4-3517 0 0,5 14-2421 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 0 0 0,0 1 1 0 0,-1 0-1 0 0,1-1 0 0 0,-1 1 1 0 0,-5-5-1 0 0,-7-10 1040 0 0,-12-10 466 0 0,-20-8 123 0 0,37 28-1615 0 0,-1 0-1 0 0,0 1 1 0 0,-25-14-1 0 0,14 10 19 0 0,-26-9 421 0 0,-49-15 938 0 0,22 25-571 0 0,0 4-1 0 0,-120 3 1 0 0,160 4-746 0 0,-204-16 716 0 0,207 14-933 0 0,-53-9 1 0 0,53 5-78 0 0,-57-2 1 0 0,46 6-64 0 0,-58-11 0 0 0,55 6-3 0 0,-208-34 330 0 0,218 36-243 0 0,-69-1-1 0 0,64 3-30 0 0,33 1-64 0 0,-1 1 1 0 0,0 0-1 0 0,0 1 1 0 0,1 0 0 0 0,-1 1-1 0 0,0 0 1 0 0,-14 3 0 0 0,-40 12 3 0 0,49-13-22 0 0,-1 0-1 0 0,0 1 0 0 0,1 1 0 0 0,0 0 0 0 0,0 1 0 0 0,-19 11 0 0 0,9-2-13 0 0,14-9 9 0 0,0 0-1 0 0,1 0 0 0 0,-1 1 1 0 0,2 0-1 0 0,-1 0 0 0 0,1 1 1 0 0,-14 17-1 0 0,-22 27-25 0 0,44-51 33 0 0,-6 5-8 0 0,1 1 1 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,-1 9 1 0 0,-19 52-41 0 0,17-50 39 0 0,0-1 0 0 0,1 2 0 0 0,-5 30 0 0 0,-7 68-15 0 0,12-61 18 0 0,2 1 0 0 0,3 0 1 0 0,2 0-1 0 0,9 62 0 0 0,-2-61-12 0 0,3 0-1 0 0,32 101 0 0 0,-38-145 15 0 0,7 22-9 0 0,24 49-1 0 0,-34-82 13 0 0,15 31-6 0 0,1-2 0 0 0,2 0 0 0 0,38 49 0 0 0,-7-26 9 0 0,2-1-1 0 0,3-3 0 0 0,112 82 1 0 0,-116-102 0 0 0,1-2 1 0 0,1-3-1 0 0,66 23 1 0 0,-56-23 14 0 0,-18-8-7 0 0,1-2 0 0 0,1-2 0 0 0,0-2 0 0 0,1-2 0 0 0,0-3 0 0 0,97 5 1 0 0,-102-11-5 0 0,37-3 18 0 0,49-4 29 0 0,10-2-31 0 0,-120 5-16 0 0,335-54 72 0 0,-243 33-33 0 0,132-33 54 0 0,-135 28-70 0 0,-63 17-13 0 0,0-2 0 0 0,-1-1 0 0 0,45-22 0 0 0,-54 17 23 0 0,-1-1 0 0 0,-1-2 0 0 0,55-45 0 0 0,-75 52-20 0 0,-1 0 1 0 0,0-1-1 0 0,-1 0 1 0 0,-1-1-1 0 0,12-24 1 0 0,-22 39-17 0 0,11-24 42 0 0,-1 0 0 0 0,-1 0 0 0 0,-2-1 0 0 0,-1-1 0 0 0,5-33 0 0 0,-6 29-35 0 0,-3-1-1 0 0,0 0 1 0 0,-3 1 0 0 0,0-1-1 0 0,-2 0 1 0 0,-2 0-1 0 0,0 1 1 0 0,-3 0-1 0 0,0 0 1 0 0,-17-44-1 0 0,8 38-9 0 0,-1 1-1 0 0,-2 0 0 0 0,-1 2 0 0 0,-2 0 0 0 0,-1 1 0 0 0,-2 2 0 0 0,-1 0 0 0 0,-30-28 0 0 0,5 10 1 0 0,-1 3 0 0 0,-2 2 0 0 0,-2 2 0 0 0,-105-60 0 0 0,97 71 0 0 0,-2 3 0 0 0,-104-31 0 0 0,-147-15 0 0 0,134 44 0 0 0,131 28 103 0 0,-8-1-1952 0 0,27-5-4558 0 0,31 8 4398 0 0,-9 42-12713 0 0,6 19 8041 0 0,5-49 5915 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1632.26">2992 75 76 0 0,'0'-3'2043'0'0,"-3"-12"11987"0"0,1 13-15039 0 0,-55-20 8992 0 0,-3 13-3555 0 0,47 8-4094 0 0,-1 1 0 0 0,1 1-1 0 0,-1 0 1 0 0,1 1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 1 0 0 0,1 0 0 0 0,-1 1-1 0 0,1 0 1 0 0,-1 1 0 0 0,-11 8 0 0 0,-1 2-228 0 0,1 2 0 0 0,1 1-1 0 0,1 1 1 0 0,1 1 0 0 0,0 0 0 0 0,2 2 0 0 0,0 0-1 0 0,-26 45 1 0 0,14-13-125 0 0,3 1 0 0 0,2 2 0 0 0,-21 66 0 0 0,44-112 19 0 0,0 1 0 0 0,1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,2 15 0 0 0,2 10 0 0 0,11 42 0 0 0,-12-66 0 0 0,2 1 0 0 0,-1-1 0 0 0,2 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,1 1 0 0 0,0-2 0 0 0,0 1 0 0 0,17 15 0 0 0,-19-20 0 0 0,1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 0 0 0 0,1-1 0 0 0,0 1 0 0 0,-1-2 0 0 0,1 1 0 0 0,14 1 0 0 0,-12-2-289 0 0,0 0 1 0 0,0 0-1 0 0,0-2 1 0 0,0 1-1 0 0,0-1 1 0 0,0-1-1 0 0,0 0 1 0 0,0-1-1 0 0,-1 0 1 0 0,1 0-1 0 0,0-1 1 0 0,-1-1-1 0 0,1 0 1 0 0,9-5-1 0 0,54-39-5780 0 0,29-28-7162 0 0,-2 1 5007 0 0,-80 60 7597 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1965.9">3583 139 112 0 0,'0'0'96'0'0,"0"0"0"0"0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 1 0 0,-1 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 1 0 0 0,-17 18 9754 0 0,9-10-4423 0 0,4-4-4791 0 0,0-1 0 0 0,1 1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,1 0 1 0 0,-1 1-1 0 0,-2 7 0 0 0,-26 44 1155 0 0,18-34-945 0 0,-21 47 0 0 0,-9 27 87 0 0,-10 28-429 0 0,-3 6-504 0 0,19-49 0 0 0,23-47 0 0 0,-69 144 0 0 0,74-160-46 0 0,7-13-230 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,-8 6-1 0 0,11-11-439 0 0,1 0 597 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1-1-597 0 0,1 1 596 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,4-14-3183 0 0,7-11 734 0 0,30-65-4596 0 0,11-18 2898 0 0,34-78 328 0 0,-64 139 3278 0 0,0 3 137 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2188.67">3550 198 292 0 0,'1'-2'161'0'0,"1"1"0"0"0,-1 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 1 0 0 0,2 0 0 0 0,1 0 476 0 0,-1 1 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,2 4 0 0 0,7 7 1950 0 0,-1 0-1 0 0,-1 1 1 0 0,12 21 0 0 0,-6-6-581 0 0,-1 1 0 0 0,-2 0 1 0 0,12 40-1 0 0,23 104 1034 0 0,-18-60-2548 0 0,-16-40-957 0 0,-14-72 290 0 0,0 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,-1 6 0 0 0,-11 10-4011 0 0,10-19 3355 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0-1 0 0,-5-1 1 0 0,-42-5-6409 0 0,39 2 6282 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1 0 0 0 0,0-1 0 0 0,-17-11 0 0 0,21 13 675 0 0,-10-7-329 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2425.09">3447 720 140 0 0,'-13'-7'1913'0'0,"0"0"-1255"0"0,-9 0 26250 0 0,22 8-26829 0 0,0-1 1 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1-1 0 0,-1 0 1 0 0,1 1 0 0 0,0-1 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,1 0 0 0 0,26 1 459 0 0,-25-1-386 0 0,59-5-406 0 0,0-2 0 0 0,-1-3 0 0 0,76-22 1 0 0,-135 31 190 0 0,50-18-5122 0 0,-7-8-5939 0 0,-40 23 9285 0 0,1 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,9-4 0 0 0,19-10-1640 0 0,-25 11 2969 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2710.65">4151 315 24 0 0,'8'-24'5929'0'0,"-3"0"2610"0"0,-5 24-8024 0 0,0-1 1 0 0,1 0-1 0 0,-1 1 0 0 0,0-1 1 0 0,1 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,-1-1 0 0 0,1 1 1 0 0,0 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1-1-1 0 0,2 1 0 0 0,0 1-372 0 0,-1 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 1 0 0 0,0 1 0 0 0,2 39 604 0 0,-2-39-714 0 0,-4 45-33 0 0,-1 0 0 0 0,-3-1 0 0 0,-2 1 1 0 0,-17 51-1 0 0,4-16 0 0 0,-63 200-14 0 0,84-276-210 0 0,-1-1-1 0 0,0 0 1 0 0,-1 1 0 0 0,1-1-1 0 0,-6 6 1 0 0,9-11 91 0 0,-1 0-1 0 0,1 0 1 0 0,0-1-1 0 0,-1 1 0 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,0-1-1 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 1 0 0 0,-1-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1-1 1 0 0,0 1-1 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,0-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,-2-4-661 0 0,1 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,0-1-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 0 0 0 0,1-8-1 0 0,12-53-4072 0 0,-2 10 1937 0 0,-5 7 739 0 0,2-1 1 0 0,22-76-1 0 0,-19 89 1647 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3003.88">4114 240 488 0 0,'5'-28'1773'0'0,"0"-2"5195"0"0,29 51 5759 0 0,-24-14-11535 0 0,-1 0 0 0 0,0 1 0 0 0,0 0-1 0 0,0 1 1 0 0,11 15 0 0 0,-8-7-170 0 0,0 1-1 0 0,15 30 1 0 0,-2 10-779 0 0,21 70 1 0 0,-34-91-136 0 0,21 65-108 0 0,-7-20 0 0 0,61 133 0 0 0,-83-206 0 0 0,0-1 0 0 0,1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,8 9 0 0 0,-13-16 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1-2 0 0 0,16-27 0 0 0,-2 0 0 0 0,-1-1 0 0 0,-2-1 0 0 0,10-40 0 0 0,25-138 0 0 0,-34 148 0 0 0,35-221-174 0 0,-46 226-3748 0 0,-3 34-2722 0 0,20 62-11017 0 0,-16-30 16177 0 0,14 18-505 0 0,-2-12 1308 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3633.92">5841 54 544 0 0,'-1'-1'166'0'0,"0"1"0"0"0,0-1 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,-1-2-1 0 0,-2-20 10677 0 0,-7 7 2973 0 0,9 17-13646 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1 1 0 0 0,4 48-855 0 0,-4-45 1012 0 0,15 226-327 0 0,-10-112 0 0 0,4 84 0 0 0,-5-121 0 0 0,-4-29 0 0 0,4-1 0 0 0,11 59 0 0 0,13-4 0 0 0,-89-306-23532 0 0,21 90 15700 0 0,29 83 6957 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink19.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-04-17T13:23:14.934"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">456 166 120 0 0,'-4'-8'1142'0'0,"0"1"0"0"0,-1-1 1 0 0,0 1-1 0 0,0 0 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,-11-7-1 0 0,13 11-431 0 0,1-1-1 0 0,-2 1 1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0-1 0 0,1 1 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 1-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,-5 0 0 0 0,3 1-328 0 0,0 1 0 0 0,0 0 0 0 0,1-1 1 0 0,-1 2-1 0 0,1-1 0 0 0,0 1 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 1 0 0 0,-6 6 1 0 0,-7 10-151 0 0,1 1 1 0 0,1 1-1 0 0,1 1 1 0 0,-18 36 0 0 0,14-17-89 0 0,2 1 0 0 0,2 1 0 0 0,2 0 0 0 0,-11 66-1 0 0,13-61-103 0 0,3 1 0 0 0,2-1 0 0 0,3 2 0 0 0,1-1 0 0 0,5 62 0 0 0,0-103-66 0 0,0-1 1 0 0,0 1 0 0 0,1-1-1 0 0,0 1 1 0 0,0-1-1 0 0,1 0 1 0 0,9 15-1 0 0,-10-21-57 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,5-1 0 0 0,0 1-295 0 0,1-1 1 0 0,-1 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 0 0 0 0,15-4-1 0 0,-4-2-834 0 0,-1-1 0 0 0,0 0-1 0 0,0-2 1 0 0,-1 0-1 0 0,-1-2 1 0 0,1 1 0 0 0,-2-2-1 0 0,0 0 1 0 0,0-1-1 0 0,-1-1 1 0 0,-1 0 0 0 0,-1-1-1 0 0,0-1 1 0 0,-1 0-1 0 0,-1 0 1 0 0,0-2-1 0 0,-1 1 1 0 0,10-30 0 0 0,30-42-1522 0 0,-34 63 2148 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="253.5">825 161 440 0 0,'21'-16'22827'0'0,"-21"26"-20314"0"0,0-7-2229 0 0,-1 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-4 3-1 0 0,-8 20 484 0 0,-62 192 914 0 0,10-33-1501 0 0,53-149-613 0 0,-1 0 1 0 0,-1-1 0 0 0,-2-1 0 0 0,-22 34 0 0 0,-9-15-5130 0 0,46-53 5450 0 0,1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,-1 0 1 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1-17-2375 0 0,10-63-4286 0 0,22-40 2221 0 0,-11 49 2776 0 0,-9 36 663 0 0,27-62 0 0 0,-17 58 628 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="438.6">744 278 240 0 0,'11'-15'732'0'0,"2"0"1"0"0,0 1-1 0 0,0 1 0 0 0,1 0 0 0 0,27-18 1 0 0,-38 29-385 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 1 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 1 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1-1 0 0,0 1 1 0 0,0-1 0 0 0,-1 0-1 0 0,1 1 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,1 3 1 0 0,9 12 682 0 0,-2 0 1 0 0,0 1-1 0 0,-1 1 0 0 0,-1 0 1 0 0,-1 0-1 0 0,11 42 1 0 0,10 22 691 0 0,33 121 717 0 0,-29-85-1747 0 0,-16-72-606 0 0,-10-30-421 0 0,-1 0 0 0 0,0 0-1 0 0,-2 0 1 0 0,0 1 0 0 0,2 22 0 0 0,-6-41 179 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 0 0 0,1-1 1 0 0,0 0-1 0 0,-1 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 1 0 0,0 0-1 0 0,-1-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,1-1 0 0 0,-1 0 1 0 0,-22-13-3422 0 0,-56-65-5948 0 0,-32-45 2763 0 0,89 98 5958 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="644.15">798 635 400 0 0,'0'8'17905'0'0,"1"-7"-17478"0"0,14 7 7036 0 0,33 6-7830 0 0,-27-7 2402 0 0,-6-2-1714 0 0,0 0 0 0 0,1 0 0 0 0,-1-2-1 0 0,1 0 1 0 0,-1 0 0 0 0,17-1 0 0 0,-21-2-684 0 0,0 0 0 0 0,0-1-1 0 0,1 0 1 0 0,-1-1 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 0 0 0 0,1-1 0 0 0,11-6 0 0 0,-4-1-2021 0 0,0 0 1 0 0,-1-2 0 0 0,0-1-1 0 0,-1 0 1 0 0,0 0 0 0 0,-2-2-1 0 0,0 0 1 0 0,16-24-1 0 0,16-15-1357 0 0,-30 35 2931 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="866.44">1610 86 172 0 0,'0'0'5028'0'0,"5"28"11889"0"0,-27 55-10077 0 0,1 52-5508 0 0,18-108-854 0 0,-45 265 59 0 0,-3-101-3152 0 0,49-183 2020 0 0,-1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,-6 10 0 0 0,9-17 464 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 1 0 0,0 0-1 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 1 0 0,0-1-1 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 1 0 0,1 0-1 0 0,0-1 0 0 0,-4-4-512 0 0,1-1 1 0 0,1 0-1 0 0,-1 1 0 0 0,1-1 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0-12 0 0 0,1-64-2734 0 0,1 43 1881 0 0,2-28-765 0 0,2 1-1 0 0,25-117 1 0 0,-19 135 1651 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1097.74">1540 11 520 0 0,'0'0'167'0'0,"1"-1"0"0"0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,1 1 0 0 0,1 0 254 0 0,0 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,5 5-1 0 0,3 7 1292 0 0,0-1 0 0 0,12 26 0 0 0,-19-34-1350 0 0,11 25 1681 0 0,-1 0-1 0 0,-2 1 1 0 0,14 58-1 0 0,6 17 705 0 0,15 41 196 0 0,-28-84-1790 0 0,3-1 0 0 0,35 72 0 0 0,-52-126-1069 0 0,1-1 0 0 0,0 1 0 0 0,1-1-1 0 0,0 0 1 0 0,11 9 0 0 0,-13-11-31 0 0,-3-5-46 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1-1 1 0 0,0 1-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 0 0 0,0 0 1 0 0,1 0-1 0 0,-1-1 1 0 0,0 1-1 0 0,0 0 0 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 0 0 0,0 0 1 0 0,0-1-1 0 0,1 1 0 0 0,-1 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,9-21 93 0 0,-8 19-56 0 0,4-15-20 0 0,0 0 1 0 0,-1 0-1 0 0,2-28 0 0 0,-3 19-20 0 0,25-324-2158 0 0,-25 114-8040 0 0,-8 205 6924 0 0,-1 2-4862 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1481.5">2271 1 276 0 0,'6'30'14200'0'0,"12"-13"-5404"0"0,-12-14-7816 0 0,1-1 1 0 0,-1 1-1 0 0,1-1 0 0 0,0-1 0 0 0,0 0 0 0 0,8 1 0 0 0,26 6-280 0 0,-21-2-231 0 0,0 0-1 0 0,34 17 1 0 0,-47-19-451 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,6 9 0 0 0,-7-8-9 0 0,-1-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,-1-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,-1 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,0 0 0 0 0,-1 1-1 0 0,0 11 1 0 0,-1-3 5 0 0,-1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,-1 0 1 0 0,0-1-1 0 0,-1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,-14 19-1 0 0,-7 8 15 0 0,-69 78-1 0 0,84-106-28 0 0,-1-1 0 0 0,0 0 0 0 0,-1-1 0 0 0,-1 0 0 0 0,0-1 0 0 0,-32 16 0 0 0,43-23 0 0 0,71-25 0 0 0,-45 16 0 0 0,4-3-23 0 0,86-19 74 0 0,-99 25-90 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,1 1-1 0 0,-1 0 1 0 0,14 4 0 0 0,-13-3 324 0 0,1-1-3553 0 0,20 7-15597 0 0,-23 3 11653 0 0,-7 10 6819 0 0,2 1-1799 0 0,-1-12 1543 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink2.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-04-17T13:14:17.317"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1 328 0 0,'7'16'3826'0'0,"0"1"1"0"0,-1 0-1 0 0,-1 1 1 0 0,4 21-1 0 0,9 80 6008 0 0,5 26-6361 0 0,8-15-3473 0 0,23 207 0 0 0,-49-308-192 0 0,1 21 565 0 0,-5-47-620 0 0,-1-1-1 0 0,-1 1 0 0 0,1-1 1 0 0,0 0-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 0 1 0 0,-1 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 0 1 0 0,-3 2-1 0 0,3-3-168 0 0,0-1 0 0 0,0 1 0 0 0,0-1-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,-1-1 0 0 0,1 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,-1-2 0 0 0,-27-30-7188 0 0,23 22 6181 0 0,1-1 0 0 0,0 1 0 0 0,-4-19 0 0 0,1 6 246 0 0,-1 2 499 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink20.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-04-17T13:23:17.670"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">503 283 496 0 0,'0'-3'498'0'0,"0"0"0"0"0,-1 0 0 0 0,1 0-1 0 0,0 1 1 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-3-3 0 0 0,0 2 317 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-12-2-1 0 0,7 2 80 0 0,0 0 0 0 0,0 1-1 0 0,0 0 1 0 0,0 1 0 0 0,-13 2-1 0 0,16-2-699 0 0,0 1 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 1 1 0 0,-1 0 0 0 0,-7 6-1 0 0,-6 6 170 0 0,0 2 1 0 0,2 0-1 0 0,0 1 0 0 0,1 1 0 0 0,0 1 0 0 0,2 0 0 0 0,1 1 0 0 0,0 0 1 0 0,-16 36-1 0 0,12-16-70 0 0,1 1 1 0 0,2 1-1 0 0,2 1 0 0 0,-11 66 1 0 0,20-83-231 0 0,1-1 1 0 0,1 0 0 0 0,2 1-1 0 0,0 0 1 0 0,8 47-1 0 0,-5-56-58 0 0,1-1 0 0 0,1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,1-1 0 0 0,0 0 0 0 0,2 0 0 0 0,0-1 0 0 0,17 23 0 0 0,-23-34-69 0 0,0 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,1-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1-1 0 0,1-1 1 0 0,0 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,0-1 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,1-1 1 0 0,0 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,7-5 0 0 0,10-7-1498 0 0,0 0 1 0 0,-1-2 0 0 0,-1 0 0 0 0,33-36 0 0 0,-41 41 398 0 0,3-7-654 0 0,-1-1-1 0 0,0 0 1 0 0,-1-1 0 0 0,-2 0 0 0 0,0-1-1 0 0,11-29 1 0 0,8-12-2276 0 0,-3-2 1473 0 0,-17 48 2136 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="258.28">931 187 544 0 0,'16'-37'21110'0'0,"-16"40"-17945"0"0,-1 16-1848 0 0,-8 16-84 0 0,-2-1 0 0 0,-21 46 0 0 0,3-6-578 0 0,-14 35-541 0 0,-87 160 0 0 0,71-183-1612 0 0,36-55 463 0 0,18-24 140 0 0,-2-1 1 0 0,1 1-1 0 0,0-1 1 0 0,-1-1 0 0 0,0 1-1 0 0,-1-1 1 0 0,-13 7-1 0 0,19-12-805 0 0,-2-7-2156 0 0,2 3 3203 0 0,-1 0-1 0 0,1-1 1 0 0,0 1 0 0 0,0 0-1 0 0,1-1 1 0 0,0 0 0 0 0,-1 1-1 0 0,1-1 1 0 0,1 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,0-9-1 0 0,8-48-2528 0 0,23-83 0 0 0,-17 107 2667 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="500.35">801 134 172 0 0,'28'-33'1173'0'0,"-26"31"-697"0"0,0 0-1 0 0,1 1 1 0 0,-1-1 0 0 0,1 0-1 0 0,0 1 1 0 0,-1 0-1 0 0,1 0 1 0 0,0-1 0 0 0,4 0-1 0 0,-4 2-2 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 4 0 0 0,12 14 1250 0 0,0 1-1 0 0,-2 0 0 0 0,-1 1 1 0 0,16 38-1 0 0,27 100 1703 0 0,-54-155-3341 0 0,45 170 1450 0 0,2 9-1246 0 0,-26-91-258 0 0,-2-41-87 0 0,-16-45-183 0 0,0 1 1 0 0,-1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 10 0 0 0,-2-17 118 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,-26 0-4557 0 0,-20-13-2779 0 0,32 7 5592 0 0,1-2 0 0 0,1 0 1 0 0,-18-13-1 0 0,-6-4-675 0 0,28 19 1944 0 0,0-1-1 0 0,1 0 1 0 0,-14-14-1 0 0,10 9 72 0 0,-9-9-108 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="697.93">752 656 200 0 0,'-7'0'1089'0'0,"7"0"-891"0"0,0 0 1 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-6 11 13534 0 0,29 0-8202 0 0,17-10-3028 0 0,-25 1-1813 0 0,-1-2 0 0 0,1 0 0 0 0,19-3 0 0 0,-13 0-431 0 0,1-1 0 0 0,-2-2 0 0 0,24-8 0 0 0,-36 11-648 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,-1-1-1 0 0,1 0 1 0 0,-1 0-1 0 0,0-1 0 0 0,-1 0 1 0 0,0 0-1 0 0,8-10 1 0 0,1-4-3111 0 0,11-16-3949 0 0,-5 17-4342 0 0,-5 9 8629 0 0,-6 4 2467 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="917.53">1489 192 516 0 0,'0'0'514'0'0,"1"-1"-1"0"0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0-30 0 0,0 1-1 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 0 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,0 1 1 0 0,-1 0-1 0 0,-23 70 5014 0 0,20-60-5682 0 0,-17 43 973 0 0,-69 170-162 0 0,62-163-3267 0 0,-56 90-1 0 0,69-131 1106 0 0,-7 11-1128 0 0,15-15-2140 0 0,7-50-2124 0 0,3-5 4962 0 0,2-1 1 0 0,2 0-1 0 0,19-63 0 0 0,-23 92 1747 0 0,7-32-403 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1169.22">1402 267 356 0 0,'21'-33'1063'0'0,"5"11"3282"0"0,-25 22-4021 0 0,0-1 1 0 0,1 1 0 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 1-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 1 1 0 0,0-1-1 0 0,1 1 1 0 0,1 0 0 0 0,0 0 214 0 0,-1 1 1 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,2 5 1 0 0,6 12 1465 0 0,0 0 1 0 0,13 38-1 0 0,19 99 1910 0 0,-20-66-2303 0 0,-6-15-696 0 0,-10-45-436 0 0,16 50-1 0 0,11 59 112 0 0,-33-139-586 0 0,0 1 0 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 1 0 0 0,0-1 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,11-11 100 0 0,5-19-59 0 0,-15 29-47 0 0,11-27 1 0 0,-2 0 0 0 0,0-1 0 0 0,-2 0 0 0 0,6-41 0 0 0,3-13 0 0 0,37-167-404 0 0,-45 204-619 0 0,5-49 1 0 0,-9 2-6820 0 0,-11 124-7320 0 0,13 5 8960 0 0,-3-30 5478 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1600.68">2187 0 312 0 0,'-5'23'8946'0'0,"13"-6"2131"0"0,12-3-4546 0 0,41 6-2121 0 0,-9-3-3358 0 0,-44-13-1009 0 0,1 0 0 0 0,-1 1 1 0 0,0 0-1 0 0,-1 0 0 0 0,13 11 1 0 0,-17-13-41 0 0,-1 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,-1 1 1 0 0,0-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 7-1 0 0,-1 17 3 0 0,-2 1 0 0 0,0 0-1 0 0,-3-1 1 0 0,0 1 0 0 0,-19 49 0 0 0,1-16 9 0 0,-49 86 0 0 0,53-112 1 0 0,-1-1 1 0 0,-45 54-1 0 0,56-77-15 0 0,0-1-1 0 0,-1 0 1 0 0,0 0-1 0 0,-1-1 1 0 0,0-1-1 0 0,-1 0 1 0 0,1-1-1 0 0,-2 0 1 0 0,1-1-1 0 0,-20 8 1 0 0,32-15-1 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,65-31 0 0 0,102-34 0 0 0,-133 56 0 0 0,0 0 0 0 0,0 3 0 0 0,1 1 0 0 0,0 1 0 0 0,40 1 0 0 0,-36 5 1427 0 0,-9 1-5006 0 0,-24-1 559 0 0,-47 10-7861 0 0,25-8 8703 0 0,8-1 1299 0 0,-1 0-1 0 0,1-1 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0-1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,-7-4 0 0 0,-6-5 3 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink3.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-04-17T13:14:16.081"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">423 62 328 0 0,'8'-30'2678'0'0,"-2"9"9263"0"0,-34 12-3443 0 0,-1 8-5824 0 0,-21 1 466 0 0,38 4-2985 0 0,0 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0 0 0 0 0,1 1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 2 0 0 0,1-1 0 0 0,0 1 0 0 0,0 1 0 0 0,1-1 0 0 0,-13 17-1 0 0,3-1-120 0 0,1 2-1 0 0,1-1 0 0 0,1 2 0 0 0,-15 35 0 0 0,26-54-31 0 0,-8 19 2 0 0,2-1 0 0 0,0 1-1 0 0,1 1 1 0 0,-9 56-1 0 0,11-19-17 0 0,3-46-1 0 0,2 1 0 0 0,0-1 0 0 0,1 1 0 0 0,1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,9 36 0 0 0,-5-40-2 0 0,0-1 0 0 0,1 0-1 0 0,1 0 1 0 0,0-1 0 0 0,1 0 0 0 0,1 0-1 0 0,0-1 1 0 0,0 0 0 0 0,1-1 0 0 0,1 0 0 0 0,16 14-1 0 0,-21-21-170 0 0,0 0-1 0 0,0-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 1 0 0,1-1-1 0 0,-1 0 1 0 0,0 0-1 0 0,1-1 0 0 0,-1 1 1 0 0,1-2-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,-1 0 1 0 0,1-1-1 0 0,0 0 1 0 0,-1 0-1 0 0,10-4 0 0 0,-7 1-541 0 0,-1 0 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,-1-1-1 0 0,1 0 1 0 0,-1 0 0 0 0,0-1 0 0 0,7-9 0 0 0,6-10-3748 0 0,26-48 0 0 0,-34 52 2147 0 0,1 2 0 0 0,0-1 0 0 0,32-33 0 0 0,-33 45 1682 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="586.76">1026 123 268 0 0,'-2'-2'872'0'0,"-1"-1"0"0"0,1 2 0 0 0,0-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,-4 0 0 0 0,3 1-219 0 0,-1 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 1 0 0 0,-1-1 0 0 0,-3 2 0 0 0,-9 6 98 0 0,0 1 1 0 0,1 0-1 0 0,-29 24 1 0 0,7-5 397 0 0,27-21-990 0 0,0 1 0 0 0,1 0 0 0 0,0 1 1 0 0,1 0-1 0 0,0 1 0 0 0,1 0 0 0 0,0 0 1 0 0,0 1-1 0 0,1-1 0 0 0,1 2 0 0 0,-8 21 1 0 0,3-6-54 0 0,3 0 0 0 0,0 0 0 0 0,2 1 0 0 0,-5 43 0 0 0,10-56-104 0 0,1-1 0 0 0,0 1 1 0 0,1 0-1 0 0,0-1 0 0 0,1 1 0 0 0,1-1 0 0 0,1 0 1 0 0,8 22-1 0 0,-9-28-27 0 0,1 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,2 0 0 0 0,-1 0 0 0 0,1-1 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 0 0 0,0-1 0 0 0,9 6 0 0 0,-11-9-46 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,6-6 0 0 0,2 0-174 0 0,-1 0 0 0 0,0-2 1 0 0,-1 1-1 0 0,0-2 0 0 0,-1 0 1 0 0,18-23-1 0 0,-13 12-139 0 0,-1-2 0 0 0,-2 0 0 0 0,0-1 0 0 0,-2 0 0 0 0,0-1 0 0 0,11-47 0 0 0,-13 30-82 0 0,-2-1 0 0 0,-1 1-1 0 0,-1-69 1 0 0,-15 52 3230 0 0,9 63-2657 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,1 5 0 0 0,0 47 159 0 0,5 3-172 0 0,3 0 0 0 0,2 0-1 0 0,2-2 1 0 0,22 57 0 0 0,-34-108-136 0 0,26 57-255 0 0,-25-57 123 0 0,0-1 0 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,1-1 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,1 1 0 0 0,-1-1 0 0 0,4 2 1 0 0,-5-4-86 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,-1-1-1 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0-2-1 0 0,6-9-1126 0 0,-2 0 0 0 0,0 0 0 0 0,5-16 1 0 0,-8 20 850 0 0,31-121-4728 0 0,-24 102 4546 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="998.24">1469 72 564 0 0,'-2'5'913'0'0,"0"1"0"0"0,1-1-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0-1-1 0 0,0 1 1 0 0,1 0 0 0 0,-1-1 0 0 0,1 1-1 0 0,1-1 1 0 0,-1 1 0 0 0,1-1 0 0 0,3 8 0 0 0,8 41 3103 0 0,26 222 1249 0 0,-28-201-4840 0 0,-7-47-196 0 0,4 49 1 0 0,-8-76-214 0 0,2 0 4 0 0,6-7-10 0 0,4-13 0 0 0,0-26-55 0 0,16-43 0 0 0,4-9-65 0 0,-12 9 4 0 0,12-37-93 0 0,-5 64 121 0 0,-26 58 78 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,4-1 1 0 0,-4 3 26 0 0,-1 0 1 0 0,1 0-1 0 0,-1 1 1 0 0,0-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,0 0-1 0 0,0-1 1 0 0,1 3-1 0 0,32 32 654 0 0,-25-21-421 0 0,0-1 1 0 0,-1 2-1 0 0,0-1 1 0 0,-1 1-1 0 0,-1 0 1 0 0,7 23-1 0 0,22 106 626 0 0,-26-102-854 0 0,2 37-535 0 0,-11-73 114 0 0,0 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1-1 1 0 0,-1 1 0 0 0,1 0-1 0 0,-4 9 1 0 0,4-15 12 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0-1 0 0,-1 0 1 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1-1 0 0,0 0 1 0 0,0 1 0 0 0,1-1 0 0 0,-3 1 0 0 0,-11-8-4049 0 0,13 5 4080 0 0,-1 0 1 0 0,1 0-1 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0-4 1 0 0,2-5-411 0 0,0 1 0 0 0,1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,7-14 1 0 0,0 1-7 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink4.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-04-17T13:14:18.844"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">382 126 0 0 0,'-4'-36'3640'0'0,"2"31"-2258"0"0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,-5-4 0 0 0,-14 5 2737 0 0,-16 11-2362 0 0,26 0-1501 0 0,0 1 0 0 0,0 0-1 0 0,1 1 1 0 0,0 0 0 0 0,0 1 0 0 0,2 0-1 0 0,-1 1 1 0 0,1 0 0 0 0,1 1 0 0 0,0 0-1 0 0,1 0 1 0 0,-8 19 0 0 0,-8 18 45 0 0,2 2 1 0 0,-15 58 0 0 0,26-73-282 0 0,1 0 0 0 0,1 1 0 0 0,3 0 0 0 0,1 0 1 0 0,1 1-1 0 0,3-1 0 0 0,4 58 0 0 0,-1-80-73 0 0,0 1-1 0 0,1-1 0 0 0,1 0 1 0 0,9 24-1 0 0,-12-37-128 0 0,1 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,5-1-1 0 0,1 0-584 0 0,1-1 0 0 0,-1 0 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,-1-1 0 0 0,1 0-1 0 0,-1-1 1 0 0,1 0 0 0 0,-1-1 0 0 0,0 0-1 0 0,-1 0 1 0 0,1-1 0 0 0,-1 0-1 0 0,8-8 1 0 0,9-10-1684 0 0,-2-1 0 0 0,-1-1 1 0 0,22-34-1 0 0,8-11 192 0 0,-33 48 1675 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="431.29">773 246 400 0 0,'14'-24'17532'0'0,"-54"37"-12776"0"0,21-8-3837 0 0,0 1 1 0 0,1 1 0 0 0,-28 14-1 0 0,29-11-681 0 0,0 1 0 0 0,1 0 0 0 0,1 1 0 0 0,0 1 0 0 0,1 1 0 0 0,0 0 0 0 0,1 0 0 0 0,1 1 0 0 0,0 1-1 0 0,-14 25 1 0 0,14-18-206 0 0,1 0-1 0 0,1 2 1 0 0,0-1-1 0 0,2 1 0 0 0,1 0 1 0 0,2 1-1 0 0,-5 35 1 0 0,10-55-46 0 0,-1 0 1 0 0,1 0 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,1 1 0 0 0,0-1-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 0-1 0 0,1 0 1 0 0,0-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0-1 0 0,0-1 1 0 0,-1 1 0 0 0,1-1-1 0 0,0-1 1 0 0,7 2 0 0 0,-3-1-91 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-2 0 0 0,-1 1 0 0 0,1-2 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1-1 0 0 0,16-7 0 0 0,-12 3-117 0 0,1 0 0 0 0,-2-2 0 0 0,1 1 1 0 0,-1-2-1 0 0,0 1 0 0 0,-1-2 0 0 0,20-22 0 0 0,-1-9-369 0 0,-1 0 0 0 0,-2-2-1 0 0,-2-1 1 0 0,19-50 0 0 0,-14 7-20 0 0,-16 42 572 0 0,-17 54 1520 0 0,-1-1-1305 0 0,1 0 0 0 0,0 1 0 0 0,0 0 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 13 0 0 0,2 10-115 0 0,1 0 1 0 0,2 0-1 0 0,1 0 1 0 0,2 0-1 0 0,17 55 1 0 0,-11-44-232 0 0,-8-27 14 0 0,1-1 1 0 0,0 1-1 0 0,1-1 1 0 0,9 17-1 0 0,-1 3-1827 0 0,-8-14-2233 0 0,-1-42-4925 0 0,8-79 2721 0 0,-3 20 4422 0 0,-5 45 1524 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="797.68">1192 167 512 0 0,'7'10'1393'0'0,"-1"0"-1"0"0,0 1 0 0 0,0-1 1 0 0,-1 1-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 1 1 0 0,-1-1-1 0 0,3 21 1 0 0,3 7 1269 0 0,70 281 4152 0 0,-25-98-5823 0 0,-44-189-901 0 0,-4-20-48 0 0,-3-12-28 0 0,8-42-191 0 0,-2-1 1 0 0,-1 0 0 0 0,2-80 0 0 0,7-45-302 0 0,-7 87 254 0 0,5-24 20 0 0,-14 95 200 0 0,2 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,9-16 0 0 0,-11 24 12 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 1 1 0 0,0-1-1 0 0,1 1 0 0 0,1-1 0 0 0,0 2 19 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,3 1 0 0 0,3 6 150 0 0,1 0 1 0 0,-1 0-1 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 1 0 0,0-1-1 0 0,-1 1 0 0 0,0 0 0 0 0,4 20 0 0 0,0 14 213 0 0,4 65 0 0 0,-9-74-359 0 0,1 12-1030 0 0,-2 0-1 0 0,-8 78 1 0 0,6-122 767 0 0,-11 50-3502 0 0,-4-25-2087 0 0,14-29 5649 0 0,0 1 0 0 0,0-1 1 0 0,1 0-1 0 0,-1 1 1 0 0,0-1-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 1 0 0,0 0-1 0 0,1-1 0 0 0,-1 1 1 0 0,0 0-1 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 0 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,-1-1 1 0 0,-14-25-2537 0 0,13 17 2158 0 0,0 0 0 0 0,0-1-1 0 0,2 1 1 0 0,-1 0 0 0 0,1-1 0 0 0,1-10-1 0 0,3-7 2 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1041.05">2063 1 104 0 0,'2'3'1870'0'0,"0"0"1"0"0,0 1-1 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,0 0 0 0 0,1 4 1 0 0,7 19 5652 0 0,-1-9-5565 0 0,-1 0 1 0 0,10 36 0 0 0,10 93-193 0 0,-20-100-1517 0 0,26 224-417 0 0,-29-152-4904 0 0,-4-119 4868 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,0-1-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,0-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 1 0 0,-1 1 0 0 0,1-1-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 1-1 0 0,-22-7-6839 0 0,17 4 5841 0 0,1-1 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-5-6 0 0 0,-5-27-2257 0 0,10 23 2736 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink5.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-04-17T13:14:29.549"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">684 163 64 0 0,'0'-5'660'0'0,"-1"0"0"0"0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 1 0 0,0 0-1 0 0,1 1 0 0 0,-1-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 1 0 0,1 0-1 0 0,-1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0 0 1 0 0,-1-1-1 0 0,-4 0 0 0 0,-1-1 657 0 0,0 0 0 0 0,0 1 0 0 0,-1 0 0 0 0,-17-2 0 0 0,-38 4-106 0 0,48 4-1012 0 0,1 1 1 0 0,0 1-1 0 0,1 0 0 0 0,-1 1 1 0 0,1 0-1 0 0,0 2 1 0 0,0 0-1 0 0,1 1 1 0 0,0 0-1 0 0,1 1 0 0 0,0 1 1 0 0,1 0-1 0 0,0 1 1 0 0,0 0-1 0 0,1 1 1 0 0,1 0-1 0 0,-14 22 1 0 0,0 3-148 0 0,1 1 0 0 0,3 2 1 0 0,1 0-1 0 0,2 1 1 0 0,-20 69-1 0 0,25-68-43 0 0,2 1 0 0 0,2 0 1 0 0,-4 52-1 0 0,12-80-66 0 0,0-1 1 0 0,1 0-1 0 0,1 0 0 0 0,0 1 1 0 0,1-1-1 0 0,1 0 0 0 0,0 0 1 0 0,1 0-1 0 0,1-1 1 0 0,0 1-1 0 0,1-1 0 0 0,0 0 1 0 0,10 14-1 0 0,-14-24-47 0 0,1-1 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,8 1 0 0 0,-4-2-212 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 0 0 0,15-3 0 0 0,6-5-1208 0 0,0 0-1 0 0,-1-2 1 0 0,39-20 0 0 0,-61 28 1227 0 0,50-30-3047 0 0,-1-1 1 0 0,-2-4 0 0 0,-1-1-1 0 0,58-59 1 0 0,-73 65 2409 0 0,-14 11 443 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="438.8">976 372 272 0 0,'4'-13'602'0'0,"-2"8"41"0"0,0 0-1 0 0,0 1 0 0 0,0-1 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1-1 1 0 0,0 1-1 0 0,-2-10 1 0 0,1 12-58 0 0,0 1 1 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,-1 1 0 0 0,1-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,-1-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,-5-1-1 0 0,2 1-141 0 0,0 0 0 0 0,1 1 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1-1 0 0,0 1 1 0 0,1 1 0 0 0,-9 2 0 0 0,1 1-127 0 0,0 1 1 0 0,0 0-1 0 0,0 0 0 0 0,1 1 1 0 0,0 1-1 0 0,0 0 0 0 0,1 1 1 0 0,-12 12-1 0 0,8-4-146 0 0,0 0-1 0 0,2 1 1 0 0,0 1 0 0 0,1 0-1 0 0,1 0 1 0 0,1 1 0 0 0,1 0-1 0 0,-6 22 1 0 0,10-31-163 0 0,2 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,1 0 0 0 0,0 0 1 0 0,1 0-1 0 0,0 0 0 0 0,1-1 1 0 0,0 1-1 0 0,1 0 0 0 0,0 0 0 0 0,1-1 1 0 0,0 1-1 0 0,1-1 0 0 0,0 0 1 0 0,8 14-1 0 0,-10-20-69 0 0,1 1 0 0 0,1-2 0 0 0,-1 1 1 0 0,1 0-1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,10-4 0 0 0,0-3-280 0 0,0-1 0 0 0,-1-1 0 0 0,0 0 1 0 0,-1-1-1 0 0,0 0 0 0 0,-1-1 0 0 0,0-1 0 0 0,-1 0 0 0 0,20-26 0 0 0,4-14-842 0 0,40-80-1 0 0,-57 99 826 0 0,-11 18 281 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-2 0 0 0 0,0-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1-30 0 0 0,-8 30 831 0 0,-5 22 445 0 0,-5 26-177 0 0,10 1-884 0 0,1 0 0 0 0,2-1-1 0 0,1 1 1 0 0,1 0-1 0 0,2 0 1 0 0,9 36-1 0 0,-4-13-5 0 0,0-16-329 0 0,2 1 0 0 0,1-1 0 0 0,2-1 0 0 0,2-1 0 0 0,26 47 0 0 0,-42-83 90 0 0,0 1 0 0 0,1-1 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1-1 1 0 0,0 1-1 0 0,0-1 0 0 0,2 1 0 0 0,-2-2-125 0 0,0 1 0 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0-2 0 0 0,16-55-6572 0 0,-17 57 6808 0 0,17-131-7277 0 0,0-3 3371 0 0,-8 105 3351 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="796.89">1503 186 488 0 0,'5'7'1437'0'0,"-1"0"0"0"0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,0 2 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 10 0 0 0,5 17 2154 0 0,7 49 364 0 0,5 119 0 0 0,-15-159-3301 0 0,-2-2-206 0 0,11 91 464 0 0,-3-106-858 0 0,-10-27-56 0 0,0 0 0 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 0 0 0,0-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0-1 0 0 0,0 1 1 0 0,1 0-1 0 0,-1 0 0 0 0,0-1 1 0 0,0 1-1 0 0,1 0 0 0 0,-1 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,1-1 1 0 0,-1 1-1 0 0,0 0 0 0 0,0-1 1 0 0,21-50-254 0 0,-16 39 203 0 0,63-230-1038 0 0,-20 59 323 0 0,-43 166 702 0 0,1 0 1 0 0,0 0 0 0 0,1 1 0 0 0,10-17 0 0 0,-15 30 98 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,4 1 0 0 0,-2 1 103 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,-1 0 1 0 0,1 1-1 0 0,-1 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 1 1 0 0,0-1-1 0 0,-1 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 0 0 0,2 7 1 0 0,2 6-43 0 0,0 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,5 32-1 0 0,-7-22-205 0 0,-1 0-1 0 0,-2 1 1 0 0,0 0-1 0 0,-2 0 1 0 0,-1-1-1 0 0,-2 1 1 0 0,-6 29 0 0 0,4-37-1641 0 0,-2 0 0 0 0,-13 30 1 0 0,16-43 181 0 0,1-1 0 0 0,-1 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,-8 9 1 0 0,5-23-6157 0 0,5 6 7405 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,1 0-1 0 0,-1 0 0 0 0,2-4 1 0 0,15-40-1670 0 0,-8 19 1275 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1019.49">2342 1 128 0 0,'2'4'1285'0'0,"0"1"-1"0"0,1 0 1 0 0,-2 0-1 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0-1 0 0,0 8 1 0 0,2 4 2699 0 0,27 152 8965 0 0,-6 0-7726 0 0,25 344-7799 0 0,-38-379 4074 0 0,-2-60-5405 0 0,-9-72 1649 0 0,0-23-8420 0 0,0 4 8675 0 0,2-29-3454 0 0,16-83 1 0 0,-6 49 3453 0 0,-6 25 1174 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink6.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-04-17T13:14:34.463"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 1 8 0 0,'10'9'76'0'0,"4"0"-4"0"0,-5-4-4 0 0,-4 4-20 0 0,5 0-24 0 0,-1-4-16 0 0,-4 0 0 0 0,-1-1-28 0 0,1 1-32 0 0,-5 4-16 0 0,5 1-8 0 0,-5-1-4 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink7.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-04-17T13:14:35.227"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">476 274 412 0 0,'18'-21'2238'0'0,"-16"19"-1799"0"0,0 0 1 0 0,0 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1-1 1 0 0,4-9 13363 0 0,-43 20-8439 0 0,-12 1-2282 0 0,41-8-2762 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0 0 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1 0 0 0 0,-13 10 0 0 0,-17 15 69 0 0,27-20-388 0 0,0-1-1 0 0,1 2 1 0 0,-1 0-1 0 0,2 0 1 0 0,-17 21-1 0 0,-4 12 0 0 0,1 2 0 0 0,2 1 0 0 0,-24 57 0 0 0,41-77 0 0 0,2 0 0 0 0,1 1 0 0 0,1 0 0 0 0,1 0 0 0 0,-2 30 0 0 0,6-39 0 0 0,1-1 0 0 0,1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,2-1 0 0 0,0 0 0 0 0,0 0 0 0 0,2-1 0 0 0,9 24 0 0 0,-11-33 2 0 0,0 0 0 0 0,0 0 1 0 0,1-1-1 0 0,0 1 0 0 0,0-1 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 1 0 0,1 0-1 0 0,0 0 0 0 0,0-1 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 1 0 0,1-1-1 0 0,-1 0 0 0 0,13 2 0 0 0,-7-3-447 0 0,0 0 0 0 0,0-2 0 0 0,0 1 0 0 0,0-2 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0-1 0 0 0,-1 0 0 0 0,0-1 0 0 0,0 0 0 0 0,19-11 0 0 0,0-4-2671 0 0,0-2-1 0 0,-1-1 1 0 0,-2-1 0 0 0,0-1-1 0 0,-2-2 1 0 0,39-50-1 0 0,-47 55 1019 0 0,39-39-1 0 0,-38 47 1418 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="505.57">1206 251 40 0 0,'-2'-22'1438'0'0,"1"20"-983"0"0,1 1 0 0 0,-1-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,0-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,-3-2 0 0 0,2 2 177 0 0,0 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,1 1-1 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 1 0 0,-3 1-1 0 0,-11 4 279 0 0,1 0 0 0 0,0 1 0 0 0,0 1 1 0 0,1 0-1 0 0,0 1 0 0 0,-24 20 0 0 0,19-11-342 0 0,0 0-1 0 0,2 1 0 0 0,-30 41 0 0 0,25-26-383 0 0,1 1-1 0 0,2 1 0 0 0,2 1 0 0 0,1 0 1 0 0,-17 60-1 0 0,30-85-168 0 0,0 1 0 0 0,0-1-1 0 0,1 1 1 0 0,1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,0 0 0 0 0,1-1 0 0 0,4 23 0 0 0,-3-29-23 0 0,-1-1 1 0 0,1 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1-1 0 0 0,6 2 0 0 0,-4-1-60 0 0,0 0-1 0 0,1-1 0 0 0,-1 0 1 0 0,0 0-1 0 0,1-1 1 0 0,-1 0-1 0 0,1-1 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,10-5 1 0 0,-6 2-126 0 0,-1-1 1 0 0,0 0 0 0 0,0-1 0 0 0,0-1 0 0 0,-1 0-1 0 0,-1 0 1 0 0,1-1 0 0 0,9-12 0 0 0,7-16-546 0 0,-2-1 0 0 0,-1-1 0 0 0,-2-1 0 0 0,18-49 0 0 0,-25 55 349 0 0,-1-1 0 0 0,-2 0 0 0 0,-1 0 0 0 0,-2-1 0 0 0,-2 0-1 0 0,3-60 1 0 0,-11 69 451 0 0,2 27-38 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 1 1 0 0,0-1-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 1 192 0 0,-22 23 1320 0 0,21-19-1481 0 0,1 1 0 0 0,-1 0-1 0 0,1-1 1 0 0,0 1-1 0 0,0-1 1 0 0,1 1 0 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,1 9 1 0 0,12 55 136 0 0,-5-33-76 0 0,69 302 509 0 0,-55-253-614 0 0,-20-75-366 0 0,0 0-1 0 0,1 0 0 0 0,0 0 0 0 0,0-1 1 0 0,1 1-1 0 0,0-1 0 0 0,7 10 1 0 0,-10-18 136 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 1 0 0,-1 0-1 0 0,1-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,0 1 0 0 0,0-1 1 0 0,-1 0-1 0 0,1 1 0 0 0,1-2 0 0 0,15-16-3599 0 0,-5-7 1320 0 0,0 1 0 0 0,-1-2 0 0 0,10-40 0 0 0,13-29-126 0 0,-20 62 2044 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="887.91">1739 204 52 0 0,'2'3'20396'0'0,"3"8"-15493"0"0,1 10-6307 0 0,-5-14 3383 0 0,11 127 1771 0 0,-1 1-1999 0 0,-8-39-1081 0 0,17 118 0 0 0,-19-201-670 0 0,-1-10-1 0 0,0-1 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 1 0 0,1 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,2 0 1 0 0,1 3-1 0 0,-4-8-44 0 0,1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,2-5 0 0 0,3-9-136 0 0,55-315-2132 0 0,-27 136 1313 0 0,-17 138 781 0 0,-16 55 211 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 1 0 0,1 0-1 0 0,4-3 0 0 0,-4 5 14 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 1 0 0 0,1-1 1 0 0,-1 1-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 1 1 0 0,1-1-1 0 0,-1 0 0 0 0,0 1 1 0 0,3 5-1 0 0,6 6 95 0 0,-2 1 0 0 0,0 0 0 0 0,11 26-1 0 0,-9-13 15 0 0,-1 1-1 0 0,-1 0 1 0 0,9 55-1 0 0,2 95-639 0 0,-17-149 200 0 0,-3 55-1903 0 0,-9-30-2526 0 0,-2-32-1387 0 0,10-22 5911 0 0,1-1 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 1 0 0 0,0-1-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1-1 0 0 0,0 1-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,-1-1 0 0 0,-10-20-6623 0 0,9 0 7037 0 0,2 7-757 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1215.7">2568 0 512 0 0,'0'0'2207'0'0,"14"23"12839"0"0,-2 25-8127 0 0,-1-11-4904 0 0,25 156 2853 0 0,-11 3-3668 0 0,28 160-1200 0 0,-37-298 73 0 0,1 2-710 0 0,-13-21-3139 0 0,-4-38 3649 0 0,0-1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,-16-14-3725 0 0,16 13 3623 0 0,-8-7-1292 0 0,1 0-1 0 0,1 0 1 0 0,-1-1 0 0 0,1 0-1 0 0,-6-13 1 0 0,-1-7-1512 0 0,-16-55 0 0 0,27 80 2860 0 0,-7-28-574 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink8.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-04-17T13:14:38.913"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">396 117 316 0 0,'0'-2'429'0'0,"0"1"-1"0"0,0 0 1 0 0,0-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-2 0 1 0 0,-1-1 360 0 0,1 0 0 0 0,-1 1 0 0 0,0 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,0 0 0 0 0,-6 1 0 0 0,3 0-296 0 0,1 0-1 0 0,-1 0 1 0 0,1 1 0 0 0,-1-1-1 0 0,1 2 1 0 0,0-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,0 0 1 0 0,0 1 0 0 0,-8 4-1 0 0,-3 7-303 0 0,1 0-1 0 0,0 1 1 0 0,1 1 0 0 0,1 0-1 0 0,1 2 1 0 0,0-1-1 0 0,1 1 1 0 0,-18 39 0 0 0,10-16-154 0 0,3 0 0 0 0,1 2 1 0 0,2 0-1 0 0,2 1 0 0 0,1 0 1 0 0,-7 81-1 0 0,17-111-97 0 0,1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,0-1 0 0 0,1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,0 0 0 0 0,1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,12 16 0 0 0,-14-24-271 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,1 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1-1 0 0,1-1 1 0 0,-1 1 0 0 0,0-1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1-1-1 0 0,1 0 1 0 0,0 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-2 0 0 0,0 1 0 0 0,0-1-1 0 0,11-2 1 0 0,1-1-847 0 0,0-1 0 0 0,0 0-1 0 0,0-2 1 0 0,0 0 0 0 0,-1-1-1 0 0,25-16 1 0 0,30-23-2751 0 0,118-101-1 0 0,-157 116 3415 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="397.59">1027 358 380 0 0,'34'-41'17058'0'0,"-43"36"-15028"0"0,-38 22 2999 0 0,38-14-4818 0 0,0-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,1 1 1 0 0,0 0-1 0 0,0 0 1 0 0,-14 11-1 0 0,10-4-86 0 0,0 0 0 0 0,1 1 1 0 0,0 0-1 0 0,0 1 0 0 0,2 0 0 0 0,-1 0 0 0 0,2 1 0 0 0,0 0 0 0 0,-11 27 1 0 0,12-19-107 0 0,0 0 0 0 0,2 0 0 0 0,1 0 0 0 0,0 0 0 0 0,2 1 1 0 0,0 32-1 0 0,3-46-51 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 1 0 0,0-1-1 0 0,1 1 0 0 0,0 0 1 0 0,0-1-1 0 0,1 0 0 0 0,0 1 0 0 0,0-1 1 0 0,0-1-1 0 0,1 1 0 0 0,0-1 1 0 0,0 0-1 0 0,1 0 0 0 0,0 0 1 0 0,11 8-1 0 0,-12-12-57 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1 0 0 0,5-2 0 0 0,-1 0-92 0 0,0 0-1 0 0,0-1 0 0 0,-1 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0-2 1 0 0,12-10-1 0 0,4-7-467 0 0,-1-1 1 0 0,-1-1-1 0 0,32-47 1 0 0,-30 36 147 0 0,-2 0 1 0 0,-1-2-1 0 0,-1-1 1 0 0,18-56 0 0 0,-33 86 1532 0 0,-7 24 966 0 0,0 6-1650 0 0,3 25-248 0 0,3 0 1 0 0,1 0 0 0 0,2-1 0 0 0,24 78-1 0 0,-24-100-439 0 0,1 0 0 0 0,13 24 0 0 0,-17-40-356 0 0,0 1-1 0 0,1-1 0 0 0,-1 0 1 0 0,1 0-1 0 0,1 0 0 0 0,-1-1 0 0 0,1 0 1 0 0,0 0-1 0 0,10 7 0 0 0,-15-12 474 0 0,-1-1 1 0 0,1 0-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,0 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,0-2 1 0 0,12-22-3038 0 0,-3-30 868 0 0,-1 3 1014 0 0,-4 24 863 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="794.02">1583 186 480 0 0,'9'48'6929'0'0,"-8"-35"-5373"0"0,19 138 9192 0 0,1 78-6483 0 0,-16-164-3762 0 0,5 105 312 0 0,-10-169-810 0 0,-1 1-1 0 0,1 0 0 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 1 0 0,1 0-1 0 0,-1-1 0 0 0,0 1 1 0 0,1 0-1 0 0,-1-1 0 0 0,1 1 1 0 0,0 0-1 0 0,1 2 0 0 0,-1-5-14 0 0,0 0 0 0 0,-1 0 0 0 0,1 1-1 0 0,0-1 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0-2 0 0 0,70-301-1330 0 0,-63 272 1226 0 0,1 0 0 0 0,1 1 0 0 0,1 0 1 0 0,26-52-1 0 0,-33 78 110 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0-1 0 0,0 0 1 0 0,1 0 0 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0-1 0 0,10-4 1 0 0,-11 6 39 0 0,1 0 1 0 0,-1 0-1 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,-1 1 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 1 0 0 0,4 2 0 0 0,3 4 198 0 0,0 0 1 0 0,-1 0-1 0 0,-1 1 0 0 0,1 0 0 0 0,-2 1 1 0 0,1 0-1 0 0,-1 0 0 0 0,-1 0 0 0 0,0 1 1 0 0,-1 0-1 0 0,0 0 0 0 0,6 24 0 0 0,-4-4 100 0 0,-1 0 0 0 0,-2 1-1 0 0,0 65 1 0 0,-4-79-670 0 0,-2 0 0 0 0,1 0 0 0 0,-6 20 1 0 0,-9 8-3407 0 0,-9-10-5867 0 0,20-37 3289 0 0,4 0 6174 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0-1 0 0 0,3-26-1352 0 0,-2 21 1068 0 0,0-11-221 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1011.53">2398 1 148 0 0,'1'5'1176'0'0,"0"0"0"0"0,0 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 1 0 0,6 8-1 0 0,6 17 3784 0 0,23 85 6034 0 0,-4 1-5181 0 0,6 49-3605 0 0,-18-57-2591 0 0,10 175 1 0 0,-23-193 466 0 0,0 21-2944 0 0,-12-38-4618 0 0,5-84-4558 0 0,-1-14 6175 0 0,4-98 2183 0 0,-3 69 2888 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink9.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+          <inkml:channel name="OA" type="integer" max="360" units="deg"/>
+          <inkml:channel name="OE" type="integer" max="90" units="deg"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+          <inkml:channelProperty channel="OA" name="resolution" value="1000" units="1/deg"/>
+          <inkml:channelProperty channel="OE" name="resolution" value="1000" units="1/deg"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-04-17T13:14:46.458"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#E71224"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">35 125 56 0 0,'-11'7'758'0'0,"0"0"2317"0"0,1-3 3398 0 0,9-4-5815 0 0,10 9 371 0 0,21 5-1105 0 0,-14-9 50 0 0,-14-5 19 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,1-1 0 0 0,7-5-76 0 0,5-5-9 0 0,-13 10 90 0 0,-1-1 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,-2-4 0 0 0,1 3 8 0 0,-21-48 725 0 0,22 51-622 0 0,1-1 1 0 0,-1 1-1 0 0,0-1 1 0 0,1 1 0 0 0,-1-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 1 0 0 0,-1-1-1 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,-1-1-1 0 0,0 1 1 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 0-1 0 0,1 1 1 0 0,-3 0-1 0 0,1 1 60 0 0,0 0 0 0 0,-1 0-1 0 0,2 0 1 0 0,-1 0 0 0 0,0 1 0 0 0,0-1-1 0 0,1 1 1 0 0,0 0 0 0 0,-1 0 0 0 0,1-1-1 0 0,0 2 1 0 0,0-1 0 0 0,1 0 0 0 0,-1 0-1 0 0,-1 5 1 0 0,0 0-138 0 0,1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,1 0-1 0 0,1 12 0 0 0,-1-16-42 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 1 0 0 0,0-1 1 0 0,0 0-1 0 0,0 0 0 0 0,1 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 0 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 1 0 0,0 1-1 0 0,1-1 0 0 0,0 0 0 0 0,4 2 1 0 0,-5-3 6 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,4-1 0 0 0,-2-1 4 0 0,0 1-1 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,0-1-1 0 0,0 1 0 0 0,2-6 0 0 0,0-3 18 0 0,0 0-1 0 0,0 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,-1-1 1 0 0,0-22-1 0 0,-1 34 18 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 1 0 0,0 0-1 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 1 0 0,0 0-1 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,-1 0 0 0 0,1 1 32 0 0,-1 0-1 0 0,1-1 1 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 1 0 0 0,0-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 1 1 0 0,1-1 0 0 0,0 0 0 0 0,-2 4 0 0 0,-4 12 25 0 0,5-13-87 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,1-1 1 0 0,0 1-1 0 0,0-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,1-1 0 0 0,1 1 0 0 0,-1 0 1 0 0,1 0-1 0 0,0-1 0 0 0,2 10 1 0 0,-2-13-8 0 0,-1-1 0 0 0,0 1-1 0 0,1-1 1 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,1 0 0 0 0,0-1 12 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 1 0 0,-1-1-1 0 0,0 1 0 0 0,2-6 0 0 0,0 3 12 0 0,1-4 42 0 0,-1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1-1 0 0 0,1-13 0 0 0,-3 22-16 0 0,0 1 0 0 0,0-1 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1-1 0 0,0-1 1 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-2 0 0 0 0,-24 4 1015 0 0,22-3-949 0 0,-1 1 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,-5 6 1 0 0,7-5-107 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 8 0 0 0,2-12-19 0 0,0 1 1 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,-1 0-1 0 0,1-1 1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,3 3-1 0 0,-2-4 3 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,2-2-1 0 0,0 0 46 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1-6 0 0 0,-2 10 92 0 0,-11-4 2356 0 0,10 6-2449 0 0,-1-1 1 0 0,0 1 0 0 0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0-1-1 0 0,1 1 1 0 0,-1 0 0 0 0,0 0 0 0 0,1 1 0 0 0,0-1-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1-1 0 0,0 0 1 0 0,1 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,0 2 0 0 0,-1-2-72 0 0,1 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 1 0 0,1 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,1 0 0 0 0,-1-1 0 0 0,0 1 0 0 0,1 0 0 0 0,-1-1 1 0 0,3 3-1 0 0,-2-4 20 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,0-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 0 1 0 0,0-2-1 0 0,3-2 40 0 0,-1 0-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,2-14-1 0 0,-3 18-2 0 0,-2-19 151 0 0,2 22-162 0 0,0-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,0 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1-1 0 0,0 0 1 0 0,0-1 0 0 0,-1 1 0 0 0,1 0 0 0 0,-1 0-1 0 0,1-1 1 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1-1 0 0,-2 2 16 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 1-1 0 0,-2 5 1 0 0,0 0-58 0 0,1 1 0 0 0,0-1 0 0 0,1 0 0 0 0,0 1 0 0 0,1 12 0 0 0,0-21 20 0 0,10-38 16 0 0,-10 37-9 0 0,0 0 0 0 0,0-1 0 0 0,0 1 1 0 0,1 0-1 0 0,-1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 1 0 0,0 0-1 0 0,0-1 0 0 0,0 1 0 0 0,-1 0 0 0 0,1-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 1 0 0,-1 0-1 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,0-1 0 0 0,-22 3-2057 0 0,17 0 996 0 0,1 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 1 0 0 0,-5 5 1 0 0,5-2 14 0 0,0 0 1 0 0,1 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1-1 0 0,1 0 1 0 0,0 0-1 0 0,0 1 1 0 0,1-1-1 0 0,0 1 1 0 0,-1 8 0 0 0,-1 8-755 0 0,1-1 1 0 0,1 34 0 0 0,2-34 988 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1490.55">49 885 4 0 0,'-3'0'9418'0'0,"-5"5"-4424"0"0,6-4-4678 0 0,0 0-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 1-1 0 0,0 0 1 0 0,1-1 0 0 0,0 1-1 0 0,-1 0 1 0 0,1 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0 0-1 0 0,-1 3 1 0 0,-12 51 2038 0 0,23-14-1955 0 0,-9-41-398 0 0,0 1 0 0 0,1 0 1 0 0,-1-1-1 0 0,1 1 0 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 1 0 0,0-1-1 0 0,0 0 0 0 0,0 1 1 0 0,0-1-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 1-1 0 0,0-1 0 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1-1 1 0 0,4 2-1 0 0,-2-2 3 0 0,0-1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,0-1 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1-1-1 0 0,0 1 1 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,2-6-1 0 0,3-11 30 0 0,0 1 0 0 0,4-29 0 0 0,-9 40-7 0 0,0 0 0 0 0,0 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,-4-11 0 0 0,5 17 20 0 0,1 1 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 1 0 0,-2-1-1 0 0,1 2 2 0 0,0-1 1 0 0,1 0-1 0 0,-1 1 1 0 0,0-1-1 0 0,0 1 1 0 0,1 0-1 0 0,-1-1 1 0 0,0 1-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 1 1 0 0,0-1-1 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 1-1 0 0,-1 1 1 0 0,-4 8 3 0 0,0 0 1 0 0,1 1-1 0 0,0-1 1 0 0,1 1-1 0 0,0 0 0 0 0,0 1 1 0 0,2-1-1 0 0,-1 1 0 0 0,2-1 1 0 0,0 1-1 0 0,0 16 1 0 0,1-28-55 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,0 0 1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1-1 0 0,0 1 1 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0-1 0 0,2 0 1 0 0,1-2 11 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,-1 1-1 0 0,7-7 1 0 0,-3 1 21 0 0,0-1-1 0 0,0 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,-1-1-1 0 0,7-18 1 0 0,3-2 27 0 0,-16 30-41 0 0,1 0-1 0 0,0 0 1 0 0,-1 1 0 0 0,1-1-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1-1 1 0 0,0 1 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,0 0 0 0 0,0-1-1 0 0,-1 1 1 0 0,1 0-1 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 1 0 0,1 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,-1 0 1 0 0,1-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 1 0 0,0 0 0 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,1 0 1 0 0,-1-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0-1-1 0 0,1 1 1 0 0,-27 13 703 0 0,21-7-713 0 0,1 0-1 0 0,0 0 1 0 0,0 1-1 0 0,1 0 1 0 0,0-1-1 0 0,0 1 0 0 0,1 0 1 0 0,-1 0-1 0 0,2 1 1 0 0,-1-1-1 0 0,1 0 1 0 0,0 1-1 0 0,0-1 1 0 0,1 1-1 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,1 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,5 9 1 0 0,-6-15-13 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,-1-1-1 0 0,1 0 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,1-1-1 0 0,0 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 0-1 0 0,2 0 0 0 0,-2-1 8 0 0,1 1-1 0 0,-1-1 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,0 0 1 0 0,-1 1-1 0 0,0-1 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,2-3 1 0 0,1-5 21 0 0,1 0 1 0 0,-1-1-1 0 0,-1 1 1 0 0,0-1-1 0 0,-1 0 1 0 0,0 1 0 0 0,1-19-1 0 0,-3 26-1 0 0,1-1 0 0 0,-1 1-1 0 0,0 0 1 0 0,-1-1 0 0 0,1 1-1 0 0,-1 0 1 0 0,1 0 0 0 0,-1-1 0 0 0,0 1-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-5-3 0 0 0,4 4 7 0 0,-1 1 1 0 0,1 0 0 0 0,-1 0-1 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,0 1-1 0 0,1 0 1 0 0,-1-1 0 0 0,0 1-1 0 0,0 0 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 0-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 1-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 1-1 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,1 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 1 0 0,-1-1-1 0 0,0 5 1 0 0,0 1-78 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,0 1-1 0 0,1-1 1 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,0 1 0 0 0,5 11 0 0 0,-7-20 29 0 0,0 1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,0-1-1 0 0,0 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,0-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 1 0 0,-1 1-1 0 0,1-1 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,1 0 1 0 0,15-20-162 0 0,6-35 254 0 0,-18 41-24 0 0,-1-1 0 0 0,-1 0 0 0 0,0 0 1 0 0,1-26-1 0 0,-4 39 278 0 0,-2 3-317 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0-1-1 0 0,1 1 1 0 0,-1-1-1 0 0,0 1 1 0 0,1 0 0 0 0,0 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,1 5-1 0 0,-1-5-85 0 0,5 7-863 0 0,10-20 823 0 0,12-12 156 0 0,-23 19 7 0 0,-3 4-31 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,-1 0 1 0 0,0-1-1 0 0,1 1 1 0 0,-1 0-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 0 0 0,0-1 1 0 0,0 1-1 0 0,0 0 1 0 0,0-3-1 0 0,-1 4 346 0 0,-29 5 8 0 0,28-4-375 0 0,0-1-1 0 0,-1 1 1 0 0,1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 1 0 0 0,1-1 0 0 0,-1 1-1 0 0,1 0 1 0 0,-2 2 0 0 0,-1-1-452 0 0,4-3 220 0 0,0 0 0 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1-1 0 0 0,1 1 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0-1 1 0 0,-1 1-1 0 0,1 0 0 0 0,-1 0 1 0 0,1-1-1 0 0,0 1 1 0 0,-1 0-1 0 0,1-1 0 0 0,0 1 1 0 0,0 0-1 0 0,-1-1 0 0 0,1 1 1 0 0,0-1-1 0 0,0 1 1 0 0,-1 0-1 0 0,1-1 0 0 0,0 1 1 0 0,0-1-1 0 0,0 1 0 0 0,0-1 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,0-1 0 0 0,0 0 1 0 0,-4-35-6823 0 0,3 31 6468 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,1-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,1 1 1 0 0,2-9-1 0 0,2-19-1888 0 0,-5 28 2240 0 0,0 0 1 0 0,0 1-1 0 0,1-1 0 0 0,0 0 0 0 0,-1 0 1 0 0,2 0-1 0 0,-1 1 0 0 0,0-1 1 0 0,3-4-1 0 0,4-2-344 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2463.25">266 148 232 0 0,'-10'8'23916'0'0,"10"-7"-23213"0"0,5 14 1975 0 0,47 11-1021 0 0,-4-1-583 0 0,1-2 1 0 0,89 28 0 0 0,7-8-688 0 0,87 21-417 0 0,-196-57 30 0 0,488 123 0 0 0,-391-87 0 0 0,-121-37 0 0 0,-11-5 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,-1-1 0 0 0,1 0 0 0 0,0 1 0 0 0,2-1 0 0 0,-25-5-3100 0 0,-1 0 0 0 0,1-1 0 0 0,0-1 0 0 0,1-1 0 0 0,-30-16 0 0 0,26 13-259 0 0,19 9 2763 0 0,0 1 1 0 0,-1-2-1 0 0,1 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1 0 0 0,1-1-1 0 0,-1 1 1 0 0,1-1-1 0 0,0 1 1 0 0,-1-1 0 0 0,2 0-1 0 0,-1-1 1 0 0,0 1-1 0 0,1-1 1 0 0,-5-8-1 0 0,4 0 51 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2746.88">1472 259 444 0 0,'16'13'14412'0'0,"30"12"-7370"0"0,-13-6-5194 0 0,27 14 357 0 0,-35-20-1492 0 0,-1 0 0 0 0,0 2 0 0 0,-1 1 1 0 0,36 32-1 0 0,-51-41-545 0 0,-1 0-1 0 0,0 1 1 0 0,-1 0 0 0 0,0 0 0 0 0,0 1 0 0 0,8 15-1 0 0,-13-21-122 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,0 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 1-1 0 0,0-1 1 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,-1-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0-1-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,-4 2 1 0 0,-40 34 36 0 0,34-26-434 0 0,-1-1 0 0 0,0-1 0 0 0,-1 1 0 0 0,-1-2-1 0 0,1 0 1 0 0,-18 7 0 0 0,-42 21-3623 0 0,31-19-353 0 0,27-11 1475 0 0,1 0 0 0 0,-1-1 0 0 0,-33 7-1 0 0,44-12 2375 0 0,0-1-1 0 0,0 1 0 0 0,0-1 0 0 0,1 0 0 0 0,-1-1 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1-1 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0-1 0 0 0,0 1 1 0 0,-5-5-1 0 0,-5-6-156 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5819.81">2216 27 256 0 0,'0'0'291'0'0,"0"0"0"0"0,1 0-1 0 0,-1 0 1 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 1-1 0 0,0-1 1 0 0,0 0 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,1 0 0 0 0,-1 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,-1 20 2975 0 0,-11 20-2759 0 0,11-38-197 0 0,-60 229 652 0 0,35-119-2568 0 0,22-99 995 0 0,-4 20-828 0 0,5-14-2907 0 0,-15-52 386 0 0,17 17 2977 0 0,0 1 0 0 0,3-32-1 0 0,2 28 509 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5984.26">2155 185 236 0 0,'0'-1'185'0'0,"0"0"0"0"0,0-1 0 0 0,1 1 0 0 0,-1 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,1-1 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,2 2 0 0 0,19 6 1105 0 0,-11-5-1072 0 0,-1 0 1 0 0,1-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0-1 0 0 0,-1 0-1 0 0,1 0 1 0 0,-1-1 0 0 0,19-7 0 0 0,-5-1 59 0 0,-17 7-3649 0 0,-29 13-42 0 0,-69 39-2351 0 0,85-45 5412 0 0,-4 6-185 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6127.66">2263 254 216 0 0,'0'6'624'0'0,"1"-1"-1"0"0,0 0 1 0 0,1 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,0 0-1 0 0,3 5 1 0 0,4 11 1368 0 0,1-5-1578 0 0,0-3-1574 0 0,-6-1-3576 0 0,6-16 3710 0 0,3 3 601 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6444.81">2673 92 184 0 0,'2'0'269'0'0,"-1"0"1"0"0,1 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,0 1-1 0 0,1-1 0 0 0,-1 0 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 1-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,-1-1 1 0 0,1 1-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 0 0 0,1-1 1 0 0,-1 1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 2-1 0 0,0 13 225 0 0,0 0-1 0 0,-1 0 0 0 0,-7 26 1 0 0,3-17-410 0 0,-6 17 76 0 0,12-42-128 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0-1 0 0 0,0 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 1 0 0 0,0 0 0 0 0,-1-1 0 0 0,1 0-1 0 0,0 1 1 0 0,-1-1 0 0 0,1 0 0 0 0,-3 1 0 0 0,3-1 35 0 0,0 0 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0-1 1 0 0,0 1-1 0 0,0-1 1 0 0,1 1-1 0 0,-1-1 1 0 0,0 0-1 0 0,0 1 1 0 0,1-1-1 0 0,-1 0 1 0 0,0 1-1 0 0,1-1 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,1 0-1 0 0,-1 0 1 0 0,0 1-1 0 0,1-3 1 0 0,10-6 3 0 0,1 0 1 0 0,-1 1 0 0 0,1 1 0 0 0,1 0 0 0 0,16-7 0 0 0,12-7 17 0 0,118-59-2108 0 0,-185 79-8281 0 0,19 1 9841 0 0,0 1 0 0 0,0 0 0 0 0,0 1 0 0 0,0 0 0 0 0,-11 4 1 0 0,-17 17-1327 0 0,22-14 1408 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="6595.22">2753 222 192 0 0,'0'0'867'0'0,"37"42"7540"0"0,35 78-4255 0 0,-71-118-4034 0 0,-2-2-254 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,-10-4 276 0 0,-103-20-7010 0 0,93 19 6380 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7240.15">2272 445 260 0 0,'1'1'224'0'0,"-1"0"0"0"0,1 0-1 0 0,0 0 1 0 0,-1 0 0 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,-1-1 1 0 0,1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,0-1 0 0 0,0 1-1 0 0,1 0 1 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,0 0-1 0 0,0 1 1 0 0,1-1 0 0 0,-1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1-1 0 0,1-1 1 0 0,1-1 0 0 0,43 3 2140 0 0,-41-2-1760 0 0,196-14 3200 0 0,-60 5-2991 0 0,-140 9-703 0 0,-44 10 61 0 0,18-3-156 0 0,0 1 0 0 0,0 1 0 0 0,-32 16-1 0 0,-8 4-25 0 0,26-12 2 0 0,1 1 0 0 0,-54 35 0 0 0,75-39 1 0 0,17-14 7 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 1 0 0 0,0-1-1 0 0,-1 0 1 0 0,1 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 1-1 0 0,0-1 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 1 0 0 0,0-1 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 1 0 0 0,0-1 0 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,1 0-1 0 0,-1 0 1 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,35-2-147 0 0,-8-1 184 0 0,10 0 60 0 0,0-1 1 0 0,59-15-1 0 0,-46 9 29 0 0,6 0 77 0 0,-55 10 128 0 0,-20 14-30 0 0,-132 107-72 0 0,133-105-224 0 0,0 0-1 0 0,-2-1 1 0 0,1-1-1 0 0,-32 16 1 0 0,50-30-2 0 0,1 1 0 0 0,0-1 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 1-1 0 0,0-1 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 1 0 0 0,0-1 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1-1 1 0 0,0 1-1 0 0,-1 0 0 0 0,1 0 1 0 0,0 0-1 0 0,-1 0 0 0 0,1 0 1 0 0,0-1-1 0 0,-1 1 0 0 0,4-13 74 0 0,14-19 52 0 0,-15 30-110 0 0,4-8 31 0 0,1 1-1 0 0,0 0 1 0 0,0 0-1 0 0,1 1 1 0 0,0 0-1 0 0,0 0 0 0 0,1 1 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 1-1 0 0,1 0 0 0 0,0 1 1 0 0,1 0-1 0 0,-1 1 1 0 0,1 0-1 0 0,0 1 0 0 0,0 0 1 0 0,0 0-1 0 0,0 1 1 0 0,20 0-1 0 0,-15 1 26 0 0,-1 2 0 0 0,1-1 1 0 0,-1 2-1 0 0,1 0 0 0 0,-1 1 0 0 0,0 1 0 0 0,0 0 1 0 0,0 1-1 0 0,-1 1 0 0 0,0 0 0 0 0,0 1 0 0 0,0 0 1 0 0,-1 1-1 0 0,21 16 0 0 0,-25-16-104 0 0,0 0 0 0 0,-1 1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,8 13-1 0 0,-13-21-109 0 0,0 1 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,1 1 0 0 0,-1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,0 1 0 0 0,1-1 0 0 0,-1 0 0 0 0,-1 0 0 0 0,1 1 0 0 0,0-1 0 0 0,-3 3 0 0 0,0-1-318 0 0,0-1-1 0 0,1 0 1 0 0,-2 0-1 0 0,1 0 1 0 0,0-1-1 0 0,-1 0 0 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0-1-1 0 0,0 1 1 0 0,-1-1-1 0 0,1-1 1 0 0,0 1-1 0 0,-1-1 0 0 0,1 0 1 0 0,-1 0-1 0 0,-9 0 1 0 0,7-1 83 0 0,0 0 1 0 0,0-1 0 0 0,0 0 0 0 0,0 0-1 0 0,0-1 1 0 0,1 0 0 0 0,-1-1-1 0 0,1 0 1 0 0,-1 0 0 0 0,1 0-1 0 0,0-1 1 0 0,-13-9 0 0 0,1-1-109 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7469.56">2465 217 124 0 0,'0'0'1117'0'0,"10"39"2866"0"0,-6-22-3013 0 0,-1 0 0 0 0,-1 0 0 0 0,0 1 0 0 0,-1 30-1 0 0,0 5 322 0 0,2-11-701 0 0,23 490 2185 0 0,-27-492-3140 0 0,-11 69 0 0 0,12-107 315 0 0,0-1-1 0 0,0 0 0 0 0,0 0 1 0 0,0 0-1 0 0,-1 0 1 0 0,1 0-1 0 0,0 0 0 0 0,0 0 1 0 0,-1 0-1 0 0,1 1 1 0 0,-1-1-1 0 0,1 0 0 0 0,-1 0 1 0 0,1-1-1 0 0,-1 1 1 0 0,0 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1-1-55 0 0,0 0 1 0 0,1 0 0 0 0,-1 0-1 0 0,0-1 1 0 0,1 1-1 0 0,-1 0 1 0 0,0 0-1 0 0,0-1 1 0 0,1 1 0 0 0,-1-1-1 0 0,0 1 1 0 0,1 0-1 0 0,-1-1 1 0 0,1 0-1 0 0,-1 1 1 0 0,1-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,-1 1-1 0 0,1-1 1 0 0,-1 0-1 0 0,1 0 1 0 0,-24-49-3546 0 0,17 25 2609 0 0,2 0 1 0 0,0 0-1 0 0,2-1 1 0 0,1 0-1 0 0,1-47 1 0 0,1 70 992 0 0,0-21-351 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="7614.21">2432 774 136 0 0,'1'-1'183'0'0,"-1"0"1"0"0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0 0 1 0 0,0 0-1 0 0,0-1 0 0 0,-1 1 1 0 0,1 0-1 0 0,0 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,1 0 0 0 0,-1 0 1 0 0,0 0-1 0 0,1 0 1 0 0,-1 0-1 0 0,0 0 1 0 0,0 1-1 0 0,0-1 0 0 0,0 0 1 0 0,0 1-1 0 0,0-1 1 0 0,0 0-1 0 0,0 1 1 0 0,0-1-1 0 0,0 1 1 0 0,0 0-1 0 0,-1-1 0 0 0,-1 1 202 0 0,1 0 0 0 0,0 0-1 0 0,0 1 1 0 0,0-1 0 0 0,0 1-1 0 0,-1-1 1 0 0,1 1 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0 0-1 0 0,1 0 1 0 0,-1 1 0 0 0,0-1-1 0 0,1 1 1 0 0,-3 1 0 0 0,-21 24 1565 0 0,-34 49 1 0 0,17-21-1507 0 0,10-23-158 0 0,-7-8-3637 0 0,37-24 3031 0 0,0 1 0 0 0,0 0-1 0 0,0-1 1 0 0,-1 1 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1 0 0 0,-1 0-1 0 0,1 0 1 0 0,0 0 0 0 0,-1 0 0 0 0,1-1 0 0 0,0 1 0 0 0,0-1-1 0 0,-1 1 1 0 0,1-1 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0 0 0 0,0 0-1 0 0,0 0 1 0 0,0 0 0 0 0,0-1 0 0 0,0 1 0 0 0,0-1 0 0 0,1 1-1 0 0,-1-1 1 0 0,0 1 0 0 0,1-1 0 0 0,0 0 0 0 0,-1 0 0 0 0,1 0-1 0 0,0 0 1 0 0,0 0 0 0 0,-2-4 0 0 0,-15-17-2151 0 0,18 13 1903 0 0</inkml:trace>
+</inkml:ink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -422,37 +2748,173 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A68:C69"/>
+  <dimension ref="A66:J78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="61" workbookViewId="0">
-      <selection activeCell="H73" sqref="H73"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L71" sqref="L71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A66" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B66" s="1"/>
+      <c r="C66" s="1"/>
+      <c r="D66" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C68" t="s">
+      <c r="E66" s="1"/>
+      <c r="F66" s="1"/>
+      <c r="G66" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="H66" s="1"/>
+      <c r="I66" s="1"/>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A67" s="1"/>
+      <c r="B67" s="1"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1"/>
+    </row>
+    <row r="68" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B68" s="1"/>
+      <c r="C68" s="1"/>
+      <c r="D68" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C69" t="s">
+      <c r="E68" s="1"/>
+      <c r="F68" s="1"/>
+      <c r="G68" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="H68" s="2"/>
+      <c r="I68" s="2"/>
+      <c r="J68" s="2"/>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A69" s="1"/>
+      <c r="B69" s="1"/>
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+      <c r="F69" s="1"/>
+      <c r="G69" s="2"/>
+      <c r="H69" s="2"/>
+      <c r="I69" s="2"/>
+      <c r="J69" s="2"/>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A70" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B70" s="1"/>
+      <c r="C70" s="1"/>
+      <c r="D70" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E70" s="4"/>
+      <c r="F70" s="4"/>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A71" s="1"/>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="4"/>
+      <c r="E71" s="4"/>
+      <c r="F71" s="4"/>
+    </row>
+    <row r="78" spans="1:10" ht="25.5" x14ac:dyDescent="0.35">
+      <c r="C78" s="3"/>
     </row>
   </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A70:C71"/>
+    <mergeCell ref="D70:F71"/>
+    <mergeCell ref="A66:C67"/>
+    <mergeCell ref="D66:F67"/>
+    <mergeCell ref="G66:I67"/>
+    <mergeCell ref="A68:C69"/>
+    <mergeCell ref="D68:F69"/>
+    <mergeCell ref="G68:J69"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7B3A893-A98A-42C4-8725-BE8AEC17811B}">
+  <dimension ref="A46:H49"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="46" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" s="4"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A46:C47"/>
+    <mergeCell ref="D46:H47"/>
+    <mergeCell ref="A48:C49"/>
+    <mergeCell ref="D48:F49"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
